--- a/exposan/enviroloo/data/impact_items.xlsx
+++ b/exposan/enviroloo/data/impact_items.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgramData\anaconda3\envs\QSDsan\Lib\site-packages\exposan\enviroloo\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90CD9F78-052A-4215-9462-906DA21784F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D67473B-C545-495C-B95A-90C506164AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{BD97E243-0BB4-3F42-9EBC-00D49E7EE019}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="4" xr2:uid="{BD97E243-0BB4-3F42-9EBC-00D49E7EE019}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="59">
   <si>
     <t>uniform</t>
   </si>
@@ -214,6 +214,10 @@
   </si>
   <si>
     <t>ozone production, liquid from ecoinvent 3.8 TRACI</t>
+  </si>
+  <si>
+    <t>uniform</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -283,12 +287,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -605,8 +608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66379A7A-E84B-1346-816F-577916F7D6A6}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.69140625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -770,7 +773,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD23"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.69140625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -964,7 +967,7 @@
       <c r="F8" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" t="s">
         <v>33</v>
       </c>
     </row>
@@ -987,7 +990,7 @@
       <c r="F9" t="s">
         <v>0</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1010,7 +1013,7 @@
       <c r="F10" t="s">
         <v>0</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1030,7 +1033,10 @@
       <c r="E11">
         <v>5.0778166999999999E-2</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="F11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1216,7 +1222,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1924,6 +1930,9 @@
       <c r="E11">
         <v>2.1442897300000003E-3</v>
       </c>
+      <c r="F11" t="s">
+        <v>44</v>
+      </c>
       <c r="G11" t="s">
         <v>42</v>
       </c>
@@ -2101,8 +2110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CA7D3C9-542A-47E5-A276-0B7825A720DE}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>

--- a/exposan/enviroloo/data/impact_items.xlsx
+++ b/exposan/enviroloo/data/impact_items.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgramData\anaconda3\envs\QSDsan\Lib\site-packages\exposan\enviroloo\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuyaohuang/Github/EXPOsan/exposan/enviroloo/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D67473B-C545-495C-B95A-90C506164AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB79329-2375-C941-BF68-C008967EEC49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="4" xr2:uid="{BD97E243-0BB4-3F42-9EBC-00D49E7EE019}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="25820" windowHeight="15500" xr2:uid="{BD97E243-0BB4-3F42-9EBC-00D49E7EE019}"/>
   </bookViews>
   <sheets>
-    <sheet name="info" sheetId="2" r:id="rId1"/>
-    <sheet name="GWP" sheetId="1" r:id="rId2"/>
-    <sheet name="H_Ecosystems" sheetId="3" r:id="rId3"/>
-    <sheet name="H_Health" sheetId="4" r:id="rId4"/>
-    <sheet name="H_Resources" sheetId="5" r:id="rId5"/>
+    <sheet name="info" sheetId="10" r:id="rId1"/>
+    <sheet name="GWP" sheetId="6" r:id="rId2"/>
+    <sheet name="H_Ecosystems" sheetId="7" r:id="rId3"/>
+    <sheet name="H_Health" sheetId="8" r:id="rId4"/>
+    <sheet name="H_Resources" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="56">
   <si>
     <t>uniform</t>
   </si>
@@ -134,9 +134,6 @@
   </si>
   <si>
     <t>cast iron production from ecoinvent 3.8 TRACI</t>
-  </si>
-  <si>
-    <t>·</t>
   </si>
   <si>
     <t>dichloromethane production from ecoinvent 3.8 TRACI</t>
@@ -173,10 +170,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>uniform</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>ecoinvent 3.8 ReCiPe Endpoint (H, A)</t>
   </si>
   <si>
@@ -214,21 +207,17 @@
   </si>
   <si>
     <t>ozone production, liquid from ecoinvent 3.8 TRACI</t>
-  </si>
-  <si>
-    <t>uniform</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -236,33 +225,45 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -287,10 +288,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -605,20 +609,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66379A7A-E84B-1346-816F-577916F7D6A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2030CF9-1A64-6B42-8747-D89EA3582292}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.69140625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.4609375" customWidth="1"/>
-    <col min="2" max="2" width="18.3046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -626,7 +630,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -634,7 +638,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -642,7 +646,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -650,7 +654,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -658,7 +662,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -666,7 +670,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -674,7 +678,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -682,7 +686,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -690,31 +694,31 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -722,7 +726,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -730,7 +734,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -738,7 +742,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -746,7 +750,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -754,7 +758,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -763,31 +767,25 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28627DAA-889C-6942-A3B5-3C8A993554C1}">
-  <dimension ref="A1:G26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78E77894-F9A8-C44E-9C64-4D15AE2DD61D}">
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.69140625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.4609375" customWidth="1"/>
-    <col min="2" max="2" width="13.3046875" customWidth="1"/>
-    <col min="3" max="3" width="16.15234375" customWidth="1"/>
-    <col min="4" max="4" width="17.4609375" customWidth="1"/>
-    <col min="5" max="5" width="17.15234375" customWidth="1"/>
-    <col min="6" max="6" width="19.69140625" customWidth="1"/>
-    <col min="7" max="7" width="29.3046875" customWidth="1"/>
+    <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -810,7 +808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -830,10 +828,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -853,10 +851,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -879,7 +877,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -902,7 +900,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -925,7 +923,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -945,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -968,10 +966,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -991,12 +989,12 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -1014,12 +1012,12 @@
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -1034,15 +1032,15 @@
         <v>5.0778166999999999E-2</v>
       </c>
       <c r="F11" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="G11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -1060,10 +1058,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -1088,7 +1086,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -1111,7 +1109,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1131,10 +1129,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1154,10 +1152,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1177,10 +1175,10 @@
         <v>0</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1200,43 +1198,38 @@
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="E26" t="s">
-        <v>32</v>
-      </c>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C22" s="6"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G6">
-    <sortCondition ref="A2:A6"/>
-  </sortState>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45AFA65E-2AB0-4D0E-8E5A-9EA8A54DBEB2}">
-  <dimension ref="A1:G21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAE23915-BA9D-9047-BD7F-D780BE079B91}">
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.69140625" customWidth="1"/>
-    <col min="2" max="2" width="23.84375" customWidth="1"/>
-    <col min="3" max="3" width="20.15234375" customWidth="1"/>
-    <col min="4" max="4" width="22.4609375" customWidth="1"/>
-    <col min="5" max="5" width="27" customWidth="1"/>
-    <col min="6" max="6" width="25.69140625" customWidth="1"/>
-    <col min="7" max="7" width="19.84375" customWidth="1"/>
+    <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1259,7 +1252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -1275,14 +1268,14 @@
       <c r="E2">
         <v>8.0841080390332029E-4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" t="s">
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -1298,14 +1291,14 @@
       <c r="E3">
         <v>0.17941746900000002</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" t="s">
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1321,14 +1314,14 @@
       <c r="E4" s="2">
         <v>0.11438680000000001</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" t="s">
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1344,14 +1337,14 @@
       <c r="E5" s="2">
         <v>3.6242716400000007E-2</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" t="s">
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1367,14 +1360,14 @@
       <c r="E6">
         <v>2.5449777100000001E-2</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" t="s">
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -1390,14 +1383,14 @@
       <c r="E7" s="2">
         <v>8.3734553256484025E-3</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" t="s">
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -1413,14 +1406,14 @@
       <c r="E8" s="2">
         <v>6.6441678599999998E-2</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" t="s">
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1436,16 +1429,16 @@
       <c r="E9" s="2">
         <v>0.54005598900000007</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" t="s">
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
@@ -1459,16 +1452,16 @@
       <c r="E10" s="2">
         <v>0.24354319000000005</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" t="s">
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -1482,16 +1475,16 @@
       <c r="E11">
         <v>6.0286798000000008E-4</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>43</v>
+      <c r="F11" t="s">
+        <v>42</v>
       </c>
       <c r="G11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -1509,10 +1502,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -1530,14 +1523,14 @@
         <f t="shared" ref="E13" si="1">C13*1.1</f>
         <v>8.3734553256484025E-3</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" t="s">
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -1553,14 +1546,14 @@
       <c r="E14" s="2">
         <v>2.0066641100000001E-2</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" t="s">
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1576,14 +1569,14 @@
       <c r="E15" s="2">
         <v>6.4616924090083211E-2</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" t="s">
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1599,14 +1592,14 @@
       <c r="E16" s="2">
         <v>2.8305558600000003E-2</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" t="s">
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1622,14 +1615,14 @@
       <c r="E17" s="2">
         <v>5.6533488000000007E-2</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" t="s">
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1645,44 +1638,42 @@
       <c r="E18">
         <v>0.23964745200000001</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" t="s">
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="E21" t="s">
-        <v>41</v>
-      </c>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C22" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{338397C7-E99F-4EAF-BD45-82C00ACD803A}">
-  <dimension ref="A1:G18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACC58D38-791A-9448-B751-E61F12E1D34C}">
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.69140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.3046875" customWidth="1"/>
-    <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="23.3046875" customWidth="1"/>
-    <col min="5" max="5" width="28.15234375" customWidth="1"/>
-    <col min="6" max="6" width="12.84375" customWidth="1"/>
-    <col min="7" max="7" width="46" customWidth="1"/>
+    <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1705,7 +1696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -1725,10 +1716,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -1748,10 +1739,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1771,10 +1762,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1794,10 +1785,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1817,10 +1808,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -1842,10 +1833,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -1865,10 +1856,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1888,12 +1879,12 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
@@ -1911,12 +1902,12 @@
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -1931,15 +1922,15 @@
         <v>2.1442897300000003E-3</v>
       </c>
       <c r="F11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -1957,10 +1948,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -1982,10 +1973,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -2005,10 +1996,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2028,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -2051,10 +2042,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -2074,10 +2065,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -2097,35 +2088,38 @@
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>56</v>
-      </c>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C22" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CA7D3C9-542A-47E5-A276-0B7825A720DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C81A4224-FBC7-384E-84A6-B6284BE2110D}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.69140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.4609375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.15234375" customWidth="1"/>
-    <col min="4" max="4" width="35.15234375" customWidth="1"/>
-    <col min="5" max="5" width="28.3046875" customWidth="1"/>
-    <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="22.69140625" customWidth="1"/>
+    <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -2148,7 +2142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -2168,10 +2162,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -2191,10 +2185,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -2214,10 +2208,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -2237,10 +2231,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -2260,10 +2254,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -2283,10 +2277,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -2306,10 +2300,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -2329,12 +2323,12 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
@@ -2352,12 +2346,12 @@
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -2372,15 +2366,15 @@
         <v>2.00856106E-3</v>
       </c>
       <c r="F11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -2398,10 +2392,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -2423,10 +2417,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -2446,10 +2440,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2469,10 +2463,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -2492,10 +2486,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -2515,10 +2509,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -2538,16 +2532,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
       <c r="D21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/exposan/enviroloo/data/impact_items.xlsx
+++ b/exposan/enviroloo/data/impact_items.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuyaohuang/Github/EXPOsan/exposan/enviroloo/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/Work_software/anaconda3/envs/QSDsan/lib/python3.10/site-packages/exposan/enviroloo/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB79329-2375-C941-BF68-C008967EEC49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57523307-8095-7742-A5E6-88EC83C51D17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="25820" windowHeight="15500" xr2:uid="{BD97E243-0BB4-3F42-9EBC-00D49E7EE019}"/>
+    <workbookView xWindow="3020" yWindow="1280" windowWidth="25820" windowHeight="15500" activeTab="4" xr2:uid="{BD97E243-0BB4-3F42-9EBC-00D49E7EE019}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="10" r:id="rId1"/>
@@ -612,8 +612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2030CF9-1A64-6B42-8747-D89EA3582292}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1220,7 +1220,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1464,7 +1464,7 @@
         <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C11">
         <v>5.4806180000000003E-4</v>
@@ -1487,7 +1487,7 @@
         <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C12">
         <v>3.6537452E-3</v>
@@ -1664,7 +1664,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1910,7 +1910,7 @@
         <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C11">
         <v>1.9493543E-3</v>
@@ -1933,7 +1933,7 @@
         <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C12">
         <v>9.7467717000000002E-3</v>
@@ -2109,8 +2109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C81A4224-FBC7-384E-84A6-B6284BE2110D}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2354,7 +2354,7 @@
         <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C11">
         <v>1.8259646E-3</v>
@@ -2377,7 +2377,7 @@
         <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C12">
         <v>9.1298230000000005E-3</v>

--- a/exposan/enviroloo/data/impact_items.xlsx
+++ b/exposan/enviroloo/data/impact_items.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/Work_software/anaconda3/envs/QSDsan/lib/python3.10/site-packages/exposan/enviroloo/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uillinoisedu-my.sharepoint.com/personal/siqi_illinois_edu/Documents/Gates_Project_NSS_report/Enviroloo_analysis/EnviroLoo_Clear_Analysis/CODES_BY_YUYAO_and_SIQI/data/data_exposan_branch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57523307-8095-7742-A5E6-88EC83C51D17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{57523307-8095-7742-A5E6-88EC83C51D17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{040D90B7-CFAC-4BB3-AA6A-A62BF638D5E0}"/>
   <bookViews>
-    <workbookView xWindow="3020" yWindow="1280" windowWidth="25820" windowHeight="15500" activeTab="4" xr2:uid="{BD97E243-0BB4-3F42-9EBC-00D49E7EE019}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{BD97E243-0BB4-3F42-9EBC-00D49E7EE019}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="10" r:id="rId1"/>
@@ -213,11 +213,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -225,26 +225,26 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -263,8 +263,15 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -612,17 +619,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2030CF9-1A64-6B42-8747-D89EA3582292}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.765625" customWidth="1"/>
+    <col min="2" max="2" width="18.3046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -630,7 +637,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -638,7 +645,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -646,7 +653,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -654,7 +661,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -662,7 +669,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -670,7 +677,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -678,7 +685,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -686,7 +693,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -694,7 +701,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -702,7 +709,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -710,7 +717,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -718,7 +725,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -726,7 +733,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -734,7 +741,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -742,7 +749,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -750,7 +757,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -758,7 +765,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -767,6 +774,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -779,13 +787,13 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.4609375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -808,7 +816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -831,7 +839,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -854,7 +862,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -877,7 +885,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -900,7 +908,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -923,7 +931,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -946,7 +954,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -969,7 +977,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -992,7 +1000,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -1015,7 +1023,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -1038,7 +1046,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -1061,7 +1069,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -1086,7 +1094,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -1109,7 +1117,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1132,7 +1140,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1155,7 +1163,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1178,7 +1186,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1201,16 +1209,17 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A21" s="4"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C22" s="6"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1223,13 +1232,13 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.4609375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1252,7 +1261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -1275,7 +1284,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -1298,7 +1307,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1321,7 +1330,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1344,7 +1353,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1367,7 +1376,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -1390,7 +1399,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -1413,7 +1422,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1436,7 +1445,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -1459,7 +1468,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -1482,7 +1491,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -1505,7 +1514,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -1530,7 +1539,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -1553,7 +1562,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1576,7 +1585,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1599,7 +1608,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1622,7 +1631,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1645,16 +1654,17 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A21" s="4"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C22" s="6"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1664,16 +1674,16 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.4609375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1696,7 +1706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -1719,7 +1729,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -1742,7 +1752,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1765,7 +1775,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1788,7 +1798,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1811,7 +1821,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -1836,7 +1846,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -1859,7 +1869,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1882,7 +1892,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -1905,7 +1915,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -1928,7 +1938,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -1951,7 +1961,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -1976,7 +1986,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -1999,7 +2009,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2022,7 +2032,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -2045,7 +2055,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -2068,7 +2078,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -2091,16 +2101,17 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A21" s="4"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C22" s="6"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2109,17 +2120,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C81A4224-FBC7-384E-84A6-B6284BE2110D}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.4609375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -2142,7 +2153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -2165,7 +2176,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -2188,7 +2199,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -2211,7 +2222,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -2234,7 +2245,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -2257,7 +2268,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -2280,7 +2291,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -2303,7 +2314,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -2326,7 +2337,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -2349,7 +2360,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -2372,7 +2383,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -2395,7 +2406,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -2420,7 +2431,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -2443,7 +2454,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2466,7 +2477,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -2489,7 +2500,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -2512,7 +2523,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -2535,13 +2546,14 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A21" s="4"/>
       <c r="D21" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/exposan/enviroloo/data/impact_items.xlsx
+++ b/exposan/enviroloo/data/impact_items.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uillinoisedu-my.sharepoint.com/personal/siqi_illinois_edu/Documents/Gates_Project_NSS_report/Enviroloo_analysis/EnviroLoo_Clear_Analysis/CODES_BY_YUYAO_and_SIQI/data/data_exposan_branch/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uillinoisedu-my.sharepoint.com/personal/siqi_illinois_edu/Documents/Gates_Project_NSS_report/CODES_BY_YUYAO_and_SIQI_updated5/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{57523307-8095-7742-A5E6-88EC83C51D17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{040D90B7-CFAC-4BB3-AA6A-A62BF638D5E0}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{57523307-8095-7742-A5E6-88EC83C51D17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8BA9859-ACDE-41B2-B50C-5C33ABFF6A3F}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{BD97E243-0BB4-3F42-9EBC-00D49E7EE019}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="4" xr2:uid="{BD97E243-0BB4-3F42-9EBC-00D49E7EE019}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="10" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="58">
   <si>
     <t>uniform</t>
   </si>
@@ -207,6 +207,14 @@
   </si>
   <si>
     <t>ozone production, liquid from ecoinvent 3.8 TRACI</t>
+  </si>
+  <si>
+    <t>Steel</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>kg</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -617,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2030CF9-1A64-6B42-8747-D89EA3582292}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -655,15 +663,15 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -671,7 +679,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -679,7 +687,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -687,7 +695,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
@@ -695,7 +703,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
@@ -703,15 +711,15 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -719,7 +727,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -727,7 +735,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -735,7 +743,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -743,7 +751,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
@@ -751,15 +759,15 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
@@ -767,9 +775,17 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>7</v>
       </c>
     </row>
@@ -781,10 +797,478 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78E77894-F9A8-C44E-9C64-4D15AE2DD61D}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="26.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.15234375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="D2">
+        <v>0.17460000000000001</v>
+      </c>
+      <c r="E2">
+        <v>0.21340000000000003</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>1.97</v>
+      </c>
+      <c r="D3">
+        <v>1.7729999999999999</v>
+      </c>
+      <c r="E3">
+        <v>2.1670000000000003</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>4.7926308999999998</v>
+      </c>
+      <c r="D4">
+        <v>4.3133678099999999</v>
+      </c>
+      <c r="E4">
+        <v>5.2718939900000006</v>
+      </c>
+      <c r="F4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>4.7926308999999998</v>
+      </c>
+      <c r="D5">
+        <v>4.3133678099999999</v>
+      </c>
+      <c r="E5">
+        <v>5.2718939900000006</v>
+      </c>
+      <c r="F5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>1.7125967</v>
+      </c>
+      <c r="D6">
+        <v>1.54133703</v>
+      </c>
+      <c r="E6">
+        <v>1.8838563700000002</v>
+      </c>
+      <c r="F6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>1.0621746000000001</v>
+      </c>
+      <c r="D7">
+        <v>0.95595714000000009</v>
+      </c>
+      <c r="E7">
+        <v>1.1683920600000002</v>
+      </c>
+      <c r="F7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>2.0673798630000002</v>
+      </c>
+      <c r="D8">
+        <v>1.8606418767000001</v>
+      </c>
+      <c r="E8">
+        <v>2.2741178493</v>
+      </c>
+      <c r="F8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>3.3541512</v>
+      </c>
+      <c r="D9">
+        <v>3.01873608</v>
+      </c>
+      <c r="E9">
+        <v>3.6895663200000004</v>
+      </c>
+      <c r="F9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>25.979002999999999</v>
+      </c>
+      <c r="D10">
+        <v>23.3811027</v>
+      </c>
+      <c r="E10">
+        <v>28.576903300000001</v>
+      </c>
+      <c r="F10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>8.8785325999999998</v>
+      </c>
+      <c r="D11">
+        <v>7.9906793399999998</v>
+      </c>
+      <c r="E11">
+        <v>9.7663858599999998</v>
+      </c>
+      <c r="F11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>4.6161969999999997E-2</v>
+      </c>
+      <c r="D12">
+        <v>4.1545773000000001E-2</v>
+      </c>
+      <c r="E12">
+        <v>5.0778166999999999E-2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>0.18464786999999999</v>
+      </c>
+      <c r="D13">
+        <v>0.16618308300000001</v>
+      </c>
+      <c r="E13">
+        <v>0.203112657</v>
+      </c>
+      <c r="F13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <v>4.3790218750000003</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ref="D14" si="0">C14*0.9</f>
+        <v>3.9411196875000005</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ref="E14" si="1">C14*1.1</f>
+        <v>4.8169240625000009</v>
+      </c>
+      <c r="F14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <v>0.92807097999999999</v>
+      </c>
+      <c r="D15">
+        <v>0.83526388200000001</v>
+      </c>
+      <c r="E15">
+        <v>1.020878078</v>
+      </c>
+      <c r="F15" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16">
+        <v>13.937562</v>
+      </c>
+      <c r="D16">
+        <v>12.543805799999999</v>
+      </c>
+      <c r="E16">
+        <v>15.3313182</v>
+      </c>
+      <c r="F16" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17">
+        <v>1.2497984</v>
+      </c>
+      <c r="D17">
+        <v>1.12481856</v>
+      </c>
+      <c r="E17">
+        <v>1.3747782400000002</v>
+      </c>
+      <c r="F17" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18">
+        <v>2.4745949999999999</v>
+      </c>
+      <c r="D18">
+        <v>2.2271355000000002</v>
+      </c>
+      <c r="E18">
+        <v>2.7220545</v>
+      </c>
+      <c r="F18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19">
+        <v>11.062602999999999</v>
+      </c>
+      <c r="D19">
+        <v>9.9563427000000004</v>
+      </c>
+      <c r="E19">
+        <v>12.1688633</v>
+      </c>
+      <c r="F19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C21" s="5"/>
+    </row>
+    <row r="22" spans="1:7" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="4"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C23" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAE23915-BA9D-9047-BD7F-D780BE079B91}">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -821,22 +1305,22 @@
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C2">
-        <v>0.19400000000000001</v>
+        <v>7.3491891263938202E-4</v>
       </c>
       <c r="D2">
-        <v>0.17460000000000001</v>
+        <v>6.6142702137544386E-4</v>
       </c>
       <c r="E2">
-        <v>0.21340000000000003</v>
+        <v>8.0841080390332029E-4</v>
       </c>
       <c r="F2" t="s">
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -844,379 +1328,402 @@
         <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C3">
-        <v>1.97</v>
+        <v>0.16310679</v>
       </c>
       <c r="D3">
-        <v>1.7729999999999999</v>
+        <v>0.14679611100000001</v>
       </c>
       <c r="E3">
-        <v>2.1670000000000003</v>
+        <v>0.17941746900000002</v>
       </c>
       <c r="F3" t="s">
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C4">
-        <v>4.7926308999999998</v>
+        <v>0.103988</v>
       </c>
       <c r="D4">
-        <v>4.3133678099999999</v>
+        <v>9.3589199999999997E-2</v>
       </c>
       <c r="E4">
-        <v>5.2718939900000006</v>
+        <v>0.11438680000000001</v>
       </c>
       <c r="F4" t="s">
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5">
-        <v>1.7125967</v>
-      </c>
-      <c r="D5">
-        <v>1.54133703</v>
-      </c>
-      <c r="E5">
-        <v>1.8838563700000002</v>
+        <v>15</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.103988</v>
+      </c>
+      <c r="D5" s="2">
+        <v>9.3589199999999997E-2</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.11438680000000001</v>
       </c>
       <c r="F5" t="s">
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6">
-        <v>1.0621746000000001</v>
-      </c>
-      <c r="D6">
-        <v>0.95595714000000009</v>
-      </c>
-      <c r="E6">
-        <v>1.1683920600000002</v>
+        <v>15</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3.2947924000000003E-2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2.9653131600000004E-2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>3.6242716400000007E-2</v>
       </c>
       <c r="F6" t="s">
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C7">
-        <v>2.0673798630000002</v>
+        <v>2.3136160999999999E-2</v>
       </c>
       <c r="D7">
-        <v>1.8606418767000001</v>
+        <v>2.08225449E-2</v>
       </c>
       <c r="E7">
-        <v>2.2741178493</v>
+        <v>2.5449777100000001E-2</v>
       </c>
       <c r="F7" t="s">
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8">
-        <v>3.3541512</v>
-      </c>
-      <c r="D8">
-        <v>3.01873608</v>
-      </c>
-      <c r="E8">
-        <v>3.6895663200000004</v>
+        <v>15</v>
+      </c>
+      <c r="C8" s="2">
+        <v>7.6122321142258198E-3</v>
+      </c>
+      <c r="D8" s="2">
+        <v>6.851008902803238E-3</v>
+      </c>
+      <c r="E8" s="2">
+        <v>8.3734553256484025E-3</v>
       </c>
       <c r="F8" t="s">
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9">
-        <v>25.979002999999999</v>
-      </c>
-      <c r="D9">
-        <v>23.3811027</v>
-      </c>
-      <c r="E9">
-        <v>28.576903300000001</v>
+        <v>15</v>
+      </c>
+      <c r="C9" s="2">
+        <v>6.0401525999999997E-2</v>
+      </c>
+      <c r="D9" s="2">
+        <v>5.4361373399999996E-2</v>
+      </c>
+      <c r="E9" s="2">
+        <v>6.6441678599999998E-2</v>
       </c>
       <c r="F9" t="s">
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10">
-        <v>8.8785325999999998</v>
-      </c>
-      <c r="D10">
-        <v>7.9906793399999998</v>
-      </c>
-      <c r="E10">
-        <v>9.7663858599999998</v>
+        <v>15</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.49095999000000001</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.44186399100000001</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.54005598900000007</v>
       </c>
       <c r="F10" t="s">
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11">
-        <v>4.6161969999999997E-2</v>
-      </c>
-      <c r="D11">
-        <v>4.1545773000000001E-2</v>
-      </c>
-      <c r="E11">
-        <v>5.0778166999999999E-2</v>
+        <v>15</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.22140290000000001</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.19926261000000001</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.24354319000000005</v>
       </c>
       <c r="F11" t="s">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C12">
-        <v>0.18464786999999999</v>
+        <v>5.4806180000000003E-4</v>
       </c>
       <c r="D12">
-        <v>0.16618308300000001</v>
+        <v>4.9325562000000008E-4</v>
       </c>
       <c r="E12">
-        <v>0.203112657</v>
+        <v>6.0286798000000008E-4</v>
       </c>
       <c r="F12" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="G12" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C13">
-        <v>4.3790218750000003</v>
+        <v>3.6537452E-3</v>
       </c>
       <c r="D13">
-        <f t="shared" ref="D13" si="0">C13*0.9</f>
-        <v>3.9411196875000005</v>
+        <v>3.28837068E-3</v>
       </c>
       <c r="E13">
-        <f t="shared" ref="E13" si="1">C13*1.1</f>
-        <v>4.8169240625000009</v>
+        <v>4.0191197200000004E-3</v>
       </c>
       <c r="F13" t="s">
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14">
-        <v>0.92807097999999999</v>
-      </c>
-      <c r="D14">
-        <v>0.83526388200000001</v>
-      </c>
-      <c r="E14">
-        <v>1.020878078</v>
+        <v>15</v>
+      </c>
+      <c r="C14" s="2">
+        <v>7.6122321142258198E-3</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" ref="D14" si="0">C14*0.9</f>
+        <v>6.851008902803238E-3</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" ref="E14" si="1">C14*1.1</f>
+        <v>8.3734553256484025E-3</v>
       </c>
       <c r="F14" t="s">
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15">
-        <v>13.937562</v>
-      </c>
-      <c r="D15">
-        <v>12.543805799999999</v>
-      </c>
-      <c r="E15">
-        <v>15.3313182</v>
+        <v>15</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1.8242400999999998E-2</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1.6418160899999999E-2</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2.0066641100000001E-2</v>
       </c>
       <c r="F15" t="s">
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16">
-        <v>1.2497984</v>
-      </c>
-      <c r="D16">
-        <v>1.12481856</v>
-      </c>
-      <c r="E16">
-        <v>1.3747782400000002</v>
+        <v>15</v>
+      </c>
+      <c r="C16" s="2">
+        <v>5.8742658263712E-2</v>
+      </c>
+      <c r="D16" s="2">
+        <v>5.2868392437340803E-2</v>
+      </c>
+      <c r="E16" s="2">
+        <v>6.4616924090083211E-2</v>
       </c>
       <c r="F16" t="s">
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17">
-        <v>2.4745949999999999</v>
-      </c>
-      <c r="D17">
-        <v>2.2271355000000002</v>
-      </c>
-      <c r="E17">
-        <v>2.7220545</v>
+        <v>15</v>
+      </c>
+      <c r="C17" s="2">
+        <v>2.5732326E-2</v>
+      </c>
+      <c r="D17" s="2">
+        <v>2.3159093400000001E-2</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2.8305558600000003E-2</v>
       </c>
       <c r="F17" t="s">
         <v>0</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>53</v>
+      <c r="G17" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="2">
+        <v>5.1394080000000002E-2</v>
+      </c>
+      <c r="D18" s="2">
+        <v>4.6254672000000004E-2</v>
+      </c>
+      <c r="E18" s="2">
+        <v>5.6533488000000007E-2</v>
+      </c>
+      <c r="F18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="B18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18">
-        <v>11.062602999999999</v>
-      </c>
-      <c r="D18">
-        <v>9.9563427000000004</v>
-      </c>
-      <c r="E18">
-        <v>12.1688633</v>
-      </c>
-      <c r="F18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C20" s="5"/>
-    </row>
-    <row r="21" spans="1:7" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="4"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C22" s="6"/>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19">
+        <v>0.21786132</v>
+      </c>
+      <c r="D19">
+        <v>0.19607518800000001</v>
+      </c>
+      <c r="E19">
+        <v>0.23964745200000001</v>
+      </c>
+      <c r="F19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C21" s="5"/>
+    </row>
+    <row r="22" spans="1:7" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="4"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C23" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -1224,12 +1731,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAE23915-BA9D-9047-BD7F-D780BE079B91}">
-  <dimension ref="A1:G22"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACC58D38-791A-9448-B751-E61F12E1D34C}">
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1269,13 +1776,13 @@
         <v>15</v>
       </c>
       <c r="C2">
-        <v>7.3491891263938202E-4</v>
+        <v>1.11416240905451E-2</v>
       </c>
       <c r="D2">
-        <v>6.6142702137544386E-4</v>
+        <v>1.0027461681490591E-2</v>
       </c>
       <c r="E2">
-        <v>8.0841080390332029E-4</v>
+        <v>1.2255786499599611E-2</v>
       </c>
       <c r="F2" t="s">
         <v>0</v>
@@ -1291,14 +1798,14 @@
       <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="C3">
-        <v>0.16310679</v>
-      </c>
-      <c r="D3">
-        <v>0.14679611100000001</v>
-      </c>
-      <c r="E3">
-        <v>0.17941746900000002</v>
+      <c r="C3" s="3">
+        <v>0.32531039</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.29277935100000002</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.35784142900000004</v>
       </c>
       <c r="F3" t="s">
         <v>0</v>
@@ -1309,19 +1816,19 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="2">
-        <v>0.103988</v>
-      </c>
-      <c r="D4" s="2">
-        <v>9.3589199999999997E-2</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.11438680000000001</v>
+      <c r="C4">
+        <v>0.30268327</v>
+      </c>
+      <c r="D4">
+        <v>0.27241494300000002</v>
+      </c>
+      <c r="E4">
+        <v>0.33295159700000004</v>
       </c>
       <c r="F4" t="s">
         <v>0</v>
@@ -1332,134 +1839,136 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="2">
-        <v>3.2947924000000003E-2</v>
-      </c>
-      <c r="D5" s="2">
-        <v>2.9653131600000004E-2</v>
-      </c>
-      <c r="E5" s="2">
-        <v>3.6242716400000007E-2</v>
+      <c r="C5">
+        <v>0.30268327</v>
+      </c>
+      <c r="D5">
+        <v>0.27241494300000002</v>
+      </c>
+      <c r="E5">
+        <v>0.33295159700000004</v>
       </c>
       <c r="F5" t="s">
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
       <c r="C6">
-        <v>2.3136160999999999E-2</v>
+        <v>0.10482827</v>
       </c>
       <c r="D6">
-        <v>2.08225449E-2</v>
+        <v>9.4345443000000001E-2</v>
       </c>
       <c r="E6">
-        <v>2.5449777100000001E-2</v>
+        <v>0.11531109700000002</v>
       </c>
       <c r="F6" t="s">
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="2">
-        <v>7.6122321142258198E-3</v>
-      </c>
-      <c r="D7" s="2">
-        <v>6.851008902803238E-3</v>
-      </c>
-      <c r="E7" s="2">
-        <v>8.3734553256484025E-3</v>
+      <c r="C7" s="3">
+        <v>4.5536650999999997E-2</v>
+      </c>
+      <c r="D7" s="3">
+        <v>4.0982985899999998E-2</v>
+      </c>
+      <c r="E7" s="3">
+        <v>5.0090316100000004E-2</v>
       </c>
       <c r="F7" t="s">
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="2">
-        <v>6.0401525999999997E-2</v>
-      </c>
-      <c r="D8" s="2">
-        <v>5.4361373399999996E-2</v>
-      </c>
-      <c r="E8" s="2">
-        <v>6.6441678599999998E-2</v>
+      <c r="C8">
+        <v>0.11048229451496501</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ref="D8:D14" si="0">C8*0.9</f>
+        <v>9.943406506346851E-2</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ref="E8:E14" si="1">C8*1.1</f>
+        <v>0.12153052396646152</v>
       </c>
       <c r="F8" t="s">
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="2">
-        <v>0.49095999000000001</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.44186399100000001</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0.54005598900000007</v>
+      <c r="C9">
+        <v>0.1633964</v>
+      </c>
+      <c r="D9">
+        <v>0.14705676000000001</v>
+      </c>
+      <c r="E9">
+        <v>0.17973604000000001</v>
       </c>
       <c r="F9" t="s">
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="2">
-        <v>0.22140290000000001</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.19926261000000001</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0.24354319000000005</v>
+      <c r="C10">
+        <v>0.99488125999999999</v>
+      </c>
+      <c r="D10">
+        <v>0.89539313399999998</v>
+      </c>
+      <c r="E10">
+        <v>1.0943693860000001</v>
       </c>
       <c r="F10" t="s">
         <v>0</v>
@@ -1470,90 +1979,90 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
       <c r="C11">
-        <v>5.4806180000000003E-4</v>
+        <v>0.84687732999999998</v>
       </c>
       <c r="D11">
-        <v>4.9325562000000008E-4</v>
+        <v>0.762189597</v>
       </c>
       <c r="E11">
-        <v>6.0286798000000008E-4</v>
+        <v>0.93156506300000008</v>
       </c>
       <c r="F11" t="s">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
       </c>
       <c r="C12">
-        <v>3.6537452E-3</v>
+        <v>1.9493543E-3</v>
       </c>
       <c r="D12">
-        <v>3.28837068E-3</v>
+        <v>1.75441887E-3</v>
       </c>
       <c r="E12">
-        <v>4.0191197200000004E-3</v>
+        <v>2.1442897300000003E-3</v>
       </c>
       <c r="F12" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="G12" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="2">
-        <v>7.6122321142258198E-3</v>
-      </c>
-      <c r="D13" s="2">
-        <f t="shared" ref="D13" si="0">C13*0.9</f>
-        <v>6.851008902803238E-3</v>
-      </c>
-      <c r="E13" s="2">
-        <f t="shared" ref="E13" si="1">C13*1.1</f>
-        <v>8.3734553256484025E-3</v>
+      <c r="C13">
+        <v>9.7467717000000002E-3</v>
+      </c>
+      <c r="D13">
+        <v>8.7720945299999999E-3</v>
+      </c>
+      <c r="E13">
+        <v>1.0721448870000001E-2</v>
       </c>
       <c r="F13" t="s">
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="2">
-        <v>1.8242400999999998E-2</v>
-      </c>
-      <c r="D14" s="2">
-        <v>1.6418160899999999E-2</v>
-      </c>
-      <c r="E14" s="2">
-        <v>2.0066641100000001E-2</v>
+      <c r="C14">
+        <v>0.11048229451496501</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>9.943406506346851E-2</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>0.12153052396646152</v>
       </c>
       <c r="F14" t="s">
         <v>0</v>
@@ -1564,104 +2073,127 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="2">
-        <v>5.8742658263712E-2</v>
-      </c>
-      <c r="D15" s="2">
-        <v>5.2868392437340803E-2</v>
-      </c>
-      <c r="E15" s="2">
-        <v>6.4616924090083211E-2</v>
+      <c r="C15">
+        <v>0.14972131</v>
+      </c>
+      <c r="D15">
+        <v>0.134749179</v>
+      </c>
+      <c r="E15">
+        <v>0.164693441</v>
       </c>
       <c r="F15" t="s">
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="2">
-        <v>2.5732326E-2</v>
-      </c>
-      <c r="D16" s="2">
-        <v>2.3159093400000001E-2</v>
-      </c>
-      <c r="E16" s="2">
-        <v>2.8305558600000003E-2</v>
+      <c r="C16">
+        <v>1.88032079219059</v>
+      </c>
+      <c r="D16">
+        <v>1.6922887129715309</v>
+      </c>
+      <c r="E16">
+        <v>2.0683528714096493</v>
       </c>
       <c r="F16" t="s">
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="2">
-        <v>5.1394080000000002E-2</v>
-      </c>
-      <c r="D17" s="2">
-        <v>4.6254672000000004E-2</v>
-      </c>
-      <c r="E17" s="2">
-        <v>5.6533488000000007E-2</v>
+      <c r="C17">
+        <v>6.1256092999999998E-2</v>
+      </c>
+      <c r="D17">
+        <v>5.5130484E-2</v>
+      </c>
+      <c r="E17">
+        <v>6.7381702000000002E-2</v>
       </c>
       <c r="F17" t="s">
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18">
+        <v>0.12191047000000001</v>
+      </c>
+      <c r="D18">
+        <v>5.5130484E-2</v>
+      </c>
+      <c r="E18">
+        <v>6.7381702000000002E-2</v>
+      </c>
+      <c r="F18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="B18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18">
-        <v>0.21786132</v>
-      </c>
-      <c r="D18">
-        <v>0.19607518800000001</v>
-      </c>
-      <c r="E18">
-        <v>0.23964745200000001</v>
-      </c>
-      <c r="F18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19">
+        <v>0.51710283999999995</v>
+      </c>
+      <c r="D19">
+        <v>5.5130484E-2</v>
+      </c>
+      <c r="E19">
+        <v>6.7381702000000002E-2</v>
+      </c>
+      <c r="F19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C20" s="5"/>
-    </row>
-    <row r="21" spans="1:7" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="4"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C22" s="6"/>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C21" s="5"/>
+    </row>
+    <row r="22" spans="1:7" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="4"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C23" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -1669,12 +2201,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACC58D38-791A-9448-B751-E61F12E1D34C}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C81A4224-FBC7-384E-84A6-B6284BE2110D}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1714,13 +2246,13 @@
         <v>15</v>
       </c>
       <c r="C2">
-        <v>1.11416240905451E-2</v>
+        <v>8.5846487710015597E-3</v>
       </c>
       <c r="D2">
-        <v>1.0027461681490591E-2</v>
+        <v>7.7261838939014036E-3</v>
       </c>
       <c r="E2">
-        <v>1.2255786499599611E-2</v>
+        <v>9.4431136481017159E-3</v>
       </c>
       <c r="F2" t="s">
         <v>0</v>
@@ -1737,13 +2269,13 @@
         <v>15</v>
       </c>
       <c r="C3" s="3">
-        <v>0.32531039</v>
+        <v>0.36487195</v>
       </c>
       <c r="D3" s="3">
-        <v>0.29277935100000002</v>
+        <v>0.32838475500000003</v>
       </c>
       <c r="E3" s="3">
-        <v>0.35784142900000004</v>
+        <v>0.40135914500000003</v>
       </c>
       <c r="F3" t="s">
         <v>0</v>
@@ -1754,19 +2286,19 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="C4">
-        <v>0.30268327</v>
-      </c>
-      <c r="D4">
-        <v>0.27241494300000002</v>
-      </c>
-      <c r="E4">
-        <v>0.33295159700000004</v>
+      <c r="C4" s="3">
+        <v>0.72722925000000005</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.65450632500000006</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.79995217500000015</v>
       </c>
       <c r="F4" t="s">
         <v>0</v>
@@ -1777,136 +2309,134 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
       <c r="C5">
-        <v>0.10482827</v>
+        <v>0.72722925000000005</v>
       </c>
       <c r="D5">
-        <v>9.4345443000000001E-2</v>
+        <v>0.65450632500000006</v>
       </c>
       <c r="E5">
-        <v>0.11531109700000002</v>
+        <v>0.79995217500000015</v>
       </c>
       <c r="F5" t="s">
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="3">
-        <v>4.5536650999999997E-2</v>
-      </c>
-      <c r="D6" s="3">
-        <v>4.0982985899999998E-2</v>
-      </c>
-      <c r="E6" s="3">
-        <v>5.0090316100000004E-2</v>
+      <c r="C6">
+        <v>0.44612321999999999</v>
+      </c>
+      <c r="D6">
+        <v>0.401510898</v>
+      </c>
+      <c r="E6">
+        <v>0.49073554200000002</v>
       </c>
       <c r="F6" t="s">
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="C7">
-        <v>0.11048229451496501</v>
-      </c>
-      <c r="D7">
-        <f t="shared" ref="D7:D13" si="0">C7*0.9</f>
-        <v>9.943406506346851E-2</v>
-      </c>
-      <c r="E7">
-        <f t="shared" ref="E7:E13" si="1">C7*1.1</f>
-        <v>0.12153052396646152</v>
+      <c r="C7" s="3">
+        <v>9.1643753999999994E-2</v>
+      </c>
+      <c r="D7" s="3">
+        <v>8.24793786E-2</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.1008081294</v>
       </c>
       <c r="F7" t="s">
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
       <c r="C8">
-        <v>0.1633964</v>
+        <v>0.150807596748742</v>
       </c>
       <c r="D8">
-        <v>0.14705676000000001</v>
+        <v>0.13572683707386782</v>
       </c>
       <c r="E8">
-        <v>0.17973604000000001</v>
+        <v>0.16588835642361621</v>
       </c>
       <c r="F8" t="s">
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
       <c r="C9">
-        <v>0.99488125999999999</v>
+        <v>8.7594459E-2</v>
       </c>
       <c r="D9">
-        <v>0.89539313399999998</v>
+        <v>7.8835013100000004E-2</v>
       </c>
       <c r="E9">
-        <v>1.0943693860000001</v>
+        <v>9.6353904900000009E-2</v>
       </c>
       <c r="F9" t="s">
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
       </c>
       <c r="C10">
-        <v>0.84687732999999998</v>
+        <v>1.1344383499999999</v>
       </c>
       <c r="D10">
-        <v>0.762189597</v>
+        <v>1.0209945149999999</v>
       </c>
       <c r="E10">
-        <v>0.93156506300000008</v>
+        <v>1.2478821849999999</v>
       </c>
       <c r="F10" t="s">
         <v>0</v>
@@ -1917,90 +2447,90 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
       <c r="C11">
-        <v>1.9493543E-3</v>
+        <v>1.0153460000000001</v>
       </c>
       <c r="D11">
-        <v>1.75441887E-3</v>
+        <v>0.91381140000000005</v>
       </c>
       <c r="E11">
-        <v>2.1442897300000003E-3</v>
+        <v>1.1168806000000002</v>
       </c>
       <c r="F11" t="s">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
       </c>
       <c r="C12">
-        <v>9.7467717000000002E-3</v>
+        <v>1.8259646E-3</v>
       </c>
       <c r="D12">
-        <v>8.7720945299999999E-3</v>
+        <v>1.64336814E-3</v>
       </c>
       <c r="E12">
-        <v>1.0721448870000001E-2</v>
+        <v>2.00856106E-3</v>
       </c>
       <c r="F12" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="G12" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
       </c>
       <c r="C13">
-        <v>0.11048229451496501</v>
+        <v>9.1298230000000005E-3</v>
       </c>
       <c r="D13">
-        <f t="shared" si="0"/>
-        <v>9.943406506346851E-2</v>
+        <v>8.2168407000000002E-3</v>
       </c>
       <c r="E13">
-        <f t="shared" si="1"/>
-        <v>0.12153052396646152</v>
+        <v>1.0042805300000001E-2</v>
       </c>
       <c r="F13" t="s">
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
       </c>
       <c r="C14">
-        <v>0.14972131</v>
+        <v>0.150807596748742</v>
       </c>
       <c r="D14">
-        <v>0.134749179</v>
+        <f t="shared" ref="D14" si="0">C14*0.9</f>
+        <v>0.13572683707386782</v>
       </c>
       <c r="E14">
-        <v>0.164693441</v>
+        <f t="shared" ref="E14" si="1">C14*1.1</f>
+        <v>0.16588835642361621</v>
       </c>
       <c r="F14" t="s">
         <v>0</v>
@@ -2011,544 +2541,122 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
       <c r="C15">
-        <v>1.88032079219059</v>
+        <v>3.6301793999999998E-2</v>
       </c>
       <c r="D15">
-        <v>1.6922887129715309</v>
+        <v>3.2671614600000003E-2</v>
       </c>
       <c r="E15">
-        <v>2.0683528714096493</v>
+        <v>3.9931973400000001E-2</v>
       </c>
       <c r="F15" t="s">
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
       </c>
       <c r="C16">
-        <v>6.1256092999999998E-2</v>
+        <v>1.9012293748498701</v>
       </c>
       <c r="D16">
-        <v>5.5130484E-2</v>
+        <v>1.7111064373648832</v>
       </c>
       <c r="E16">
-        <v>6.7381702000000002E-2</v>
+        <v>2.0913523123348572</v>
       </c>
       <c r="F16" t="s">
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.12191047000000001</v>
+        <v>5.0981803999999999E-2</v>
       </c>
       <c r="D17">
-        <v>5.5130484E-2</v>
+        <v>4.5883623599999999E-2</v>
       </c>
       <c r="E17">
-        <v>6.7381702000000002E-2</v>
+        <v>5.6079984400000005E-2</v>
       </c>
       <c r="F17" t="s">
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18">
+        <v>0.10287725</v>
+      </c>
+      <c r="D18">
+        <v>9.2589525000000006E-2</v>
+      </c>
+      <c r="E18">
+        <v>0.11316497500000001</v>
+      </c>
+      <c r="F18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="B18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18">
-        <v>0.51710283999999995</v>
-      </c>
-      <c r="D18">
-        <v>5.5130484E-2</v>
-      </c>
-      <c r="E18">
-        <v>6.7381702000000002E-2</v>
-      </c>
-      <c r="F18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19">
+        <v>0.39586717999999999</v>
+      </c>
+      <c r="D19">
+        <v>0.35628046200000002</v>
+      </c>
+      <c r="E19">
+        <v>0.43545389800000001</v>
+      </c>
+      <c r="F19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C20" s="5"/>
-    </row>
-    <row r="21" spans="1:7" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="4"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C22" s="6"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C81A4224-FBC7-384E-84A6-B6284BE2110D}">
-  <dimension ref="A1:G21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="26.69140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.4609375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2">
-        <v>8.5846487710015597E-3</v>
-      </c>
-      <c r="D2">
-        <v>7.7261838939014036E-3</v>
-      </c>
-      <c r="E2">
-        <v>9.4431136481017159E-3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0.36487195</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0.32838475500000003</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0.40135914500000003</v>
-      </c>
-      <c r="F3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4">
-        <v>0.72722925000000005</v>
-      </c>
-      <c r="D4">
-        <v>0.65450632500000006</v>
-      </c>
-      <c r="E4">
-        <v>0.79995217500000015</v>
-      </c>
-      <c r="F4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5">
-        <v>0.44612321999999999</v>
-      </c>
-      <c r="D5">
-        <v>0.401510898</v>
-      </c>
-      <c r="E5">
-        <v>0.49073554200000002</v>
-      </c>
-      <c r="F5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="3">
-        <v>9.1643753999999994E-2</v>
-      </c>
-      <c r="D6" s="3">
-        <v>8.24793786E-2</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0.1008081294</v>
-      </c>
-      <c r="F6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7">
-        <v>0.150807596748742</v>
-      </c>
-      <c r="D7">
-        <v>0.13572683707386782</v>
-      </c>
-      <c r="E7">
-        <v>0.16588835642361621</v>
-      </c>
-      <c r="F7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8">
-        <v>8.7594459E-2</v>
-      </c>
-      <c r="D8">
-        <v>7.8835013100000004E-2</v>
-      </c>
-      <c r="E8">
-        <v>9.6353904900000009E-2</v>
-      </c>
-      <c r="F8" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9">
-        <v>1.1344383499999999</v>
-      </c>
-      <c r="D9">
-        <v>1.0209945149999999</v>
-      </c>
-      <c r="E9">
-        <v>1.2478821849999999</v>
-      </c>
-      <c r="F9" t="s">
-        <v>0</v>
-      </c>
-      <c r="G9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10">
-        <v>1.0153460000000001</v>
-      </c>
-      <c r="D10">
-        <v>0.91381140000000005</v>
-      </c>
-      <c r="E10">
-        <v>1.1168806000000002</v>
-      </c>
-      <c r="F10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11">
-        <v>1.8259646E-3</v>
-      </c>
-      <c r="D11">
-        <v>1.64336814E-3</v>
-      </c>
-      <c r="E11">
-        <v>2.00856106E-3</v>
-      </c>
-      <c r="F11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12">
-        <v>9.1298230000000005E-3</v>
-      </c>
-      <c r="D12">
-        <v>8.2168407000000002E-3</v>
-      </c>
-      <c r="E12">
-        <v>1.0042805300000001E-2</v>
-      </c>
-      <c r="F12" t="s">
-        <v>0</v>
-      </c>
-      <c r="G12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13">
-        <v>0.150807596748742</v>
-      </c>
-      <c r="D13">
-        <f t="shared" ref="D13" si="0">C13*0.9</f>
-        <v>0.13572683707386782</v>
-      </c>
-      <c r="E13">
-        <f t="shared" ref="E13" si="1">C13*1.1</f>
-        <v>0.16588835642361621</v>
-      </c>
-      <c r="F13" t="s">
-        <v>0</v>
-      </c>
-      <c r="G13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14">
-        <v>3.6301793999999998E-2</v>
-      </c>
-      <c r="D14">
-        <v>3.2671614600000003E-2</v>
-      </c>
-      <c r="E14">
-        <v>3.9931973400000001E-2</v>
-      </c>
-      <c r="F14" t="s">
-        <v>0</v>
-      </c>
-      <c r="G14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15">
-        <v>1.9012293748498701</v>
-      </c>
-      <c r="D15">
-        <v>1.7111064373648832</v>
-      </c>
-      <c r="E15">
-        <v>2.0913523123348572</v>
-      </c>
-      <c r="F15" t="s">
-        <v>0</v>
-      </c>
-      <c r="G15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16">
-        <v>5.0981803999999999E-2</v>
-      </c>
-      <c r="D16">
-        <v>4.5883623599999999E-2</v>
-      </c>
-      <c r="E16">
-        <v>5.6079984400000005E-2</v>
-      </c>
-      <c r="F16" t="s">
-        <v>0</v>
-      </c>
-      <c r="G16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17">
-        <v>0.10287725</v>
-      </c>
-      <c r="D17">
-        <v>9.2589525000000006E-2</v>
-      </c>
-      <c r="E17">
-        <v>0.11316497500000001</v>
-      </c>
-      <c r="F17" t="s">
-        <v>0</v>
-      </c>
-      <c r="G17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18">
-        <v>0.39586717999999999</v>
-      </c>
-      <c r="D18">
-        <v>0.35628046200000002</v>
-      </c>
-      <c r="E18">
-        <v>0.43545389800000001</v>
-      </c>
-      <c r="F18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="4"/>
-      <c r="D21" t="s">
+    <row r="22" spans="1:7" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="4"/>
+      <c r="D22" t="s">
         <v>40</v>
       </c>
     </row>

--- a/exposan/enviroloo/data/impact_items.xlsx
+++ b/exposan/enviroloo/data/impact_items.xlsx
@@ -1,19 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\TANG\Documents\GitHub\EXPOsan\exposan\enviroloo\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1211943-EDAA-44DE-AD7F-1FD7CF4B1212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="340" yWindow="1000" windowWidth="20290" windowHeight="14280" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="info"/>
-    <sheet r:id="rId2" sheetId="2" name="GWP"/>
-    <sheet r:id="rId3" sheetId="3" name="H_Ecosystems"/>
-    <sheet r:id="rId4" sheetId="4" name="H_Health"/>
-    <sheet r:id="rId5" sheetId="5" name="H_Resources"/>
+    <sheet name="info" sheetId="1" r:id="rId1"/>
+    <sheet name="GWP" sheetId="2" r:id="rId2"/>
+    <sheet name="H_Ecosystems" sheetId="3" r:id="rId3"/>
+    <sheet name="H_Health" sheetId="4" r:id="rId4"/>
+    <sheet name="H_Resources" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -188,13 +207,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -202,19 +220,32 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="等线"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="等线"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -245,47 +276,43 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -296,10 +323,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -337,71 +364,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -429,7 +456,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -452,11 +479,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -465,13 +492,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -481,7 +508,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -490,7 +517,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -499,7 +526,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -507,10 +534,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -575,21 +602,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="6" width="20.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="18.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="20.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -597,189 +627,191 @@
         <v>51</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="6" width="26.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="10.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="26.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.54296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -789,103 +821,103 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C2" s="4">
-        <v>0.194</v>
+        <v>0.19400000000000001</v>
       </c>
       <c r="D2" s="4">
-        <v>0.1746</v>
+        <v>0.17460000000000001</v>
       </c>
       <c r="E2" s="4">
         <v>0.21340000000000003</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C3" s="4">
         <v>1.97</v>
       </c>
       <c r="D3" s="4">
-        <v>1.773</v>
+        <v>1.7729999999999999</v>
       </c>
       <c r="E3" s="4">
         <v>2.1670000000000003</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="F3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C4" s="4">
-        <v>4.7926309</v>
+        <v>4.7926308999999998</v>
       </c>
       <c r="D4" s="4">
-        <v>4.31336781</v>
+        <v>4.3133678099999999</v>
       </c>
       <c r="E4" s="4">
-        <v>5.271893990000001</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="3" t="s">
+        <v>5.2718939900000006</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C5" s="4">
-        <v>4.7926309</v>
+        <v>4.7926308999999998</v>
       </c>
       <c r="D5" s="4">
-        <v>4.31336781</v>
+        <v>4.3133678099999999</v>
       </c>
       <c r="E5" s="4">
-        <v>5.271893990000001</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="3" t="s">
+        <v>5.2718939900000006</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C6" s="4">
@@ -897,45 +929,45 @@
       <c r="E6" s="4">
         <v>1.8838563700000002</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="3" t="s">
+      <c r="F6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C7" s="4">
-        <v>1.0621746</v>
+        <v>1.0621746000000001</v>
       </c>
       <c r="D7" s="4">
-        <v>0.9559571400000001</v>
+        <v>0.95595714000000009</v>
       </c>
       <c r="E7" s="4">
         <v>1.1683920600000002</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="3" t="s">
+      <c r="F7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C8" s="4">
-        <v>2.067379863</v>
+        <v>2.0673798630000002</v>
       </c>
       <c r="D8" s="4">
         <v>1.8606418767000001</v>
@@ -943,18 +975,18 @@
       <c r="E8" s="4">
         <v>2.2741178493</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="3" t="s">
+      <c r="F8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C9" s="4">
@@ -966,179 +998,181 @@
       <c r="E9" s="4">
         <v>3.6895663200000004</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="3" t="s">
+      <c r="F9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C10" s="4">
-        <v>25.979003</v>
+        <v>25.979002999999999</v>
       </c>
       <c r="D10" s="4">
         <v>23.3811027</v>
       </c>
       <c r="E10" s="4">
-        <v>28.5769033</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="3" t="s">
+        <v>28.576903300000001</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C11" s="4">
-        <v>8.8785326</v>
+        <v>8.8785325999999998</v>
       </c>
       <c r="D11" s="4">
-        <v>7.99067934</v>
+        <v>7.9906793399999998</v>
       </c>
       <c r="E11" s="4">
-        <v>9.76638586</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="3" t="s">
+        <v>9.7663858599999998</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C12" s="4">
-        <v>0.04616197</v>
+        <v>4.6161969999999997E-2</v>
       </c>
       <c r="D12" s="4">
-        <v>0.041545773</v>
+        <v>4.1545773000000001E-2</v>
       </c>
       <c r="E12" s="4">
-        <v>0.050778167</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="3" t="s">
+        <v>5.0778166999999999E-2</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="4">
-        <v>0.18464787</v>
+        <v>0.18464786999999999</v>
       </c>
       <c r="D13" s="4">
-        <v>0.166183083</v>
+        <v>0.16618308300000001</v>
       </c>
       <c r="E13" s="4">
         <v>0.203112657</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" s="3" t="s">
+      <c r="F13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C14" s="4">
-        <v>4.379021875</v>
+        <v>4.3790218750000003</v>
       </c>
       <c r="D14" s="4">
         <f>C14*0.9</f>
+        <v>3.9411196875000005</v>
       </c>
       <c r="E14" s="4">
         <f>C14*1.1</f>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="3" t="s">
+        <v>4.8169240625000009</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C15" s="4">
-        <v>0.92807098</v>
+        <v>0.92807097999999999</v>
       </c>
       <c r="D15" s="4">
-        <v>0.835263882</v>
+        <v>0.83526388200000001</v>
       </c>
       <c r="E15" s="4">
         <v>1.020878078</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="3" t="s">
+      <c r="F15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C16" s="4">
         <v>13.937562</v>
       </c>
       <c r="D16" s="4">
-        <v>12.5438058</v>
+        <v>12.543805799999999</v>
       </c>
       <c r="E16" s="4">
         <v>15.3313182</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" s="3" t="s">
+      <c r="F16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C17" s="4">
@@ -1150,98 +1184,100 @@
       <c r="E17" s="4">
         <v>1.3747782400000002</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" s="3" t="s">
+      <c r="F17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C18" s="4">
-        <v>2.474595</v>
+        <v>2.4745949999999999</v>
       </c>
       <c r="D18" s="4">
-        <v>2.2271355</v>
+        <v>2.2271355000000002</v>
       </c>
       <c r="E18" s="4">
         <v>2.7220545</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" s="10" t="s">
+      <c r="F18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C19" s="4">
-        <v>11.062603</v>
+        <v>11.062602999999999</v>
       </c>
       <c r="D19" s="4">
-        <v>9.9563427</v>
+        <v>9.9563427000000004</v>
       </c>
       <c r="E19" s="4">
         <v>12.1688633</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" s="3" t="s">
+      <c r="F19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>50</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="6" width="26.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="9.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="26.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.54296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -1251,459 +1287,463 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="4">
-        <v>0.000734918912639382</v>
+        <v>7.3491891263938202E-4</v>
       </c>
       <c r="D2" s="4">
-        <v>0.0006614270213754439</v>
+        <v>6.6142702137544386E-4</v>
       </c>
       <c r="E2" s="4">
-        <v>0.0008084108039033203</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="3" t="s">
+        <v>8.0841080390332029E-4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="4">
         <v>0.16310679</v>
       </c>
       <c r="D3" s="4">
-        <v>0.146796111</v>
+        <v>0.14679611100000001</v>
       </c>
       <c r="E3" s="4">
         <v>0.17941746900000002</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="F3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="4">
         <v>0.103988</v>
       </c>
       <c r="D4" s="4">
-        <v>0.0935892</v>
+        <v>9.3589199999999997E-2</v>
       </c>
       <c r="E4" s="4">
         <v>0.11438680000000001</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="3" t="s">
+      <c r="F4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="5">
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="8">
         <v>0.103988</v>
       </c>
-      <c r="D5" s="5">
-        <v>0.0935892</v>
-      </c>
-      <c r="E5" s="5">
+      <c r="D5" s="8">
+        <v>9.3589199999999997E-2</v>
+      </c>
+      <c r="E5" s="8">
         <v>0.11438680000000001</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="3" t="s">
+      <c r="F5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="5">
-        <v>0.032947924</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0.029653131600000004</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0.03624271640000001</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="3" t="s">
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="8">
+        <v>3.2947924000000003E-2</v>
+      </c>
+      <c r="D6" s="8">
+        <v>2.9653131600000004E-2</v>
+      </c>
+      <c r="E6" s="8">
+        <v>3.6242716400000007E-2</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="4">
-        <v>0.023136161</v>
+        <v>2.3136160999999999E-2</v>
       </c>
       <c r="D7" s="4">
-        <v>0.0208225449</v>
+        <v>2.08225449E-2</v>
       </c>
       <c r="E7" s="4">
-        <v>0.0254497771</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="3" t="s">
+        <v>2.5449777100000001E-2</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="5">
-        <v>0.00761223211422582</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0.006851008902803238</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0.008373455325648402</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="3" t="s">
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="8">
+        <v>7.6122321142258198E-3</v>
+      </c>
+      <c r="D8" s="8">
+        <v>6.851008902803238E-3</v>
+      </c>
+      <c r="E8" s="8">
+        <v>8.3734553256484025E-3</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="5">
-        <v>0.060401526</v>
-      </c>
-      <c r="D9" s="5">
-        <v>0.054361373399999996</v>
-      </c>
-      <c r="E9" s="5">
-        <v>0.0664416786</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="3" t="s">
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="8">
+        <v>6.0401525999999997E-2</v>
+      </c>
+      <c r="D9" s="8">
+        <v>5.4361373399999996E-2</v>
+      </c>
+      <c r="E9" s="8">
+        <v>6.6441678599999998E-2</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="5">
-        <v>0.49095999</v>
-      </c>
-      <c r="D10" s="5">
-        <v>0.441863991</v>
-      </c>
-      <c r="E10" s="5">
-        <v>0.5400559890000001</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="3" t="s">
+      <c r="B10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="8">
+        <v>0.49095999000000001</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0.44186399100000001</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0.54005598900000007</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="5">
-        <v>0.2214029</v>
-      </c>
-      <c r="D11" s="5">
-        <v>0.19926261</v>
-      </c>
-      <c r="E11" s="5">
+      <c r="B11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="8">
+        <v>0.22140290000000001</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0.19926261000000001</v>
+      </c>
+      <c r="E11" s="8">
         <v>0.24354319000000005</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="3" t="s">
+      <c r="F11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="4">
-        <v>0.0005480618</v>
+        <v>5.4806180000000003E-4</v>
       </c>
       <c r="D12" s="4">
-        <v>0.0004932556200000001</v>
+        <v>4.9325562000000008E-4</v>
       </c>
       <c r="E12" s="4">
-        <v>0.0006028679800000001</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="3" t="s">
+        <v>6.0286798000000008E-4</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="4">
-        <v>0.0036537452</v>
+        <v>3.6537452E-3</v>
       </c>
       <c r="D13" s="4">
-        <v>0.00328837068</v>
+        <v>3.28837068E-3</v>
       </c>
       <c r="E13" s="4">
-        <v>0.00401911972</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" s="3" t="s">
+        <v>4.0191197200000004E-3</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="5">
-        <v>0.00761223211422582</v>
-      </c>
-      <c r="D14" s="5">
+      <c r="B14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="8">
+        <v>7.6122321142258198E-3</v>
+      </c>
+      <c r="D14" s="8">
         <f>C14*0.9</f>
-      </c>
-      <c r="E14" s="5">
+        <v>6.851008902803238E-3</v>
+      </c>
+      <c r="E14" s="8">
         <f>C14*1.1</f>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="3" t="s">
+        <v>8.3734553256484025E-3</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="5">
-        <v>0.018242401</v>
-      </c>
-      <c r="D15" s="5">
-        <v>0.0164181609</v>
-      </c>
-      <c r="E15" s="5">
-        <v>0.0200666411</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="3" t="s">
+      <c r="B15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="8">
+        <v>1.8242400999999998E-2</v>
+      </c>
+      <c r="D15" s="8">
+        <v>1.6418160899999999E-2</v>
+      </c>
+      <c r="E15" s="8">
+        <v>2.0066641100000001E-2</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="5">
-        <v>0.058742658263712</v>
-      </c>
-      <c r="D16" s="5">
-        <v>0.0528683924373408</v>
-      </c>
-      <c r="E16" s="5">
-        <v>0.06461692409008321</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" s="3" t="s">
+      <c r="B16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="8">
+        <v>5.8742658263712E-2</v>
+      </c>
+      <c r="D16" s="8">
+        <v>5.2868392437340803E-2</v>
+      </c>
+      <c r="E16" s="8">
+        <v>6.4616924090083211E-2</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="5">
-        <v>0.025732326</v>
-      </c>
-      <c r="D17" s="5">
-        <v>0.0231590934</v>
-      </c>
-      <c r="E17" s="5">
-        <v>0.028305558600000003</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" s="3" t="s">
+      <c r="B17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="8">
+        <v>2.5732326E-2</v>
+      </c>
+      <c r="D17" s="8">
+        <v>2.3159093400000001E-2</v>
+      </c>
+      <c r="E17" s="8">
+        <v>2.8305558600000003E-2</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="5">
-        <v>0.05139408</v>
-      </c>
-      <c r="D18" s="5">
-        <v>0.046254672000000004</v>
-      </c>
-      <c r="E18" s="5">
-        <v>0.05653348800000001</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" s="3" t="s">
+      <c r="B18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="8">
+        <v>5.1394080000000002E-2</v>
+      </c>
+      <c r="D18" s="8">
+        <v>4.6254672000000004E-2</v>
+      </c>
+      <c r="E18" s="8">
+        <v>5.6533488000000007E-2</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="4">
         <v>0.21786132</v>
       </c>
       <c r="D19" s="4">
-        <v>0.196075188</v>
+        <v>0.19607518800000001</v>
       </c>
       <c r="E19" s="4">
-        <v>0.239647452</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" s="3" t="s">
+        <v>0.23964745200000001</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="6" width="26.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="9.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="26.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.54296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -1713,149 +1753,149 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="4">
-        <v>0.0111416240905451</v>
+        <v>1.11416240905451E-2</v>
       </c>
       <c r="D2" s="4">
-        <v>0.010027461681490591</v>
+        <v>1.0027461681490591E-2</v>
       </c>
       <c r="E2" s="4">
-        <v>0.012255786499599611</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="3" t="s">
+        <v>1.2255786499599611E-2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="5">
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="8">
         <v>0.32531039</v>
       </c>
-      <c r="D3" s="5">
-        <v>0.292779351</v>
-      </c>
-      <c r="E3" s="5">
+      <c r="D3" s="8">
+        <v>0.29277935100000002</v>
+      </c>
+      <c r="E3" s="8">
         <v>0.35784142900000004</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="F3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="4">
         <v>0.30268327</v>
       </c>
       <c r="D4" s="4">
-        <v>0.272414943</v>
+        <v>0.27241494300000002</v>
       </c>
       <c r="E4" s="4">
         <v>0.33295159700000004</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="3" t="s">
+      <c r="F4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="4">
         <v>0.30268327</v>
       </c>
       <c r="D5" s="4">
-        <v>0.272414943</v>
+        <v>0.27241494300000002</v>
       </c>
       <c r="E5" s="4">
         <v>0.33295159700000004</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="3" t="s">
+      <c r="F5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="4">
         <v>0.10482827</v>
       </c>
       <c r="D6" s="4">
-        <v>0.094345443</v>
+        <v>9.4345443000000001E-2</v>
       </c>
       <c r="E6" s="4">
         <v>0.11531109700000002</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="3" t="s">
+      <c r="F6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="5">
-        <v>0.045536651</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0.0409829859</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0.050090316100000004</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="3" t="s">
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="8">
+        <v>4.5536650999999997E-2</v>
+      </c>
+      <c r="D7" s="8">
+        <v>4.0982985899999998E-2</v>
+      </c>
+      <c r="E7" s="8">
+        <v>5.0090316100000004E-2</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="4">
@@ -1863,137 +1903,139 @@
       </c>
       <c r="D8" s="4">
         <f>C8*0.9</f>
+        <v>9.943406506346851E-2</v>
       </c>
       <c r="E8" s="4">
         <f>C8*1.1</f>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="3" t="s">
+        <v>0.12153052396646152</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="4">
         <v>0.1633964</v>
       </c>
       <c r="D9" s="4">
-        <v>0.14705676</v>
+        <v>0.14705676000000001</v>
       </c>
       <c r="E9" s="4">
-        <v>0.17973604</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="3" t="s">
+        <v>0.17973604000000001</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="4">
-        <v>0.99488126</v>
+        <v>0.99488125999999999</v>
       </c>
       <c r="D10" s="4">
-        <v>0.895393134</v>
+        <v>0.89539313399999998</v>
       </c>
       <c r="E10" s="4">
-        <v>1.094369386</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="3" t="s">
+        <v>1.0943693860000001</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="4">
-        <v>0.84687733</v>
+        <v>0.84687732999999998</v>
       </c>
       <c r="D11" s="4">
         <v>0.762189597</v>
       </c>
       <c r="E11" s="4">
-        <v>0.9315650630000001</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="3" t="s">
+        <v>0.93156506300000008</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="4">
-        <v>0.0019493543</v>
+        <v>1.9493543E-3</v>
       </c>
       <c r="D12" s="4">
-        <v>0.00175441887</v>
+        <v>1.75441887E-3</v>
       </c>
       <c r="E12" s="4">
-        <v>0.0021442897300000003</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="3" t="s">
+        <v>2.1442897300000003E-3</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="4">
-        <v>0.0097467717</v>
+        <v>9.7467717000000002E-3</v>
       </c>
       <c r="D13" s="4">
-        <v>0.00877209453</v>
+        <v>8.7720945299999999E-3</v>
       </c>
       <c r="E13" s="4">
-        <v>0.01072144887</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" s="3" t="s">
+        <v>1.0721448870000001E-2</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="4">
@@ -2001,22 +2043,24 @@
       </c>
       <c r="D14" s="4">
         <f>C14*0.9</f>
+        <v>9.943406506346851E-2</v>
       </c>
       <c r="E14" s="4">
         <f>C14*1.1</f>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="3" t="s">
+        <v>0.12153052396646152</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="4">
@@ -2028,144 +2072,145 @@
       <c r="E15" s="4">
         <v>0.164693441</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="3" t="s">
+      <c r="F15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="4">
         <v>1.88032079219059</v>
       </c>
       <c r="D16" s="4">
-        <v>1.692288712971531</v>
+        <v>1.6922887129715309</v>
       </c>
       <c r="E16" s="4">
         <v>2.0683528714096493</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" s="3" t="s">
+      <c r="F16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="4">
-        <v>0.061256093</v>
+        <v>6.1256092999999998E-2</v>
       </c>
       <c r="D17" s="4">
-        <v>0.055130484</v>
+        <v>5.5130484E-2</v>
       </c>
       <c r="E17" s="4">
-        <v>0.067381702</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" s="3" t="s">
+        <v>6.7381702000000002E-2</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="4">
-        <v>0.12191047</v>
+        <v>0.12191047000000001</v>
       </c>
       <c r="D18" s="4">
-        <v>0.055130484</v>
+        <v>5.5130484E-2</v>
       </c>
       <c r="E18" s="4">
-        <v>0.067381702</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" s="3" t="s">
+        <v>6.7381702000000002E-2</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="4">
-        <v>0.51710284</v>
+        <v>0.51710283999999995</v>
       </c>
       <c r="D19" s="4">
-        <v>0.055130484</v>
+        <v>5.5130484E-2</v>
       </c>
       <c r="E19" s="4">
-        <v>0.067381702</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" s="3" t="s">
+        <v>6.7381702000000002E-2</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="6" width="26.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="9.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="26.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="13.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -2175,149 +2220,149 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="4">
-        <v>0.00858464877100156</v>
+        <v>8.5846487710015597E-3</v>
       </c>
       <c r="D2" s="4">
-        <v>0.007726183893901404</v>
+        <v>7.7261838939014036E-3</v>
       </c>
       <c r="E2" s="4">
-        <v>0.009443113648101716</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="3" t="s">
+        <v>9.4431136481017159E-3</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="5">
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="8">
         <v>0.36487195</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="8">
         <v>0.32838475500000003</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="8">
         <v>0.40135914500000003</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="F3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="5">
-        <v>0.72722925</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0.654506325</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0.7999521750000002</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0.72722925000000005</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0.65450632500000006</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0.79995217500000015</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="4">
-        <v>0.72722925</v>
+        <v>0.72722925000000005</v>
       </c>
       <c r="D5" s="4">
-        <v>0.654506325</v>
+        <v>0.65450632500000006</v>
       </c>
       <c r="E5" s="4">
-        <v>0.7999521750000002</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="3" t="s">
+        <v>0.79995217500000015</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="4">
-        <v>0.44612322</v>
+        <v>0.44612321999999999</v>
       </c>
       <c r="D6" s="4">
         <v>0.401510898</v>
       </c>
       <c r="E6" s="4">
-        <v>0.490735542</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="3" t="s">
+        <v>0.49073554200000002</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="5">
-        <v>0.091643754</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0.0824793786</v>
-      </c>
-      <c r="E7" s="5">
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="8">
+        <v>9.1643753999999994E-2</v>
+      </c>
+      <c r="D7" s="8">
+        <v>8.24793786E-2</v>
+      </c>
+      <c r="E7" s="8">
         <v>0.1008081294</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="3" t="s">
+      <c r="F7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="4">
@@ -2327,135 +2372,135 @@
         <v>0.13572683707386782</v>
       </c>
       <c r="E8" s="4">
-        <v>0.1658883564236162</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="3" t="s">
+        <v>0.16588835642361621</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="4">
-        <v>0.087594459</v>
+        <v>8.7594459E-2</v>
       </c>
       <c r="D9" s="4">
-        <v>0.0788350131</v>
+        <v>7.8835013100000004E-2</v>
       </c>
       <c r="E9" s="4">
-        <v>0.09635390490000001</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="3" t="s">
+        <v>9.6353904900000009E-2</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="4">
-        <v>1.13443835</v>
+        <v>1.1344383499999999</v>
       </c>
       <c r="D10" s="4">
-        <v>1.020994515</v>
+        <v>1.0209945149999999</v>
       </c>
       <c r="E10" s="4">
-        <v>1.247882185</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="3" t="s">
+        <v>1.2478821849999999</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="4">
-        <v>1.015346</v>
+        <v>1.0153460000000001</v>
       </c>
       <c r="D11" s="4">
-        <v>0.9138114</v>
+        <v>0.91381140000000005</v>
       </c>
       <c r="E11" s="4">
         <v>1.1168806000000002</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="3" t="s">
+      <c r="F11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="4">
-        <v>0.0018259646</v>
+        <v>1.8259646E-3</v>
       </c>
       <c r="D12" s="4">
-        <v>0.00164336814</v>
+        <v>1.64336814E-3</v>
       </c>
       <c r="E12" s="4">
-        <v>0.00200856106</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="3" t="s">
+        <v>2.00856106E-3</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="4">
-        <v>0.009129823</v>
+        <v>9.1298230000000005E-3</v>
       </c>
       <c r="D13" s="4">
-        <v>0.0082168407</v>
+        <v>8.2168407000000002E-3</v>
       </c>
       <c r="E13" s="4">
-        <v>0.0100428053</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" s="3" t="s">
+        <v>1.0042805300000001E-2</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="4">
@@ -2463,133 +2508,136 @@
       </c>
       <c r="D14" s="4">
         <f>C14*0.9</f>
+        <v>0.13572683707386782</v>
       </c>
       <c r="E14" s="4">
         <f>C14*1.1</f>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="3" t="s">
+        <v>0.16588835642361621</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="4">
-        <v>0.036301794</v>
+        <v>3.6301793999999998E-2</v>
       </c>
       <c r="D15" s="4">
-        <v>0.0326716146</v>
+        <v>3.2671614600000003E-2</v>
       </c>
       <c r="E15" s="4">
-        <v>0.0399319734</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="3" t="s">
+        <v>3.9931973400000001E-2</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="4">
-        <v>1.90122937484987</v>
+        <v>1.9012293748498701</v>
       </c>
       <c r="D16" s="4">
         <v>1.7111064373648832</v>
       </c>
       <c r="E16" s="4">
-        <v>2.091352312334857</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" s="3" t="s">
+        <v>2.0913523123348572</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="4">
-        <v>0.050981804</v>
+        <v>5.0981803999999999E-2</v>
       </c>
       <c r="D17" s="4">
-        <v>0.0458836236</v>
+        <v>4.5883623599999999E-2</v>
       </c>
       <c r="E17" s="4">
-        <v>0.056079984400000005</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" s="3" t="s">
+        <v>5.6079984400000005E-2</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="4">
         <v>0.10287725</v>
       </c>
       <c r="D18" s="4">
-        <v>0.092589525</v>
+        <v>9.2589525000000006E-2</v>
       </c>
       <c r="E18" s="4">
         <v>0.11316497500000001</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" s="3" t="s">
+      <c r="F18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="4">
-        <v>0.39586718</v>
+        <v>0.39586717999999999</v>
       </c>
       <c r="D19" s="4">
-        <v>0.356280462</v>
+        <v>0.35628046200000002</v>
       </c>
       <c r="E19" s="4">
-        <v>0.435453898</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" s="3" t="s">
+        <v>0.43545389800000001</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/exposan/enviroloo/data/impact_items.xlsx
+++ b/exposan/enviroloo/data/impact_items.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\TANG\Documents\GitHub\EXPOsan\exposan\enviroloo\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuyaoh2\Desktop\update6\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1211943-EDAA-44DE-AD7F-1FD7CF4B1212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F5A4B2-54FC-4360-BD51-71527614B30D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="1000" windowWidth="20290" windowHeight="14280" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="68">
   <si>
     <t>ID</t>
   </si>
@@ -202,17 +202,56 @@
   </si>
   <si>
     <t>ea</t>
+  </si>
+  <si>
+    <t>Excavation</t>
+  </si>
+  <si>
+    <t>m3</t>
+  </si>
+  <si>
+    <t>Brick</t>
+  </si>
+  <si>
+    <t>Cement</t>
+  </si>
+  <si>
+    <t>Concrete</t>
+  </si>
+  <si>
+    <t>Gravel</t>
+  </si>
+  <si>
+    <t>Sand</t>
+  </si>
+  <si>
+    <t>ecoinvent 3</t>
+  </si>
+  <si>
+    <t>StainlessSteelSheet</t>
+  </si>
+  <si>
+    <t>Ceramic</t>
+  </si>
+  <si>
+    <t>FRP</t>
+  </si>
+  <si>
+    <t>LCI database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -231,20 +270,27 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -273,10 +319,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -285,25 +332,31 @@
     <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{384E028C-2F03-4227-9298-4E47CA7BDECF}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -606,20 +659,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="20.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="20.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="18.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -627,147 +680,227 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:2" ht="18.75" customHeight="1">
+      <c r="A2" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="18.75" customHeight="1">
+      <c r="A3" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="18.75" customHeight="1">
+      <c r="A4" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="18.75" customHeight="1">
+      <c r="A5" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="18.75" customHeight="1">
+      <c r="A6" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="18.75" customHeight="1">
+      <c r="A7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="18.75" customHeight="1">
+      <c r="A8" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="18.75" customHeight="1">
+      <c r="A9" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B9" s="12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="10" spans="1:2" ht="18.75" customHeight="1">
+      <c r="A10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B10" s="12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+    <row r="11" spans="1:2" ht="18.75" customHeight="1">
+      <c r="A11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B11" s="12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+    <row r="12" spans="1:2" ht="18.75" customHeight="1">
+      <c r="A12" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B12" s="12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+    <row r="13" spans="1:2" ht="18.75" customHeight="1">
+      <c r="A13" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="18.75" customHeight="1">
+      <c r="A14" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B14" s="12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+    <row r="15" spans="1:2" ht="18.75" customHeight="1">
+      <c r="A15" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="18.75" customHeight="1">
+      <c r="A16" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="18.75" customHeight="1">
+      <c r="A17" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B17" s="12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+    <row r="18" spans="1:2" ht="18.75" customHeight="1">
+      <c r="A18" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B18" s="12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+    <row r="19" spans="1:2" ht="18.75" customHeight="1">
+      <c r="A19" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B19" s="12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+    <row r="20" spans="1:2" ht="18.75" customHeight="1">
+      <c r="A20" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B20" s="12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+    <row r="21" spans="1:2" ht="18.75" customHeight="1">
+      <c r="A21" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B21" s="12" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+    <row r="22" spans="1:2" ht="18.75" customHeight="1">
+      <c r="A22" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B22" s="12" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+    <row r="23" spans="1:2" ht="18.75" customHeight="1">
+      <c r="A23" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B23" s="12" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+    <row r="24" spans="1:2" ht="18.75" customHeight="1">
+      <c r="A24" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B24" s="12" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+    <row r="25" spans="1:2" ht="18.75" customHeight="1">
+      <c r="A25" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B25" s="12" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+    <row r="26" spans="1:2" ht="18.75" customHeight="1">
+      <c r="A26" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B26" s="12" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+    <row r="27" spans="1:2" ht="18.75" customHeight="1">
+      <c r="A27" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B27" s="12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+    <row r="28" spans="1:2" ht="18.75" customHeight="1">
+      <c r="A28" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B28" s="12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+    <row r="29" spans="1:2" ht="18.75" customHeight="1">
+      <c r="A29" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B29" s="12" t="s">
         <v>53</v>
       </c>
     </row>
@@ -782,23 +915,23 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.54296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="26.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.7109375" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="18.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -821,419 +954,649 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A2" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="12">
+        <v>0.53</v>
+      </c>
+      <c r="D2" s="12">
+        <v>0.51</v>
+      </c>
+      <c r="E2" s="12">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A3" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="9">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="E3" s="9">
+        <v>0.31</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A4" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1.08</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0.97</v>
+      </c>
+      <c r="E4" s="9">
+        <v>1.19</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A5" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="12">
+        <v>300</v>
+      </c>
+      <c r="D5" s="12">
+        <v>218</v>
+      </c>
+      <c r="E5" s="12">
+        <v>385</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A6" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="12">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D6" s="12">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E6" s="12">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="12">
+        <v>1.97</v>
+      </c>
+      <c r="D7" s="12">
+        <v>1.93</v>
+      </c>
+      <c r="E7" s="12">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A8" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="12">
+        <v>1.2E-2</v>
+      </c>
+      <c r="D8" s="12">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E8" s="12">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A9" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B9" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C9" s="7">
         <v>0.19400000000000001</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D9" s="7">
         <v>0.17460000000000001</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E9" s="7">
         <v>0.21340000000000003</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="F9" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="10" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B10" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C10" s="7">
         <v>1.97</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D10" s="7">
         <v>1.7729999999999999</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E10" s="7">
         <v>2.1670000000000003</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="F10" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+    <row r="11" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B11" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C11" s="7">
         <v>4.7926308999999998</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D11" s="7">
         <v>4.3133678099999999</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E11" s="7">
         <v>5.2718939900000006</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="F11" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+    <row r="12" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A12" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B12" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C12" s="7">
         <v>4.7926308999999998</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D12" s="7">
         <v>4.3133678099999999</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E12" s="7">
         <v>5.2718939900000006</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="F12" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+    <row r="13" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A13" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="7">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="D13" s="7">
+        <v>3.65</v>
+      </c>
+      <c r="E13" s="7">
+        <v>6.21</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A14" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B14" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C14" s="7">
         <v>1.7125967</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D14" s="7">
         <v>1.54133703</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E14" s="7">
         <v>1.8838563700000002</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="2" t="s">
+      <c r="F14" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+    <row r="15" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A15" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="7">
+        <v>1.844173711</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1.6597563399000002</v>
+      </c>
+      <c r="E15" s="7">
+        <v>2.0285910821000002</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A16" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="7">
+        <v>8.779946528</v>
+      </c>
+      <c r="D16" s="7">
+        <v>7.9019518752</v>
+      </c>
+      <c r="E16" s="7">
+        <v>9.6579411808</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A17" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B17" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C17" s="7">
         <v>1.0621746000000001</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D17" s="7">
         <v>0.95595714000000009</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E17" s="7">
         <v>1.1683920600000002</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="2" t="s">
+      <c r="F17" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+    <row r="18" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A18" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B18" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C18" s="7">
         <v>2.0673798630000002</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D18" s="7">
         <v>1.8606418767000001</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E18" s="7">
         <v>2.2741178493</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="2" t="s">
+      <c r="F18" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+    <row r="19" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A19" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B19" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C19" s="7">
         <v>3.3541512</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D19" s="7">
         <v>3.01873608</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E19" s="7">
         <v>3.6895663200000004</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="2" t="s">
+      <c r="F19" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+    <row r="20" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A20" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B20" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C20" s="7">
         <v>25.979002999999999</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D20" s="7">
         <v>23.3811027</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E20" s="7">
         <v>28.576903300000001</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="2" t="s">
+      <c r="F20" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+    <row r="21" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A21" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B21" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C21" s="7">
         <v>8.8785325999999998</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D21" s="7">
         <v>7.9906793399999998</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E21" s="7">
         <v>9.7663858599999998</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="2" t="s">
+      <c r="F21" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+    <row r="22" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A22" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B22" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C22" s="7">
         <v>4.6161969999999997E-2</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D22" s="7">
         <v>4.1545773000000001E-2</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E22" s="7">
         <v>5.0778166999999999E-2</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="2" t="s">
+      <c r="F22" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+    <row r="23" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A23" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B23" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C23" s="7">
         <v>0.18464786999999999</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D23" s="7">
         <v>0.16618308300000001</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E23" s="7">
         <v>0.203112657</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" s="2" t="s">
+      <c r="F23" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+    <row r="24" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A24" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B24" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C24" s="7">
         <v>4.3790218750000003</v>
       </c>
-      <c r="D14" s="4">
-        <f>C14*0.9</f>
+      <c r="D24" s="7">
+        <f>C24*0.9</f>
         <v>3.9411196875000005</v>
       </c>
-      <c r="E14" s="4">
-        <f>C14*1.1</f>
+      <c r="E24" s="7">
+        <f>C24*1.1</f>
         <v>4.8169240625000009</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="2" t="s">
+      <c r="F24" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+    <row r="25" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A25" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B25" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C25" s="7">
         <v>0.92807097999999999</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D25" s="7">
         <v>0.83526388200000001</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E25" s="7">
         <v>1.020878078</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="2" t="s">
+      <c r="F25" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+    <row r="26" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A26" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B26" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C26" s="7">
         <v>13.937562</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D26" s="7">
         <v>12.543805799999999</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E26" s="7">
         <v>15.3313182</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" s="2" t="s">
+      <c r="F26" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+    <row r="27" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A27" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B27" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C27" s="7">
         <v>1.2497984</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D27" s="7">
         <v>1.12481856</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E27" s="7">
         <v>1.3747782400000002</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" s="2" t="s">
+      <c r="F27" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
+    <row r="28" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A28" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B28" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C28" s="7">
         <v>2.4745949999999999</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D28" s="7">
         <v>2.2271355000000002</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E28" s="7">
         <v>2.7220545</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" s="5" t="s">
+      <c r="F28" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+    <row r="29" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A29" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B29" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C29" s="7">
         <v>11.062602999999999</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D29" s="7">
         <v>9.9563427000000004</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E29" s="7">
         <v>12.1688633</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" s="2" t="s">
+      <c r="F29" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" s="12" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1248,23 +1611,23 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="26.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.54296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="18.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1286,422 +1649,695 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="H1" s="12"/>
+    </row>
+    <row r="2" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A2" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="12">
+        <v>2.0826975162783804E-3</v>
+      </c>
+      <c r="D2" s="12">
+        <f>C2*0.9</f>
+        <v>1.8744277646505424E-3</v>
+      </c>
+      <c r="E2" s="12">
+        <f>C2*1.1</f>
+        <v>2.2909672679062186E-3</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="12"/>
+    </row>
+    <row r="3" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A3" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="12">
+        <v>1.25782963589889E-3</v>
+      </c>
+      <c r="D3" s="12">
+        <f t="shared" ref="D3:D8" si="0">C3*0.9</f>
+        <v>1.1320466723090011E-3</v>
+      </c>
+      <c r="E3" s="12">
+        <f t="shared" ref="E3:E8" si="1">C3*1.1</f>
+        <v>1.3836125994887791E-3</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="12"/>
+    </row>
+    <row r="4" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A4" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="12">
+        <v>4.2652715832030398E-3</v>
+      </c>
+      <c r="D4" s="12">
+        <f t="shared" si="0"/>
+        <v>3.838744424882736E-3</v>
+      </c>
+      <c r="E4" s="12">
+        <f t="shared" si="1"/>
+        <v>4.6917987415233441E-3</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="12"/>
+    </row>
+    <row r="5" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A5" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="12">
+        <v>1.5021122298140999</v>
+      </c>
+      <c r="D5" s="12">
+        <f t="shared" si="0"/>
+        <v>1.35190100683269</v>
+      </c>
+      <c r="E5" s="12">
+        <f t="shared" si="1"/>
+        <v>1.65232345279551</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="12"/>
+    </row>
+    <row r="6" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A6" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="12">
+        <v>8.9239665301849803E-5</v>
+      </c>
+      <c r="D6" s="12">
+        <f t="shared" si="0"/>
+        <v>8.0315698771664818E-5</v>
+      </c>
+      <c r="E6" s="12">
+        <f t="shared" si="1"/>
+        <v>9.8163631832034787E-5</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="12"/>
+    </row>
+    <row r="7" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="12">
+        <v>7.0545200988693093E-3</v>
+      </c>
+      <c r="D7" s="12">
+        <f t="shared" si="0"/>
+        <v>6.3490680889823781E-3</v>
+      </c>
+      <c r="E7" s="12">
+        <f t="shared" si="1"/>
+        <v>7.7599721087562405E-3</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="12"/>
+    </row>
+    <row r="8" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A8" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="12">
+        <v>5.9466265249932603E-5</v>
+      </c>
+      <c r="D8" s="12">
+        <f t="shared" si="0"/>
+        <v>5.3519638724939347E-5</v>
+      </c>
+      <c r="E8" s="12">
+        <f t="shared" si="1"/>
+        <v>6.5412891774925866E-5</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="12"/>
+    </row>
+    <row r="9" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A9" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="4">
+      <c r="B9" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="7">
         <v>7.3491891263938202E-4</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D9" s="7">
         <v>6.6142702137544386E-4</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E9" s="7">
         <v>8.0841080390332029E-4</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="F9" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="4">
+      <c r="B10" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="7">
         <v>0.16310679</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D10" s="7">
         <v>0.14679611100000001</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E10" s="7">
         <v>0.17941746900000002</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="F10" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="4">
+      <c r="B11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="7">
         <v>0.103988</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D11" s="7">
         <v>9.3589199999999997E-2</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E11" s="7">
         <v>0.11438680000000001</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="F11" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A12" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="8">
+      <c r="B12" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="7">
         <v>0.103988</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D12" s="7">
         <v>9.3589199999999997E-2</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E12" s="7">
         <v>0.11438680000000001</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="F12" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+      <c r="H12" s="12"/>
+    </row>
+    <row r="13" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A13" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="7">
+        <v>2.6293695623320597E-3</v>
+      </c>
+      <c r="D13" s="7">
+        <v>2.3664326060988537E-3</v>
+      </c>
+      <c r="E13" s="7">
+        <v>2.8923065185652661E-3</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="12"/>
+    </row>
+    <row r="14" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A14" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="8">
+      <c r="B14" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="7">
         <v>3.2947924000000003E-2</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D14" s="7">
         <v>2.9653131600000004E-2</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E14" s="7">
         <v>3.6242716400000007E-2</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="2" t="s">
+      <c r="F14" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="12" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="H14" s="12"/>
+    </row>
+    <row r="15" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A15" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="7">
+        <v>6.9001159923848896E-3</v>
+      </c>
+      <c r="D15" s="7">
+        <v>6.210104393146401E-3</v>
+      </c>
+      <c r="E15" s="7">
+        <v>7.5901275916233791E-3</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="12"/>
+    </row>
+    <row r="16" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A16" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="7">
+        <v>3.29976524974534E-2</v>
+      </c>
+      <c r="D16" s="7">
+        <v>2.9697887247708062E-2</v>
+      </c>
+      <c r="E16" s="7">
+        <v>3.6297417747198746E-2</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="12"/>
+    </row>
+    <row r="17" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A17" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="4">
+      <c r="B17" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="7">
         <v>2.3136160999999999E-2</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D17" s="7">
         <v>2.08225449E-2</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E17" s="7">
         <v>2.5449777100000001E-2</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="2" t="s">
+      <c r="F17" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="12" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+      <c r="H17" s="12"/>
+    </row>
+    <row r="18" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A18" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="8">
+      <c r="B18" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="7">
         <v>7.6122321142258198E-3</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D18" s="7">
         <v>6.851008902803238E-3</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E18" s="7">
         <v>8.3734553256484025E-3</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+      <c r="F18" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="12"/>
+    </row>
+    <row r="19" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A19" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="8">
+      <c r="B19" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="7">
         <v>6.0401525999999997E-2</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D19" s="7">
         <v>5.4361373399999996E-2</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E19" s="7">
         <v>6.6441678599999998E-2</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="2" t="s">
+      <c r="F19" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="12" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+      <c r="H19" s="12"/>
+    </row>
+    <row r="20" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A20" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="8">
+      <c r="B20" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="7">
         <v>0.49095999000000001</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D20" s="7">
         <v>0.44186399100000001</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E20" s="7">
         <v>0.54005598900000007</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="2" t="s">
+      <c r="F20" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="12" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
+      <c r="H20" s="12"/>
+    </row>
+    <row r="21" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A21" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="8">
+      <c r="B21" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="7">
         <v>0.22140290000000001</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D21" s="7">
         <v>0.19926261000000001</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E21" s="7">
         <v>0.24354319000000005</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="2" t="s">
+      <c r="F21" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="12" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="H21" s="12"/>
+    </row>
+    <row r="22" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A22" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="4">
+      <c r="B22" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="7">
         <v>5.4806180000000003E-4</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D22" s="7">
         <v>4.9325562000000008E-4</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E22" s="7">
         <v>6.0286798000000008E-4</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="2" t="s">
+      <c r="F22" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="12" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="H22" s="12"/>
+    </row>
+    <row r="23" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A23" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="4">
+      <c r="B23" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="7">
         <v>3.6537452E-3</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D23" s="7">
         <v>3.28837068E-3</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E23" s="7">
         <v>4.0191197200000004E-3</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" s="2" t="s">
+      <c r="F23" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="12" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
+      <c r="H23" s="12"/>
+    </row>
+    <row r="24" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A24" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="8">
+      <c r="B24" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="7">
         <v>7.6122321142258198E-3</v>
       </c>
-      <c r="D14" s="8">
-        <f>C14*0.9</f>
+      <c r="D24" s="7">
+        <f>C24*0.9</f>
         <v>6.851008902803238E-3</v>
       </c>
-      <c r="E14" s="8">
-        <f>C14*1.1</f>
+      <c r="E24" s="7">
+        <f>C24*1.1</f>
         <v>8.3734553256484025E-3</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="2" t="s">
+      <c r="F24" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="12" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
+      <c r="H24" s="12"/>
+    </row>
+    <row r="25" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A25" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="8">
+      <c r="B25" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="7">
         <v>1.8242400999999998E-2</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D25" s="7">
         <v>1.6418160899999999E-2</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E25" s="7">
         <v>2.0066641100000001E-2</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="2" t="s">
+      <c r="F25" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="12" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
+      <c r="H25" s="12"/>
+    </row>
+    <row r="26" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A26" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="8">
+      <c r="B26" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="7">
         <v>5.8742658263712E-2</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D26" s="7">
         <v>5.2868392437340803E-2</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E26" s="7">
         <v>6.4616924090083211E-2</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
+      <c r="F26" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" s="12"/>
+    </row>
+    <row r="27" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A27" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="8">
+      <c r="B27" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="7">
         <v>2.5732326E-2</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D27" s="7">
         <v>2.3159093400000001E-2</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E27" s="7">
         <v>2.8305558600000003E-2</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" s="2" t="s">
+      <c r="F27" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="12" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
+      <c r="H27" s="12"/>
+    </row>
+    <row r="28" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A28" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="8">
+      <c r="B28" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="7">
         <v>5.1394080000000002E-2</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D28" s="7">
         <v>4.6254672000000004E-2</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E28" s="7">
         <v>5.6533488000000007E-2</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" s="2" t="s">
+      <c r="F28" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="12" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+      <c r="H28" s="12"/>
+    </row>
+    <row r="29" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A29" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="4">
+      <c r="B29" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="7">
         <v>0.21786132</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D29" s="7">
         <v>0.19607518800000001</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E29" s="7">
         <v>0.23964745200000001</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" s="2" t="s">
+      <c r="F29" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" s="12" t="s">
         <v>37</v>
       </c>
+      <c r="H29" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1714,23 +2350,23 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="26.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.54296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="18.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1753,421 +2389,665 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A2" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="12">
+        <v>4.0225262172174196E-2</v>
+      </c>
+      <c r="D2" s="12">
+        <f>C2*0.9</f>
+        <v>3.620273595495678E-2</v>
+      </c>
+      <c r="E2" s="12">
+        <f>C2*1.1</f>
+        <v>4.4247788389391619E-2</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A3" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="12">
+        <v>1.7417474967301703E-2</v>
+      </c>
+      <c r="D3" s="12">
+        <f t="shared" ref="D3:D8" si="0">C3*0.9</f>
+        <v>1.5675727470571534E-2</v>
+      </c>
+      <c r="E3" s="12">
+        <f t="shared" ref="E3:E8" si="1">C3*1.1</f>
+        <v>1.9159222464031875E-2</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A4" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="12">
+        <v>5.88741014799046E-2</v>
+      </c>
+      <c r="D4" s="12">
+        <f t="shared" si="0"/>
+        <v>5.2986691331914144E-2</v>
+      </c>
+      <c r="E4" s="12">
+        <f t="shared" si="1"/>
+        <v>6.4761511627895063E-2</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A5" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="12">
+        <v>18.103860435431102</v>
+      </c>
+      <c r="D5" s="12">
+        <f t="shared" si="0"/>
+        <v>16.293474391887994</v>
+      </c>
+      <c r="E5" s="12">
+        <f t="shared" si="1"/>
+        <v>19.914246478974214</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A6" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="12">
+        <v>1.25249603636373E-3</v>
+      </c>
+      <c r="D6" s="12">
+        <f t="shared" si="0"/>
+        <v>1.1272464327273571E-3</v>
+      </c>
+      <c r="E6" s="12">
+        <f t="shared" si="1"/>
+        <v>1.3777456400001031E-3</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="12">
+        <v>0.10059794190115701</v>
+      </c>
+      <c r="D7" s="12">
+        <f t="shared" si="0"/>
+        <v>9.0538147711041309E-2</v>
+      </c>
+      <c r="E7" s="12">
+        <f t="shared" si="1"/>
+        <v>0.11065773609127272</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A8" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="12">
+        <v>8.4207973296428001E-4</v>
+      </c>
+      <c r="D8" s="12">
+        <f t="shared" si="0"/>
+        <v>7.5787175966785197E-4</v>
+      </c>
+      <c r="E8" s="12">
+        <f t="shared" si="1"/>
+        <v>9.2628770626070804E-4</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A9" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="4">
+      <c r="B9" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="7">
         <v>1.11416240905451E-2</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D9" s="7">
         <v>1.0027461681490591E-2</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E9" s="7">
         <v>1.2255786499599611E-2</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="F9" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="8">
+      <c r="B10" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="7">
         <v>0.32531039</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D10" s="7">
         <v>0.29277935100000002</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E10" s="7">
         <v>0.35784142900000004</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="F10" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="4">
+      <c r="B11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="7">
         <v>0.30268327</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D11" s="7">
         <v>0.27241494300000002</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E11" s="7">
         <v>0.33295159700000004</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="F11" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+    <row r="12" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A12" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="4">
+      <c r="B12" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="7">
         <v>0.30268327</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D12" s="7">
         <v>0.27241494300000002</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E12" s="7">
         <v>0.33295159700000004</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="F12" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+    <row r="13" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A13" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="7">
+        <v>4.9445240467444598E-2</v>
+      </c>
+      <c r="D13" s="7">
+        <v>4.4500716420700137E-2</v>
+      </c>
+      <c r="E13" s="7">
+        <v>5.438976451418906E-2</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A14" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="4">
+      <c r="B14" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="7">
         <v>0.10482827</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D14" s="7">
         <v>9.4345443000000001E-2</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E14" s="7">
         <v>0.11531109700000002</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="2" t="s">
+      <c r="F14" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+    <row r="15" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A15" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="7">
+        <v>0.16964282534316702</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0.15267854280885032</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0.18660710787748375</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A16" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0.473687922040397</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0.42631912983635734</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0.52105671424443678</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A17" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="8">
+      <c r="B17" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="7">
         <v>4.5536650999999997E-2</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D17" s="7">
         <v>4.0982985899999998E-2</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E17" s="7">
         <v>5.0090316100000004E-2</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="2" t="s">
+      <c r="F17" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+    <row r="18" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A18" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="4">
+      <c r="B18" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="7">
         <v>0.11048229451496501</v>
       </c>
-      <c r="D8" s="4">
-        <f>C8*0.9</f>
+      <c r="D18" s="7">
+        <f>C18*0.9</f>
         <v>9.943406506346851E-2</v>
       </c>
-      <c r="E8" s="4">
-        <f>C8*1.1</f>
+      <c r="E18" s="7">
+        <f>C18*1.1</f>
         <v>0.12153052396646152</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="F18" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A19" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="4">
+      <c r="B19" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="7">
         <v>0.1633964</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D19" s="7">
         <v>0.14705676000000001</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E19" s="7">
         <v>0.17973604000000001</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="2" t="s">
+      <c r="F19" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+    <row r="20" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A20" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="4">
+      <c r="B20" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="7">
         <v>0.99488125999999999</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D20" s="7">
         <v>0.89539313399999998</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E20" s="7">
         <v>1.0943693860000001</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="2" t="s">
+      <c r="F20" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+    <row r="21" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A21" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="4">
+      <c r="B21" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="7">
         <v>0.84687732999999998</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D21" s="7">
         <v>0.762189597</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E21" s="7">
         <v>0.93156506300000008</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="2" t="s">
+      <c r="F21" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+    <row r="22" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A22" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="4">
+      <c r="B22" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="7">
         <v>1.9493543E-3</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D22" s="7">
         <v>1.75441887E-3</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E22" s="7">
         <v>2.1442897300000003E-3</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="2" t="s">
+      <c r="F22" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+    <row r="23" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A23" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="4">
+      <c r="B23" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="7">
         <v>9.7467717000000002E-3</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D23" s="7">
         <v>8.7720945299999999E-3</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E23" s="7">
         <v>1.0721448870000001E-2</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" s="2" t="s">
+      <c r="F23" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+    <row r="24" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A24" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="4">
+      <c r="B24" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="7">
         <v>0.11048229451496501</v>
       </c>
-      <c r="D14" s="4">
-        <f>C14*0.9</f>
+      <c r="D24" s="7">
+        <f>C24*0.9</f>
         <v>9.943406506346851E-2</v>
       </c>
-      <c r="E14" s="4">
-        <f>C14*1.1</f>
+      <c r="E24" s="7">
+        <f>C24*1.1</f>
         <v>0.12153052396646152</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="2" t="s">
+      <c r="F24" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+    <row r="25" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A25" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="4">
+      <c r="B25" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="7">
         <v>0.14972131</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D25" s="7">
         <v>0.134749179</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E25" s="7">
         <v>0.164693441</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="2" t="s">
+      <c r="F25" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+    <row r="26" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A26" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="4">
+      <c r="B26" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="7">
         <v>1.88032079219059</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D26" s="7">
         <v>1.6922887129715309</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E26" s="7">
         <v>2.0683528714096493</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+      <c r="F26" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A27" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="4">
+      <c r="B27" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="7">
         <v>6.1256092999999998E-2</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D27" s="7">
         <v>5.5130484E-2</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E27" s="7">
         <v>6.7381702000000002E-2</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" s="2" t="s">
+      <c r="F27" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+    <row r="28" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A28" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="4">
+      <c r="B28" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="7">
         <v>0.12191047000000001</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D28" s="7">
         <v>5.5130484E-2</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E28" s="7">
         <v>6.7381702000000002E-2</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" s="2" t="s">
+      <c r="F28" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+    <row r="29" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A29" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="4">
+      <c r="B29" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="7">
         <v>0.51710283999999995</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D29" s="7">
         <v>5.5130484E-2</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E29" s="7">
         <v>6.7381702000000002E-2</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" s="2" t="s">
+      <c r="F29" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" s="12" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2182,22 +3062,22 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="26.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="13.54296875" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="18.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2220,424 +3100,672 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A2" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="12">
+        <v>2.73188377175855E-2</v>
+      </c>
+      <c r="D2" s="12">
+        <f>C2*0.9</f>
+        <v>2.458695394582695E-2</v>
+      </c>
+      <c r="E2" s="12">
+        <f>C2*1.1</f>
+        <v>3.0050721489344054E-2</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A3" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="12">
+        <v>1.10687485072802E-2</v>
+      </c>
+      <c r="D3" s="12">
+        <f t="shared" ref="D3:D8" si="0">C3*0.9</f>
+        <v>9.9618736565521802E-3</v>
+      </c>
+      <c r="E3" s="12">
+        <f t="shared" ref="E3:E8" si="1">C3*1.1</f>
+        <v>1.2175623358008222E-2</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A4" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="12">
+        <v>1.5272926695142202E-2</v>
+      </c>
+      <c r="D4" s="12">
+        <f t="shared" si="0"/>
+        <v>1.3745634025627982E-2</v>
+      </c>
+      <c r="E4" s="12">
+        <f t="shared" si="1"/>
+        <v>1.6800219364656425E-2</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A5" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="12">
+        <v>6.9886923389555697</v>
+      </c>
+      <c r="D5" s="12">
+        <f t="shared" si="0"/>
+        <v>6.2898231050600133</v>
+      </c>
+      <c r="E5" s="12">
+        <f t="shared" si="1"/>
+        <v>7.6875615728511271</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A6" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="12">
+        <v>8.3282261971689704E-4</v>
+      </c>
+      <c r="D6" s="12">
+        <f t="shared" si="0"/>
+        <v>7.495403577452073E-4</v>
+      </c>
+      <c r="E6" s="12">
+        <f t="shared" si="1"/>
+        <v>9.1610488168858677E-4</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="12">
+        <v>0.21881932904488599</v>
+      </c>
+      <c r="D7" s="12">
+        <f t="shared" si="0"/>
+        <v>0.1969373961403974</v>
+      </c>
+      <c r="E7" s="12">
+        <f t="shared" si="1"/>
+        <v>0.24070126194937461</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A8" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="12">
+        <v>5.8128590587309102E-4</v>
+      </c>
+      <c r="D8" s="12">
+        <f t="shared" si="0"/>
+        <v>5.2315731528578197E-4</v>
+      </c>
+      <c r="E8" s="12">
+        <f t="shared" si="1"/>
+        <v>6.3941449646040018E-4</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="19.5" customHeight="1">
+      <c r="A9" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="4">
+      <c r="B9" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="7">
         <v>8.5846487710015597E-3</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D9" s="7">
         <v>7.7261838939014036E-3</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E9" s="7">
         <v>9.4431136481017159E-3</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="F9" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="8">
+      <c r="B10" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="7">
         <v>0.36487195</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D10" s="7">
         <v>0.32838475500000003</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E10" s="7">
         <v>0.40135914500000003</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="F10" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="8">
+      <c r="B11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="7">
         <v>0.72722925000000005</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D11" s="7">
         <v>0.65450632500000006</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E11" s="7">
         <v>0.79995217500000015</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="F11" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+    <row r="12" spans="1:14" ht="19.5" customHeight="1">
+      <c r="A12" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="4">
+      <c r="B12" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="7">
         <v>0.72722925000000005</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D12" s="7">
         <v>0.65450632500000006</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E12" s="7">
         <v>0.79995217500000015</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="F12" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+    <row r="13" spans="1:14" ht="19.5" customHeight="1">
+      <c r="A13" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="7">
+        <v>6.4849012917126497E-2</v>
+      </c>
+      <c r="D13" s="7">
+        <v>5.8364111625413849E-2</v>
+      </c>
+      <c r="E13" s="7">
+        <v>7.1333914208839153E-2</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="19.5" customHeight="1">
+      <c r="A14" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="4">
+      <c r="B14" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="7">
         <v>0.44612321999999999</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D14" s="7">
         <v>0.401510898</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E14" s="7">
         <v>0.49073554200000002</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="2" t="s">
+      <c r="F14" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+    <row r="15" spans="1:14" ht="19.5" customHeight="1">
+      <c r="A15" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="7">
+        <v>7.7577446363450597E-2</v>
+      </c>
+      <c r="D15" s="7">
+        <v>6.981970172710554E-2</v>
+      </c>
+      <c r="E15" s="7">
+        <v>8.5335190999795668E-2</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="19.5" customHeight="1">
+      <c r="A16" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0.38749813948829598</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0.34874832553946639</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0.42624795343712563</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A17" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="8">
+      <c r="B17" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="7">
         <v>9.1643753999999994E-2</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D17" s="7">
         <v>8.24793786E-2</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E17" s="7">
         <v>0.1008081294</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="2" t="s">
+      <c r="F17" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+    <row r="18" spans="1:7" ht="19.5" customHeight="1">
+      <c r="A18" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="4">
+      <c r="B18" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="7">
         <v>0.150807596748742</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D18" s="7">
         <v>0.13572683707386782</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E18" s="7">
         <v>0.16588835642361621</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="F18" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="19.5" customHeight="1">
+      <c r="A19" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="4">
+      <c r="B19" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="7">
         <v>8.7594459E-2</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D19" s="7">
         <v>7.8835013100000004E-2</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E19" s="7">
         <v>9.6353904900000009E-2</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="2" t="s">
+      <c r="F19" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+    <row r="20" spans="1:7" ht="19.5" customHeight="1">
+      <c r="A20" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="4">
+      <c r="B20" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="7">
         <v>1.1344383499999999</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D20" s="7">
         <v>1.0209945149999999</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E20" s="7">
         <v>1.2478821849999999</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="2" t="s">
+      <c r="F20" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+    <row r="21" spans="1:7" ht="19.5" customHeight="1">
+      <c r="A21" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="4">
+      <c r="B21" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="7">
         <v>1.0153460000000001</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D21" s="7">
         <v>0.91381140000000005</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E21" s="7">
         <v>1.1168806000000002</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="2" t="s">
+      <c r="F21" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+    <row r="22" spans="1:7" ht="19.5" customHeight="1">
+      <c r="A22" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="4">
+      <c r="B22" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="7">
         <v>1.8259646E-3</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D22" s="7">
         <v>1.64336814E-3</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E22" s="7">
         <v>2.00856106E-3</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="2" t="s">
+      <c r="F22" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+    <row r="23" spans="1:7" ht="19.5" customHeight="1">
+      <c r="A23" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="4">
+      <c r="B23" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="7">
         <v>9.1298230000000005E-3</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D23" s="7">
         <v>8.2168407000000002E-3</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E23" s="7">
         <v>1.0042805300000001E-2</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" s="2" t="s">
+      <c r="F23" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+    <row r="24" spans="1:7" ht="19.5" customHeight="1">
+      <c r="A24" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="4">
+      <c r="B24" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="7">
         <v>0.150807596748742</v>
       </c>
-      <c r="D14" s="4">
-        <f>C14*0.9</f>
+      <c r="D24" s="7">
+        <f>C24*0.9</f>
         <v>0.13572683707386782</v>
       </c>
-      <c r="E14" s="4">
-        <f>C14*1.1</f>
+      <c r="E24" s="7">
+        <f>C24*1.1</f>
         <v>0.16588835642361621</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="2" t="s">
+      <c r="F24" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+    <row r="25" spans="1:7" ht="19.5" customHeight="1">
+      <c r="A25" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="4">
+      <c r="B25" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="7">
         <v>3.6301793999999998E-2</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D25" s="7">
         <v>3.2671614600000003E-2</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E25" s="7">
         <v>3.9931973400000001E-2</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="2" t="s">
+      <c r="F25" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+    <row r="26" spans="1:7" ht="19.5" customHeight="1">
+      <c r="A26" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="4">
+      <c r="B26" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="7">
         <v>1.9012293748498701</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D26" s="7">
         <v>1.7111064373648832</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E26" s="7">
         <v>2.0913523123348572</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+      <c r="F26" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="19.5" customHeight="1">
+      <c r="A27" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="4">
+      <c r="B27" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="7">
         <v>5.0981803999999999E-2</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D27" s="7">
         <v>4.5883623599999999E-2</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E27" s="7">
         <v>5.6079984400000005E-2</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" s="2" t="s">
+      <c r="F27" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+    <row r="28" spans="1:7" ht="19.5" customHeight="1">
+      <c r="A28" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="4">
+      <c r="B28" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="7">
         <v>0.10287725</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D28" s="7">
         <v>9.2589525000000006E-2</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E28" s="7">
         <v>0.11316497500000001</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" s="2" t="s">
+      <c r="F28" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+    <row r="29" spans="1:7" ht="19.5" customHeight="1">
+      <c r="A29" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="4">
+      <c r="B29" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="7">
         <v>0.39586717999999999</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D29" s="7">
         <v>0.35628046200000002</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E29" s="7">
         <v>0.43545389800000001</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" s="2" t="s">
+      <c r="F29" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" s="12" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/exposan/enviroloo/data/impact_items.xlsx
+++ b/exposan/enviroloo/data/impact_items.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuyaoh2\Desktop\update6\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TANG\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F5A4B2-54FC-4360-BD51-71527614B30D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA8DA14E-5E73-40E0-B396-72D9F14FAED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="70">
   <si>
     <t>ID</t>
   </si>
@@ -241,17 +241,25 @@
   </si>
   <si>
     <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>Plastic</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plastic_copy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -270,7 +278,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -284,7 +292,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -662,17 +670,17 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="1" width="20.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75" customHeight="1">
+    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -680,7 +688,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18.75" customHeight="1">
+    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>55</v>
       </c>
@@ -688,7 +696,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="18.75" customHeight="1">
+    <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>57</v>
       </c>
@@ -696,7 +704,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="18.75" customHeight="1">
+    <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>58</v>
       </c>
@@ -704,7 +712,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="18.75" customHeight="1">
+    <row r="5" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
         <v>59</v>
       </c>
@@ -712,7 +720,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="18.75" customHeight="1">
+    <row r="6" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
         <v>60</v>
       </c>
@@ -720,15 +728,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="18.75" customHeight="1">
+    <row r="7" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="18.75" customHeight="1">
+    <row r="8" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
         <v>61</v>
       </c>
@@ -736,7 +744,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="18.75" customHeight="1">
+    <row r="9" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
         <v>7</v>
       </c>
@@ -744,15 +752,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="18.75" customHeight="1">
+    <row r="10" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="18.75" customHeight="1">
+    <row r="11" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
         <v>12</v>
       </c>
@@ -760,7 +768,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="18.75" customHeight="1">
+    <row r="12" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
         <v>14</v>
       </c>
@@ -768,7 +776,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="18.75" customHeight="1">
+    <row r="13" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
         <v>63</v>
       </c>
@@ -776,7 +784,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="18.75" customHeight="1">
+    <row r="14" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
         <v>15</v>
       </c>
@@ -784,7 +792,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="18.75" customHeight="1">
+    <row r="15" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="12" t="s">
         <v>64</v>
       </c>
@@ -792,7 +800,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="18.75" customHeight="1">
+    <row r="16" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="12" t="s">
         <v>65</v>
       </c>
@@ -800,7 +808,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="18.75" customHeight="1">
+    <row r="17" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="12" t="s">
         <v>17</v>
       </c>
@@ -808,7 +816,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="18.75" customHeight="1">
+    <row r="18" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
         <v>19</v>
       </c>
@@ -816,7 +824,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="18.75" customHeight="1">
+    <row r="19" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
         <v>20</v>
       </c>
@@ -824,7 +832,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="18.75" customHeight="1">
+    <row r="20" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
         <v>22</v>
       </c>
@@ -832,7 +840,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="18.75" customHeight="1">
+    <row r="21" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="12" t="s">
         <v>24</v>
       </c>
@@ -840,7 +848,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="18.75" customHeight="1">
+    <row r="22" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
         <v>25</v>
       </c>
@@ -848,7 +856,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="18.75" customHeight="1">
+    <row r="23" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="12" t="s">
         <v>27</v>
       </c>
@@ -856,7 +864,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="18.75" customHeight="1">
+    <row r="24" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="12" t="s">
         <v>29</v>
       </c>
@@ -864,7 +872,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="18.75" customHeight="1">
+    <row r="25" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="12" t="s">
         <v>30</v>
       </c>
@@ -872,7 +880,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="18.75" customHeight="1">
+    <row r="26" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="12" t="s">
         <v>31</v>
       </c>
@@ -880,7 +888,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="18.75" customHeight="1">
+    <row r="27" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="12" t="s">
         <v>32</v>
       </c>
@@ -888,7 +896,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="18.75" customHeight="1">
+    <row r="28" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="12" t="s">
         <v>34</v>
       </c>
@@ -896,7 +904,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="18.75" customHeight="1">
+    <row r="29" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="12" t="s">
         <v>36</v>
       </c>
@@ -917,21 +925,21 @@
   </sheetPr>
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.7109375" style="12"/>
+    <col min="1" max="1" width="26.7265625" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1796875" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.54296875" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.54296875" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.7265625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" customHeight="1">
+    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -954,7 +962,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18.75" customHeight="1">
+    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>55</v>
       </c>
@@ -977,7 +985,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18.75" customHeight="1">
+    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>57</v>
       </c>
@@ -1000,7 +1008,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18.75" customHeight="1">
+    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>58</v>
       </c>
@@ -1023,7 +1031,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18.75" customHeight="1">
+    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
         <v>59</v>
       </c>
@@ -1046,7 +1054,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18.75" customHeight="1">
+    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>60</v>
       </c>
@@ -1069,7 +1077,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18.75" customHeight="1">
+    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
         <v>11</v>
       </c>
@@ -1092,7 +1100,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18.75" customHeight="1">
+    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
         <v>61</v>
       </c>
@@ -1115,7 +1123,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18.75" customHeight="1">
+    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
         <v>7</v>
       </c>
@@ -1138,9 +1146,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="18.75" customHeight="1">
+    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>38</v>
@@ -1161,7 +1169,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18.75" customHeight="1">
+    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
         <v>12</v>
       </c>
@@ -1184,7 +1192,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="18.75" customHeight="1">
+    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
         <v>14</v>
       </c>
@@ -1207,7 +1215,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="18.75" customHeight="1">
+    <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
         <v>63</v>
       </c>
@@ -1230,7 +1238,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="18.75" customHeight="1">
+    <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
         <v>15</v>
       </c>
@@ -1253,7 +1261,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="18.75" customHeight="1">
+    <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="12" t="s">
         <v>64</v>
       </c>
@@ -1276,7 +1284,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="18.75" customHeight="1">
+    <row r="16" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="12" t="s">
         <v>65</v>
       </c>
@@ -1299,7 +1307,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="18.75" customHeight="1">
+    <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="12" t="s">
         <v>17</v>
       </c>
@@ -1322,7 +1330,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="18.75" customHeight="1">
+    <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
         <v>19</v>
       </c>
@@ -1345,7 +1353,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="18.75" customHeight="1">
+    <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
         <v>20</v>
       </c>
@@ -1368,7 +1376,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="18.75" customHeight="1">
+    <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
         <v>22</v>
       </c>
@@ -1391,7 +1399,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="18.75" customHeight="1">
+    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="12" t="s">
         <v>24</v>
       </c>
@@ -1414,7 +1422,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="18.75" customHeight="1">
+    <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
         <v>25</v>
       </c>
@@ -1437,7 +1445,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="18.75" customHeight="1">
+    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="12" t="s">
         <v>27</v>
       </c>
@@ -1460,7 +1468,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="18.75" customHeight="1">
+    <row r="24" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="12" t="s">
         <v>29</v>
       </c>
@@ -1485,7 +1493,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="18.75" customHeight="1">
+    <row r="25" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="12" t="s">
         <v>30</v>
       </c>
@@ -1508,7 +1516,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="18.75" customHeight="1">
+    <row r="26" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="12" t="s">
         <v>31</v>
       </c>
@@ -1531,7 +1539,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="18.75" customHeight="1">
+    <row r="27" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="12" t="s">
         <v>32</v>
       </c>
@@ -1554,7 +1562,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="18.75" customHeight="1">
+    <row r="28" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="12" t="s">
         <v>34</v>
       </c>
@@ -1577,7 +1585,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="18.75" customHeight="1">
+    <row r="29" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="12" t="s">
         <v>36</v>
       </c>
@@ -1614,20 +1622,20 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="1" width="26.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.54296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" customHeight="1">
+    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1651,7 +1659,7 @@
       </c>
       <c r="H1" s="12"/>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>55</v>
       </c>
@@ -1677,7 +1685,7 @@
       </c>
       <c r="H2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>57</v>
       </c>
@@ -1703,7 +1711,7 @@
       </c>
       <c r="H3" s="12"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1">
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>58</v>
       </c>
@@ -1729,7 +1737,7 @@
       </c>
       <c r="H4" s="12"/>
     </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1">
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
         <v>59</v>
       </c>
@@ -1755,7 +1763,7 @@
       </c>
       <c r="H5" s="12"/>
     </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1">
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>60</v>
       </c>
@@ -1781,7 +1789,7 @@
       </c>
       <c r="H6" s="12"/>
     </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1">
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
         <v>11</v>
       </c>
@@ -1807,7 +1815,7 @@
       </c>
       <c r="H7" s="12"/>
     </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1">
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
         <v>61</v>
       </c>
@@ -1833,7 +1841,7 @@
       </c>
       <c r="H8" s="12"/>
     </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1">
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
         <v>7</v>
       </c>
@@ -1857,9 +1865,9 @@
       </c>
       <c r="H9" s="12"/>
     </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1">
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>8</v>
@@ -1881,7 +1889,7 @@
       </c>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="1:8" ht="18.75" customHeight="1">
+    <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
         <v>12</v>
       </c>
@@ -1905,7 +1913,7 @@
       </c>
       <c r="H11" s="12"/>
     </row>
-    <row r="12" spans="1:8" ht="18.75" customHeight="1">
+    <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
         <v>14</v>
       </c>
@@ -1929,7 +1937,7 @@
       </c>
       <c r="H12" s="12"/>
     </row>
-    <row r="13" spans="1:8" ht="18.75" customHeight="1">
+    <row r="13" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
         <v>63</v>
       </c>
@@ -1953,7 +1961,7 @@
       </c>
       <c r="H13" s="12"/>
     </row>
-    <row r="14" spans="1:8" ht="18.75" customHeight="1">
+    <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
         <v>15</v>
       </c>
@@ -1977,7 +1985,7 @@
       </c>
       <c r="H14" s="12"/>
     </row>
-    <row r="15" spans="1:8" ht="18.75" customHeight="1">
+    <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="12" t="s">
         <v>64</v>
       </c>
@@ -2001,7 +2009,7 @@
       </c>
       <c r="H15" s="12"/>
     </row>
-    <row r="16" spans="1:8" ht="18.75" customHeight="1">
+    <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="12" t="s">
         <v>65</v>
       </c>
@@ -2025,7 +2033,7 @@
       </c>
       <c r="H16" s="12"/>
     </row>
-    <row r="17" spans="1:8" ht="18.75" customHeight="1">
+    <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="12" t="s">
         <v>17</v>
       </c>
@@ -2049,7 +2057,7 @@
       </c>
       <c r="H17" s="12"/>
     </row>
-    <row r="18" spans="1:8" ht="18.75" customHeight="1">
+    <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
         <v>19</v>
       </c>
@@ -2073,7 +2081,7 @@
       </c>
       <c r="H18" s="12"/>
     </row>
-    <row r="19" spans="1:8" ht="18.75" customHeight="1">
+    <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
         <v>20</v>
       </c>
@@ -2097,7 +2105,7 @@
       </c>
       <c r="H19" s="12"/>
     </row>
-    <row r="20" spans="1:8" ht="18.75" customHeight="1">
+    <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
         <v>22</v>
       </c>
@@ -2121,7 +2129,7 @@
       </c>
       <c r="H20" s="12"/>
     </row>
-    <row r="21" spans="1:8" ht="18.75" customHeight="1">
+    <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="12" t="s">
         <v>24</v>
       </c>
@@ -2145,7 +2153,7 @@
       </c>
       <c r="H21" s="12"/>
     </row>
-    <row r="22" spans="1:8" ht="18.75" customHeight="1">
+    <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
         <v>25</v>
       </c>
@@ -2169,7 +2177,7 @@
       </c>
       <c r="H22" s="12"/>
     </row>
-    <row r="23" spans="1:8" ht="18.75" customHeight="1">
+    <row r="23" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="12" t="s">
         <v>27</v>
       </c>
@@ -2193,7 +2201,7 @@
       </c>
       <c r="H23" s="12"/>
     </row>
-    <row r="24" spans="1:8" ht="18.75" customHeight="1">
+    <row r="24" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="12" t="s">
         <v>29</v>
       </c>
@@ -2219,7 +2227,7 @@
       </c>
       <c r="H24" s="12"/>
     </row>
-    <row r="25" spans="1:8" ht="18.75" customHeight="1">
+    <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="12" t="s">
         <v>30</v>
       </c>
@@ -2243,7 +2251,7 @@
       </c>
       <c r="H25" s="12"/>
     </row>
-    <row r="26" spans="1:8" ht="18.75" customHeight="1">
+    <row r="26" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="12" t="s">
         <v>31</v>
       </c>
@@ -2267,7 +2275,7 @@
       </c>
       <c r="H26" s="12"/>
     </row>
-    <row r="27" spans="1:8" ht="18.75" customHeight="1">
+    <row r="27" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="12" t="s">
         <v>32</v>
       </c>
@@ -2291,7 +2299,7 @@
       </c>
       <c r="H27" s="12"/>
     </row>
-    <row r="28" spans="1:8" ht="18.75" customHeight="1">
+    <row r="28" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="12" t="s">
         <v>34</v>
       </c>
@@ -2315,7 +2323,7 @@
       </c>
       <c r="H28" s="12"/>
     </row>
-    <row r="29" spans="1:8" ht="18.75" customHeight="1">
+    <row r="29" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="12" t="s">
         <v>36</v>
       </c>
@@ -2353,20 +2361,20 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="1" width="26.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.54296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" customHeight="1">
+    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2389,7 +2397,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18.75" customHeight="1">
+    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>55</v>
       </c>
@@ -2414,7 +2422,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18.75" customHeight="1">
+    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>57</v>
       </c>
@@ -2439,7 +2447,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18.75" customHeight="1">
+    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>58</v>
       </c>
@@ -2464,7 +2472,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18.75" customHeight="1">
+    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
         <v>59</v>
       </c>
@@ -2489,7 +2497,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18.75" customHeight="1">
+    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>60</v>
       </c>
@@ -2514,9 +2522,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18.75" customHeight="1">
+    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>8</v>
@@ -2539,7 +2547,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18.75" customHeight="1">
+    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
         <v>61</v>
       </c>
@@ -2564,7 +2572,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18.75" customHeight="1">
+    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
         <v>7</v>
       </c>
@@ -2587,9 +2595,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="18.75" customHeight="1">
+    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>8</v>
@@ -2610,7 +2618,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18.75" customHeight="1">
+    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
         <v>12</v>
       </c>
@@ -2633,7 +2641,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="18.75" customHeight="1">
+    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
         <v>14</v>
       </c>
@@ -2656,7 +2664,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="18.75" customHeight="1">
+    <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
         <v>63</v>
       </c>
@@ -2679,7 +2687,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="18.75" customHeight="1">
+    <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
         <v>15</v>
       </c>
@@ -2702,7 +2710,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="18.75" customHeight="1">
+    <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="12" t="s">
         <v>64</v>
       </c>
@@ -2725,7 +2733,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="18.75" customHeight="1">
+    <row r="16" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="12" t="s">
         <v>65</v>
       </c>
@@ -2748,7 +2756,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="18.75" customHeight="1">
+    <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="12" t="s">
         <v>17</v>
       </c>
@@ -2771,7 +2779,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="18.75" customHeight="1">
+    <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
         <v>19</v>
       </c>
@@ -2796,7 +2804,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="18.75" customHeight="1">
+    <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
         <v>20</v>
       </c>
@@ -2819,7 +2827,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="18.75" customHeight="1">
+    <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
         <v>22</v>
       </c>
@@ -2842,7 +2850,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="18.75" customHeight="1">
+    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="12" t="s">
         <v>24</v>
       </c>
@@ -2865,7 +2873,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="18.75" customHeight="1">
+    <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
         <v>25</v>
       </c>
@@ -2888,7 +2896,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="18.75" customHeight="1">
+    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="12" t="s">
         <v>27</v>
       </c>
@@ -2911,7 +2919,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="18.75" customHeight="1">
+    <row r="24" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="12" t="s">
         <v>29</v>
       </c>
@@ -2936,7 +2944,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="18.75" customHeight="1">
+    <row r="25" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="12" t="s">
         <v>30</v>
       </c>
@@ -2959,7 +2967,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="18.75" customHeight="1">
+    <row r="26" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="12" t="s">
         <v>31</v>
       </c>
@@ -2982,7 +2990,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="18.75" customHeight="1">
+    <row r="27" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="12" t="s">
         <v>32</v>
       </c>
@@ -3005,7 +3013,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="18.75" customHeight="1">
+    <row r="28" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="12" t="s">
         <v>34</v>
       </c>
@@ -3028,7 +3036,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="18.75" customHeight="1">
+    <row r="29" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="12" t="s">
         <v>36</v>
       </c>
@@ -3064,20 +3072,20 @@
   </sheetPr>
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="1" width="26.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="13.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18.75" customHeight="1">
+    <row r="1" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3100,7 +3108,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="18.75" customHeight="1">
+    <row r="2" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>55</v>
       </c>
@@ -3125,7 +3133,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="18.75" customHeight="1">
+    <row r="3" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>57</v>
       </c>
@@ -3150,7 +3158,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="18.75" customHeight="1">
+    <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>58</v>
       </c>
@@ -3175,7 +3183,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="18.75" customHeight="1">
+    <row r="5" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
         <v>59</v>
       </c>
@@ -3200,7 +3208,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="18.75" customHeight="1">
+    <row r="6" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>60</v>
       </c>
@@ -3225,7 +3233,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="18.75" customHeight="1">
+    <row r="7" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
         <v>11</v>
       </c>
@@ -3250,7 +3258,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="18.75" customHeight="1">
+    <row r="8" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
         <v>61</v>
       </c>
@@ -3275,7 +3283,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="19.5" customHeight="1">
+    <row r="9" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
         <v>7</v>
       </c>
@@ -3298,9 +3306,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="18.75" customHeight="1">
+    <row r="10" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>8</v>
@@ -3321,7 +3329,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="18.75" customHeight="1">
+    <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
         <v>12</v>
       </c>
@@ -3344,7 +3352,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="19.5" customHeight="1">
+    <row r="12" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
         <v>14</v>
       </c>
@@ -3367,7 +3375,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="19.5" customHeight="1">
+    <row r="13" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
         <v>63</v>
       </c>
@@ -3390,7 +3398,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="19.5" customHeight="1">
+    <row r="14" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
         <v>15</v>
       </c>
@@ -3413,7 +3421,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="19.5" customHeight="1">
+    <row r="15" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="12" t="s">
         <v>64</v>
       </c>
@@ -3436,7 +3444,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="19.5" customHeight="1">
+    <row r="16" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="12" t="s">
         <v>65</v>
       </c>
@@ -3462,7 +3470,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="18.75" customHeight="1">
+    <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="12" t="s">
         <v>17</v>
       </c>
@@ -3485,7 +3493,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="19.5" customHeight="1">
+    <row r="18" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
         <v>19</v>
       </c>
@@ -3508,7 +3516,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="19.5" customHeight="1">
+    <row r="19" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
         <v>20</v>
       </c>
@@ -3531,7 +3539,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="19.5" customHeight="1">
+    <row r="20" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
         <v>22</v>
       </c>
@@ -3554,7 +3562,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="19.5" customHeight="1">
+    <row r="21" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="12" t="s">
         <v>24</v>
       </c>
@@ -3577,7 +3585,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="19.5" customHeight="1">
+    <row r="22" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
         <v>25</v>
       </c>
@@ -3600,7 +3608,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="19.5" customHeight="1">
+    <row r="23" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="12" t="s">
         <v>27</v>
       </c>
@@ -3623,7 +3631,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="19.5" customHeight="1">
+    <row r="24" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="12" t="s">
         <v>29</v>
       </c>
@@ -3648,7 +3656,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="19.5" customHeight="1">
+    <row r="25" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="12" t="s">
         <v>30</v>
       </c>
@@ -3671,7 +3679,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="19.5" customHeight="1">
+    <row r="26" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="12" t="s">
         <v>31</v>
       </c>
@@ -3694,7 +3702,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="19.5" customHeight="1">
+    <row r="27" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="12" t="s">
         <v>32</v>
       </c>
@@ -3717,7 +3725,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="19.5" customHeight="1">
+    <row r="28" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="12" t="s">
         <v>34</v>
       </c>
@@ -3740,7 +3748,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="19.5" customHeight="1">
+    <row r="29" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="12" t="s">
         <v>36</v>
       </c>

--- a/exposan/enviroloo/data/impact_items.xlsx
+++ b/exposan/enviroloo/data/impact_items.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TANG\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minim\OneDrive\Documents\GitHub\EXPOsan\exposan\enviroloo\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA8DA14E-5E73-40E0-B396-72D9F14FAED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A2D507C-7E50-4725-835D-46B90EB4330B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10848" yWindow="0" windowWidth="12660" windowHeight="12216" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="83">
   <si>
     <t>ID</t>
   </si>
@@ -249,17 +249,56 @@
   <si>
     <t>Plastic_copy</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElectricConnectors</t>
+  </si>
+  <si>
+    <t>ElectricCables</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Aluminum</t>
+  </si>
+  <si>
+    <t>PhotovoltaicPanel</t>
+  </si>
+  <si>
+    <t>m2</t>
+  </si>
+  <si>
+    <t>Switches</t>
+  </si>
+  <si>
+    <t>ControlUnits</t>
+  </si>
+  <si>
+    <t>ElectronicsActive</t>
+  </si>
+  <si>
+    <t>ElectronicsPassive</t>
+  </si>
+  <si>
+    <t>Transformers</t>
+  </si>
+  <si>
+    <t>Battery</t>
+  </si>
+  <si>
+    <t>LithiumBattery</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -278,7 +317,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -292,7 +331,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -302,13 +341,26 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -331,7 +383,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -361,6 +413,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -667,20 +721,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="20.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="20.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="18.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -688,7 +742,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="18.75" customHeight="1">
       <c r="A2" s="10" t="s">
         <v>55</v>
       </c>
@@ -696,7 +750,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="18.75" customHeight="1">
       <c r="A3" s="10" t="s">
         <v>57</v>
       </c>
@@ -704,7 +758,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="18.75" customHeight="1">
       <c r="A4" s="10" t="s">
         <v>58</v>
       </c>
@@ -712,7 +766,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="18.75" customHeight="1">
       <c r="A5" s="10" t="s">
         <v>59</v>
       </c>
@@ -720,7 +774,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="18.75" customHeight="1">
       <c r="A6" s="10" t="s">
         <v>60</v>
       </c>
@@ -728,7 +782,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="18.75" customHeight="1">
       <c r="A7" s="10" t="s">
         <v>68</v>
       </c>
@@ -736,7 +790,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="18.75" customHeight="1">
       <c r="A8" s="10" t="s">
         <v>61</v>
       </c>
@@ -744,7 +798,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" ht="18.75" customHeight="1">
       <c r="A9" s="12" t="s">
         <v>7</v>
       </c>
@@ -752,7 +806,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" ht="18.75" customHeight="1">
       <c r="A10" s="12" t="s">
         <v>69</v>
       </c>
@@ -760,7 +814,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" ht="18.75" customHeight="1">
       <c r="A11" s="12" t="s">
         <v>12</v>
       </c>
@@ -768,7 +822,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" ht="18.75" customHeight="1">
       <c r="A12" s="12" t="s">
         <v>14</v>
       </c>
@@ -776,7 +830,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" ht="18.75" customHeight="1">
       <c r="A13" s="12" t="s">
         <v>63</v>
       </c>
@@ -784,7 +838,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" ht="18.75" customHeight="1">
       <c r="A14" s="12" t="s">
         <v>15</v>
       </c>
@@ -792,7 +846,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" ht="18.75" customHeight="1">
       <c r="A15" s="12" t="s">
         <v>64</v>
       </c>
@@ -800,7 +854,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" ht="18.75" customHeight="1">
       <c r="A16" s="12" t="s">
         <v>65</v>
       </c>
@@ -808,7 +862,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" ht="18.75" customHeight="1">
       <c r="A17" s="12" t="s">
         <v>17</v>
       </c>
@@ -816,7 +870,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" ht="18.75" customHeight="1">
       <c r="A18" s="12" t="s">
         <v>19</v>
       </c>
@@ -824,7 +878,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" ht="18.75" customHeight="1">
       <c r="A19" s="12" t="s">
         <v>20</v>
       </c>
@@ -832,7 +886,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" ht="18.75" customHeight="1">
       <c r="A20" s="12" t="s">
         <v>22</v>
       </c>
@@ -840,7 +894,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" ht="18.75" customHeight="1">
       <c r="A21" s="12" t="s">
         <v>24</v>
       </c>
@@ -848,7 +902,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" ht="18.75" customHeight="1">
       <c r="A22" s="12" t="s">
         <v>25</v>
       </c>
@@ -856,7 +910,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" ht="18.75" customHeight="1">
       <c r="A23" s="12" t="s">
         <v>27</v>
       </c>
@@ -864,7 +918,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" ht="18.75" customHeight="1">
       <c r="A24" s="12" t="s">
         <v>29</v>
       </c>
@@ -872,7 +926,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" ht="18.75" customHeight="1">
       <c r="A25" s="12" t="s">
         <v>30</v>
       </c>
@@ -880,7 +934,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" ht="18.75" customHeight="1">
       <c r="A26" s="12" t="s">
         <v>31</v>
       </c>
@@ -888,7 +942,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" ht="18.75" customHeight="1">
       <c r="A27" s="12" t="s">
         <v>32</v>
       </c>
@@ -896,7 +950,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" ht="18.75" customHeight="1">
       <c r="A28" s="12" t="s">
         <v>34</v>
       </c>
@@ -904,11 +958,99 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" ht="18.75" customHeight="1">
       <c r="A29" s="12" t="s">
         <v>36</v>
       </c>
       <c r="B29" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="14.4">
+      <c r="A30" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="14.4">
+      <c r="A31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="14.4">
+      <c r="A32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="14.4">
+      <c r="A33" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="14.4">
+      <c r="A34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="14.4">
+      <c r="A35" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="14.4">
+      <c r="A36" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="14.4">
+      <c r="A37" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="14.4">
+      <c r="A38" t="s">
+        <v>80</v>
+      </c>
+      <c r="B38" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="14.4">
+      <c r="A39" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="14.4">
+      <c r="A40" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" t="s">
         <v>53</v>
       </c>
     </row>
@@ -923,23 +1065,23 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.7265625" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1796875" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.54296875" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.54296875" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.7265625" style="12"/>
+    <col min="1" max="1" width="26.77734375" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.5546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.5546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.77734375" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="18.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -962,7 +1104,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="18.75" customHeight="1">
       <c r="A2" s="12" t="s">
         <v>55</v>
       </c>
@@ -985,7 +1127,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="18.75" customHeight="1">
       <c r="A3" s="12" t="s">
         <v>57</v>
       </c>
@@ -1008,7 +1150,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="18.75" customHeight="1">
       <c r="A4" s="12" t="s">
         <v>58</v>
       </c>
@@ -1031,7 +1173,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="18.75" customHeight="1">
       <c r="A5" s="12" t="s">
         <v>59</v>
       </c>
@@ -1054,7 +1196,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="18.75" customHeight="1">
       <c r="A6" s="12" t="s">
         <v>60</v>
       </c>
@@ -1077,7 +1219,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="18.75" customHeight="1">
       <c r="A7" s="12" t="s">
         <v>11</v>
       </c>
@@ -1100,7 +1242,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="18.75" customHeight="1">
       <c r="A8" s="12" t="s">
         <v>61</v>
       </c>
@@ -1123,7 +1265,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="18.75" customHeight="1">
       <c r="A9" s="12" t="s">
         <v>7</v>
       </c>
@@ -1146,7 +1288,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="18.75" customHeight="1">
       <c r="A10" s="12" t="s">
         <v>69</v>
       </c>
@@ -1169,7 +1311,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="18.75" customHeight="1">
       <c r="A11" s="12" t="s">
         <v>12</v>
       </c>
@@ -1192,7 +1334,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="18.75" customHeight="1">
       <c r="A12" s="12" t="s">
         <v>14</v>
       </c>
@@ -1215,7 +1357,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="18.75" customHeight="1">
       <c r="A13" s="12" t="s">
         <v>63</v>
       </c>
@@ -1238,7 +1380,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="18.75" customHeight="1">
       <c r="A14" s="12" t="s">
         <v>15</v>
       </c>
@@ -1261,7 +1403,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="18.75" customHeight="1">
       <c r="A15" s="12" t="s">
         <v>64</v>
       </c>
@@ -1284,7 +1426,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="18.75" customHeight="1">
       <c r="A16" s="12" t="s">
         <v>65</v>
       </c>
@@ -1307,7 +1449,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="18.75" customHeight="1">
       <c r="A17" s="12" t="s">
         <v>17</v>
       </c>
@@ -1330,7 +1472,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="18.75" customHeight="1">
       <c r="A18" s="12" t="s">
         <v>19</v>
       </c>
@@ -1353,7 +1495,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="18.75" customHeight="1">
       <c r="A19" s="12" t="s">
         <v>20</v>
       </c>
@@ -1376,7 +1518,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="18.75" customHeight="1">
       <c r="A20" s="12" t="s">
         <v>22</v>
       </c>
@@ -1399,7 +1541,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="18.75" customHeight="1">
       <c r="A21" s="12" t="s">
         <v>24</v>
       </c>
@@ -1422,7 +1564,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="18.75" customHeight="1">
       <c r="A22" s="12" t="s">
         <v>25</v>
       </c>
@@ -1445,7 +1587,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="18.75" customHeight="1">
       <c r="A23" s="12" t="s">
         <v>27</v>
       </c>
@@ -1468,7 +1610,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="18.75" customHeight="1">
       <c r="A24" s="12" t="s">
         <v>29</v>
       </c>
@@ -1493,7 +1635,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="18.75" customHeight="1">
       <c r="A25" s="12" t="s">
         <v>30</v>
       </c>
@@ -1516,7 +1658,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="18.75" customHeight="1">
       <c r="A26" s="12" t="s">
         <v>31</v>
       </c>
@@ -1539,7 +1681,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="18.75" customHeight="1">
       <c r="A27" s="12" t="s">
         <v>32</v>
       </c>
@@ -1562,7 +1704,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="18.75" customHeight="1">
       <c r="A28" s="12" t="s">
         <v>34</v>
       </c>
@@ -1585,7 +1727,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" ht="18.75" customHeight="1">
       <c r="A29" s="12" t="s">
         <v>36</v>
       </c>
@@ -1606,6 +1748,277 @@
       </c>
       <c r="G29" s="12" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.6">
+      <c r="A30" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="15">
+        <v>8.8474600327818393</v>
+      </c>
+      <c r="D30" s="15">
+        <v>7.9627140295036556</v>
+      </c>
+      <c r="E30" s="15">
+        <v>9.732206036060024</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15.6">
+      <c r="A31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="15">
+        <v>4.3790218750000003</v>
+      </c>
+      <c r="D31" s="15">
+        <v>3.9411196875000005</v>
+      </c>
+      <c r="E31" s="15">
+        <v>4.8169240625000009</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15.6">
+      <c r="A32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="15">
+        <v>4.0684475872536101</v>
+      </c>
+      <c r="D32" s="15">
+        <f t="shared" ref="D32" si="0">C32*0.9</f>
+        <v>3.6616028285282494</v>
+      </c>
+      <c r="E32" s="15">
+        <f t="shared" ref="E32" si="1">C32*1.1</f>
+        <v>4.4752923459789713</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15.6">
+      <c r="A33" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="15">
+        <v>268.39624049999998</v>
+      </c>
+      <c r="D33" s="15">
+        <f>C33*0.9</f>
+        <v>241.55661644999998</v>
+      </c>
+      <c r="E33" s="15">
+        <f>C33*1.1</f>
+        <v>295.23586454999997</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15.6">
+      <c r="A34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="15">
+        <v>18.560989660000001</v>
+      </c>
+      <c r="D34" s="15">
+        <f t="shared" ref="D34:D38" si="2">C34*0.9</f>
+        <v>16.704890693999999</v>
+      </c>
+      <c r="E34" s="15">
+        <f t="shared" ref="E34:E38" si="3">C34*1.1</f>
+        <v>20.417088626000002</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15.6">
+      <c r="A35" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="15">
+        <v>26.79636172</v>
+      </c>
+      <c r="D35" s="15">
+        <f t="shared" si="2"/>
+        <v>24.116725548000002</v>
+      </c>
+      <c r="E35" s="15">
+        <f t="shared" si="3"/>
+        <v>29.475997892000002</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15.6">
+      <c r="A36" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="15">
+        <v>640.94971980000003</v>
+      </c>
+      <c r="D36" s="15">
+        <f t="shared" si="2"/>
+        <v>576.85474782000006</v>
+      </c>
+      <c r="E36" s="15">
+        <f t="shared" si="3"/>
+        <v>705.04469178000011</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15.6">
+      <c r="A37" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="15">
+        <v>64.485798299999999</v>
+      </c>
+      <c r="D37" s="15">
+        <f t="shared" si="2"/>
+        <v>58.037218469999999</v>
+      </c>
+      <c r="E37" s="15">
+        <f t="shared" si="3"/>
+        <v>70.934378129999999</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15.6">
+      <c r="A38" t="s">
+        <v>80</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="15">
+        <v>4.5353009950000001</v>
+      </c>
+      <c r="D38" s="15">
+        <f t="shared" si="2"/>
+        <v>4.0817708955000001</v>
+      </c>
+      <c r="E38" s="15">
+        <f t="shared" si="3"/>
+        <v>4.9888310945000001</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15.6">
+      <c r="A39" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="15">
+        <v>7.0524620000000002</v>
+      </c>
+      <c r="D39" s="15">
+        <f t="shared" ref="D39:D40" si="4">C39*0.9</f>
+        <v>6.3472158000000007</v>
+      </c>
+      <c r="E39" s="15">
+        <f t="shared" ref="E39:E40" si="5">C39*1.1</f>
+        <v>7.7577082000000006</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15.6">
+      <c r="A40" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="15">
+        <v>6.2828470000000003</v>
+      </c>
+      <c r="D40" s="15">
+        <f t="shared" si="4"/>
+        <v>5.6545623000000003</v>
+      </c>
+      <c r="E40" s="15">
+        <f t="shared" si="5"/>
+        <v>6.9111317000000012</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1619,23 +2032,23 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34:G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="26.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.54296875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="26.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="18.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1659,7 +2072,7 @@
       </c>
       <c r="H1" s="12"/>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1">
       <c r="A2" s="12" t="s">
         <v>55</v>
       </c>
@@ -1685,7 +2098,7 @@
       </c>
       <c r="H2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1">
       <c r="A3" s="12" t="s">
         <v>57</v>
       </c>
@@ -1711,7 +2124,7 @@
       </c>
       <c r="H3" s="12"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="18.75" customHeight="1">
       <c r="A4" s="12" t="s">
         <v>58</v>
       </c>
@@ -1737,7 +2150,7 @@
       </c>
       <c r="H4" s="12"/>
     </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="18.75" customHeight="1">
       <c r="A5" s="12" t="s">
         <v>59</v>
       </c>
@@ -1763,7 +2176,7 @@
       </c>
       <c r="H5" s="12"/>
     </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="18.75" customHeight="1">
       <c r="A6" s="12" t="s">
         <v>60</v>
       </c>
@@ -1789,7 +2202,7 @@
       </c>
       <c r="H6" s="12"/>
     </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="18.75" customHeight="1">
       <c r="A7" s="12" t="s">
         <v>11</v>
       </c>
@@ -1815,7 +2228,7 @@
       </c>
       <c r="H7" s="12"/>
     </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="18.75" customHeight="1">
       <c r="A8" s="12" t="s">
         <v>61</v>
       </c>
@@ -1841,7 +2254,7 @@
       </c>
       <c r="H8" s="12"/>
     </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="18.75" customHeight="1">
       <c r="A9" s="12" t="s">
         <v>7</v>
       </c>
@@ -1865,7 +2278,7 @@
       </c>
       <c r="H9" s="12"/>
     </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="18.75" customHeight="1">
       <c r="A10" s="12" t="s">
         <v>69</v>
       </c>
@@ -1889,7 +2302,7 @@
       </c>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="18.75" customHeight="1">
       <c r="A11" s="12" t="s">
         <v>12</v>
       </c>
@@ -1913,7 +2326,7 @@
       </c>
       <c r="H11" s="12"/>
     </row>
-    <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="18.75" customHeight="1">
       <c r="A12" s="12" t="s">
         <v>14</v>
       </c>
@@ -1937,7 +2350,7 @@
       </c>
       <c r="H12" s="12"/>
     </row>
-    <row r="13" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="18.75" customHeight="1">
       <c r="A13" s="12" t="s">
         <v>63</v>
       </c>
@@ -1961,7 +2374,7 @@
       </c>
       <c r="H13" s="12"/>
     </row>
-    <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="18.75" customHeight="1">
       <c r="A14" s="12" t="s">
         <v>15</v>
       </c>
@@ -1985,7 +2398,7 @@
       </c>
       <c r="H14" s="12"/>
     </row>
-    <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="18.75" customHeight="1">
       <c r="A15" s="12" t="s">
         <v>64</v>
       </c>
@@ -2009,7 +2422,7 @@
       </c>
       <c r="H15" s="12"/>
     </row>
-    <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="18.75" customHeight="1">
       <c r="A16" s="12" t="s">
         <v>65</v>
       </c>
@@ -2033,7 +2446,7 @@
       </c>
       <c r="H16" s="12"/>
     </row>
-    <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="18.75" customHeight="1">
       <c r="A17" s="12" t="s">
         <v>17</v>
       </c>
@@ -2057,7 +2470,7 @@
       </c>
       <c r="H17" s="12"/>
     </row>
-    <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="18.75" customHeight="1">
       <c r="A18" s="12" t="s">
         <v>19</v>
       </c>
@@ -2081,7 +2494,7 @@
       </c>
       <c r="H18" s="12"/>
     </row>
-    <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="18.75" customHeight="1">
       <c r="A19" s="12" t="s">
         <v>20</v>
       </c>
@@ -2105,7 +2518,7 @@
       </c>
       <c r="H19" s="12"/>
     </row>
-    <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="18.75" customHeight="1">
       <c r="A20" s="12" t="s">
         <v>22</v>
       </c>
@@ -2129,7 +2542,7 @@
       </c>
       <c r="H20" s="12"/>
     </row>
-    <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="18.75" customHeight="1">
       <c r="A21" s="12" t="s">
         <v>24</v>
       </c>
@@ -2153,7 +2566,7 @@
       </c>
       <c r="H21" s="12"/>
     </row>
-    <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="18.75" customHeight="1">
       <c r="A22" s="12" t="s">
         <v>25</v>
       </c>
@@ -2177,7 +2590,7 @@
       </c>
       <c r="H22" s="12"/>
     </row>
-    <row r="23" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="18.75" customHeight="1">
       <c r="A23" s="12" t="s">
         <v>27</v>
       </c>
@@ -2201,7 +2614,7 @@
       </c>
       <c r="H23" s="12"/>
     </row>
-    <row r="24" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="18.75" customHeight="1">
       <c r="A24" s="12" t="s">
         <v>29</v>
       </c>
@@ -2227,7 +2640,7 @@
       </c>
       <c r="H24" s="12"/>
     </row>
-    <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" ht="18.75" customHeight="1">
       <c r="A25" s="12" t="s">
         <v>30</v>
       </c>
@@ -2251,7 +2664,7 @@
       </c>
       <c r="H25" s="12"/>
     </row>
-    <row r="26" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" ht="18.75" customHeight="1">
       <c r="A26" s="12" t="s">
         <v>31</v>
       </c>
@@ -2275,7 +2688,7 @@
       </c>
       <c r="H26" s="12"/>
     </row>
-    <row r="27" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" ht="18.75" customHeight="1">
       <c r="A27" s="12" t="s">
         <v>32</v>
       </c>
@@ -2299,7 +2712,7 @@
       </c>
       <c r="H27" s="12"/>
     </row>
-    <row r="28" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" ht="18.75" customHeight="1">
       <c r="A28" s="12" t="s">
         <v>34</v>
       </c>
@@ -2323,7 +2736,7 @@
       </c>
       <c r="H28" s="12"/>
     </row>
-    <row r="29" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" ht="18.75" customHeight="1">
       <c r="A29" s="12" t="s">
         <v>36</v>
       </c>
@@ -2346,6 +2759,281 @@
         <v>37</v>
       </c>
       <c r="H29" s="12"/>
+    </row>
+    <row r="30" spans="1:8" ht="14.4">
+      <c r="A30" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="15">
+        <v>0.30296211312539301</v>
+      </c>
+      <c r="D30" s="15">
+        <f t="shared" ref="D30:D31" si="2">C30*0.9</f>
+        <v>0.27266590181285372</v>
+      </c>
+      <c r="E30" s="15">
+        <f t="shared" ref="E30:E31" si="3">C30*1.1</f>
+        <v>0.33325832443793235</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="14.4">
+      <c r="A31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="15">
+        <v>1.9420648277268783E-2</v>
+      </c>
+      <c r="D31" s="15">
+        <f t="shared" si="2"/>
+        <v>1.7478583449541906E-2</v>
+      </c>
+      <c r="E31" s="15">
+        <f t="shared" si="3"/>
+        <v>2.1362713104995663E-2</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="14.4">
+      <c r="A32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="15">
+        <v>7.4320484114979005E-2</v>
+      </c>
+      <c r="D32" s="15">
+        <f t="shared" ref="D32:D35" si="4">C32*0.9</f>
+        <v>6.6888435703481103E-2</v>
+      </c>
+      <c r="E32" s="15">
+        <f t="shared" ref="E32:E35" si="5">C32*1.1</f>
+        <v>8.1752532526476906E-2</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="14.4">
+      <c r="A33" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="15">
+        <v>1.1374107377821401</v>
+      </c>
+      <c r="D33" s="15">
+        <f t="shared" si="4"/>
+        <v>1.023669664003926</v>
+      </c>
+      <c r="E33" s="15">
+        <f t="shared" si="5"/>
+        <v>1.2511518115603542</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="14.4">
+      <c r="A34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="15">
+        <v>9.9859563940134302E-2</v>
+      </c>
+      <c r="D34" s="15">
+        <f t="shared" si="4"/>
+        <v>8.9873607546120879E-2</v>
+      </c>
+      <c r="E34" s="15">
+        <f t="shared" si="5"/>
+        <v>0.10984552033414774</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15.6">
+      <c r="A35" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="15">
+        <v>0.12050920688542401</v>
+      </c>
+      <c r="D35" s="15">
+        <f t="shared" si="4"/>
+        <v>0.10845828619688161</v>
+      </c>
+      <c r="E35" s="15">
+        <f t="shared" si="5"/>
+        <v>0.13256012757396643</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15.6">
+      <c r="A36" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="15">
+        <v>2.8262379633255601</v>
+      </c>
+      <c r="D36" s="15">
+        <f t="shared" ref="D36:D38" si="6">C36*0.9</f>
+        <v>2.5436141669930041</v>
+      </c>
+      <c r="E36" s="15">
+        <f t="shared" ref="E36:E38" si="7">C36*1.1</f>
+        <v>3.1088617596581165</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="14.4">
+      <c r="A37" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="15">
+        <v>0.30296211312539301</v>
+      </c>
+      <c r="D37" s="15">
+        <f t="shared" si="6"/>
+        <v>0.27266590181285372</v>
+      </c>
+      <c r="E37" s="15">
+        <f t="shared" si="7"/>
+        <v>0.33325832443793235</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="14.4">
+      <c r="A38" t="s">
+        <v>80</v>
+      </c>
+      <c r="B38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="15">
+        <v>2.1307106118144098E-2</v>
+      </c>
+      <c r="D38" s="15">
+        <f t="shared" si="6"/>
+        <v>1.9176395506329689E-2</v>
+      </c>
+      <c r="E38" s="15">
+        <f t="shared" si="7"/>
+        <v>2.3437816729958511E-2</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="14.4">
+      <c r="A39" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="15">
+        <v>2.50035291316336E-2</v>
+      </c>
+      <c r="D39" s="15">
+        <f t="shared" ref="D39:D40" si="8">C39*0.9</f>
+        <v>2.2503176218470242E-2</v>
+      </c>
+      <c r="E39" s="15">
+        <f t="shared" ref="E39:E40" si="9">C39*1.1</f>
+        <v>2.7503882044796962E-2</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15.6">
+      <c r="A40" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="15">
+        <v>2.50035291316336E-2</v>
+      </c>
+      <c r="D40" s="15">
+        <f t="shared" si="8"/>
+        <v>2.2503176218470242E-2</v>
+      </c>
+      <c r="E40" s="15">
+        <f t="shared" si="9"/>
+        <v>2.7503882044796962E-2</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" s="16" t="s">
+        <v>62</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -2358,23 +3046,23 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39:G40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="26.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.54296875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="26.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="18.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2397,7 +3085,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="18.75" customHeight="1">
       <c r="A2" s="12" t="s">
         <v>55</v>
       </c>
@@ -2422,7 +3110,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="18.75" customHeight="1">
       <c r="A3" s="12" t="s">
         <v>57</v>
       </c>
@@ -2447,7 +3135,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="18.75" customHeight="1">
       <c r="A4" s="12" t="s">
         <v>58</v>
       </c>
@@ -2472,7 +3160,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="18.75" customHeight="1">
       <c r="A5" s="12" t="s">
         <v>59</v>
       </c>
@@ -2497,7 +3185,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="18.75" customHeight="1">
       <c r="A6" s="12" t="s">
         <v>60</v>
       </c>
@@ -2522,7 +3210,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="18.75" customHeight="1">
       <c r="A7" s="12" t="s">
         <v>68</v>
       </c>
@@ -2547,7 +3235,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="18.75" customHeight="1">
       <c r="A8" s="12" t="s">
         <v>61</v>
       </c>
@@ -2572,7 +3260,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="18.75" customHeight="1">
       <c r="A9" s="12" t="s">
         <v>7</v>
       </c>
@@ -2595,7 +3283,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="18.75" customHeight="1">
       <c r="A10" s="12" t="s">
         <v>69</v>
       </c>
@@ -2618,7 +3306,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="18.75" customHeight="1">
       <c r="A11" s="12" t="s">
         <v>12</v>
       </c>
@@ -2641,7 +3329,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="18.75" customHeight="1">
       <c r="A12" s="12" t="s">
         <v>14</v>
       </c>
@@ -2664,7 +3352,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="18.75" customHeight="1">
       <c r="A13" s="12" t="s">
         <v>63</v>
       </c>
@@ -2687,7 +3375,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="18.75" customHeight="1">
       <c r="A14" s="12" t="s">
         <v>15</v>
       </c>
@@ -2710,7 +3398,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="18.75" customHeight="1">
       <c r="A15" s="12" t="s">
         <v>64</v>
       </c>
@@ -2733,7 +3421,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="18.75" customHeight="1">
       <c r="A16" s="12" t="s">
         <v>65</v>
       </c>
@@ -2756,7 +3444,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="18.75" customHeight="1">
       <c r="A17" s="12" t="s">
         <v>17</v>
       </c>
@@ -2779,7 +3467,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="18.75" customHeight="1">
       <c r="A18" s="12" t="s">
         <v>19</v>
       </c>
@@ -2804,7 +3492,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="18.75" customHeight="1">
       <c r="A19" s="12" t="s">
         <v>20</v>
       </c>
@@ -2827,7 +3515,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="18.75" customHeight="1">
       <c r="A20" s="12" t="s">
         <v>22</v>
       </c>
@@ -2850,7 +3538,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="18.75" customHeight="1">
       <c r="A21" s="12" t="s">
         <v>24</v>
       </c>
@@ -2873,7 +3561,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="18.75" customHeight="1">
       <c r="A22" s="12" t="s">
         <v>25</v>
       </c>
@@ -2896,7 +3584,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="18.75" customHeight="1">
       <c r="A23" s="12" t="s">
         <v>27</v>
       </c>
@@ -2919,7 +3607,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="18.75" customHeight="1">
       <c r="A24" s="12" t="s">
         <v>29</v>
       </c>
@@ -2944,7 +3632,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="18.75" customHeight="1">
       <c r="A25" s="12" t="s">
         <v>30</v>
       </c>
@@ -2967,7 +3655,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="18.75" customHeight="1">
       <c r="A26" s="12" t="s">
         <v>31</v>
       </c>
@@ -2990,7 +3678,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="18.75" customHeight="1">
       <c r="A27" s="12" t="s">
         <v>32</v>
       </c>
@@ -3013,7 +3701,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="18.75" customHeight="1">
       <c r="A28" s="12" t="s">
         <v>34</v>
       </c>
@@ -3036,7 +3724,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" ht="18.75" customHeight="1">
       <c r="A29" s="12" t="s">
         <v>36</v>
       </c>
@@ -3057,6 +3745,281 @@
       </c>
       <c r="G29" s="12" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="14.4">
+      <c r="A30" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="15">
+        <v>14.15675868232</v>
+      </c>
+      <c r="D30" s="15">
+        <f t="shared" ref="D30:D40" si="2">C30*0.9</f>
+        <v>12.741082814087999</v>
+      </c>
+      <c r="E30" s="15">
+        <f t="shared" ref="E30:E40" si="3">C30*1.1</f>
+        <v>15.572434550552002</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="14.4">
+      <c r="A31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="15">
+        <v>0.90748453091794867</v>
+      </c>
+      <c r="D31" s="15">
+        <f t="shared" si="2"/>
+        <v>0.81673607782615387</v>
+      </c>
+      <c r="E31" s="15">
+        <f t="shared" si="3"/>
+        <v>0.99823298400974358</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="14.4">
+      <c r="A32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="15">
+        <v>1.40205409119104</v>
+      </c>
+      <c r="D32" s="15">
+        <f t="shared" si="2"/>
+        <v>1.2618486820719359</v>
+      </c>
+      <c r="E32" s="15">
+        <f t="shared" si="3"/>
+        <v>1.542259500310144</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="14.4">
+      <c r="A33" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="15">
+        <v>19.661164093733099</v>
+      </c>
+      <c r="D33" s="15">
+        <f t="shared" si="2"/>
+        <v>17.695047684359789</v>
+      </c>
+      <c r="E33" s="15">
+        <f t="shared" si="3"/>
+        <v>21.627280503106409</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="14.4">
+      <c r="A34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="15">
+        <v>10.064333355825401</v>
+      </c>
+      <c r="D34" s="15">
+        <f t="shared" si="2"/>
+        <v>9.0579000202428617</v>
+      </c>
+      <c r="E34" s="15">
+        <f t="shared" si="3"/>
+        <v>11.070766691407941</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15.6">
+      <c r="A35" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="15">
+        <v>5.1980994597015604</v>
+      </c>
+      <c r="D35" s="15">
+        <f t="shared" si="2"/>
+        <v>4.6782895137314044</v>
+      </c>
+      <c r="E35" s="15">
+        <f t="shared" si="3"/>
+        <v>5.7179094056717172</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15.6">
+      <c r="A36" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="15">
+        <v>154.345721658065</v>
+      </c>
+      <c r="D36" s="15">
+        <f t="shared" si="2"/>
+        <v>138.91114949225852</v>
+      </c>
+      <c r="E36" s="15">
+        <f t="shared" si="3"/>
+        <v>169.78029382387152</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="14.4">
+      <c r="A37" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="15">
+        <v>14.15675868232</v>
+      </c>
+      <c r="D37" s="15">
+        <f t="shared" si="2"/>
+        <v>12.741082814087999</v>
+      </c>
+      <c r="E37" s="15">
+        <f t="shared" si="3"/>
+        <v>15.572434550552002</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="14.4">
+      <c r="A38" t="s">
+        <v>80</v>
+      </c>
+      <c r="B38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="15">
+        <v>1.7020829880008299</v>
+      </c>
+      <c r="D38" s="15">
+        <f t="shared" si="2"/>
+        <v>1.5318746892007469</v>
+      </c>
+      <c r="E38" s="15">
+        <f t="shared" si="3"/>
+        <v>1.8722912868009129</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="14.4">
+      <c r="A39" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="15">
+        <v>1.08010771409159</v>
+      </c>
+      <c r="D39" s="15">
+        <f t="shared" si="2"/>
+        <v>0.97209694268243108</v>
+      </c>
+      <c r="E39" s="15">
+        <f t="shared" si="3"/>
+        <v>1.1881184855007492</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15.6">
+      <c r="A40" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="15">
+        <v>1.08010771409159</v>
+      </c>
+      <c r="D40" s="15">
+        <f t="shared" si="2"/>
+        <v>0.97209694268243108</v>
+      </c>
+      <c r="E40" s="15">
+        <f t="shared" si="3"/>
+        <v>1.1881184855007492</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" s="16" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -3070,22 +4033,22 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39:G40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="26.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="13.54296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="26.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="13.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="18.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3108,7 +4071,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="18.75" customHeight="1">
       <c r="A2" s="12" t="s">
         <v>55</v>
       </c>
@@ -3133,7 +4096,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="18.75" customHeight="1">
       <c r="A3" s="12" t="s">
         <v>57</v>
       </c>
@@ -3158,7 +4121,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="18.75" customHeight="1">
       <c r="A4" s="12" t="s">
         <v>58</v>
       </c>
@@ -3183,7 +4146,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" ht="18.75" customHeight="1">
       <c r="A5" s="12" t="s">
         <v>59</v>
       </c>
@@ -3208,7 +4171,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" ht="18.75" customHeight="1">
       <c r="A6" s="12" t="s">
         <v>60</v>
       </c>
@@ -3233,7 +4196,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="18.75" customHeight="1">
       <c r="A7" s="12" t="s">
         <v>11</v>
       </c>
@@ -3258,7 +4221,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="18.75" customHeight="1">
       <c r="A8" s="12" t="s">
         <v>61</v>
       </c>
@@ -3283,7 +4246,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="19.5" customHeight="1">
       <c r="A9" s="12" t="s">
         <v>7</v>
       </c>
@@ -3306,7 +4269,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" ht="18.75" customHeight="1">
       <c r="A10" s="12" t="s">
         <v>69</v>
       </c>
@@ -3329,7 +4292,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" ht="18.75" customHeight="1">
       <c r="A11" s="12" t="s">
         <v>12</v>
       </c>
@@ -3352,7 +4315,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" ht="19.5" customHeight="1">
       <c r="A12" s="12" t="s">
         <v>14</v>
       </c>
@@ -3375,7 +4338,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" ht="19.5" customHeight="1">
       <c r="A13" s="12" t="s">
         <v>63</v>
       </c>
@@ -3398,7 +4361,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" ht="19.5" customHeight="1">
       <c r="A14" s="12" t="s">
         <v>15</v>
       </c>
@@ -3421,7 +4384,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" ht="19.5" customHeight="1">
       <c r="A15" s="12" t="s">
         <v>64</v>
       </c>
@@ -3444,7 +4407,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" ht="19.5" customHeight="1">
       <c r="A16" s="12" t="s">
         <v>65</v>
       </c>
@@ -3470,7 +4433,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="18.75" customHeight="1">
       <c r="A17" s="12" t="s">
         <v>17</v>
       </c>
@@ -3493,7 +4456,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="19.5" customHeight="1">
       <c r="A18" s="12" t="s">
         <v>19</v>
       </c>
@@ -3516,7 +4479,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="19.5" customHeight="1">
       <c r="A19" s="12" t="s">
         <v>20</v>
       </c>
@@ -3539,7 +4502,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="19.5" customHeight="1">
       <c r="A20" s="12" t="s">
         <v>22</v>
       </c>
@@ -3562,7 +4525,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="19.5" customHeight="1">
       <c r="A21" s="12" t="s">
         <v>24</v>
       </c>
@@ -3585,7 +4548,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="19.5" customHeight="1">
       <c r="A22" s="12" t="s">
         <v>25</v>
       </c>
@@ -3608,7 +4571,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="19.5" customHeight="1">
       <c r="A23" s="12" t="s">
         <v>27</v>
       </c>
@@ -3631,7 +4594,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="19.5" customHeight="1">
       <c r="A24" s="12" t="s">
         <v>29</v>
       </c>
@@ -3656,7 +4619,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="19.5" customHeight="1">
       <c r="A25" s="12" t="s">
         <v>30</v>
       </c>
@@ -3679,7 +4642,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="19.5" customHeight="1">
       <c r="A26" s="12" t="s">
         <v>31</v>
       </c>
@@ -3702,7 +4665,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="19.5" customHeight="1">
       <c r="A27" s="12" t="s">
         <v>32</v>
       </c>
@@ -3725,7 +4688,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="19.5" customHeight="1">
       <c r="A28" s="12" t="s">
         <v>34</v>
       </c>
@@ -3748,7 +4711,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" ht="19.5" customHeight="1">
       <c r="A29" s="12" t="s">
         <v>36</v>
       </c>
@@ -3769,6 +4732,281 @@
       </c>
       <c r="G29" s="12" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.6">
+      <c r="A30" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="15">
+        <v>8.3066274332224399</v>
+      </c>
+      <c r="D30" s="15">
+        <f t="shared" ref="D30:D40" si="2">C30*0.9</f>
+        <v>7.4759646899001959</v>
+      </c>
+      <c r="E30" s="15">
+        <f t="shared" ref="E30:E40" si="3">C30*1.1</f>
+        <v>9.1372901765446848</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="14.4">
+      <c r="A31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="15">
+        <v>0.53247611751425894</v>
+      </c>
+      <c r="D31" s="15">
+        <f t="shared" si="2"/>
+        <v>0.47922850576283305</v>
+      </c>
+      <c r="E31" s="15">
+        <f t="shared" si="3"/>
+        <v>0.58572372926568483</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15.6">
+      <c r="A32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="15">
+        <v>0.59132638892400702</v>
+      </c>
+      <c r="D32" s="15">
+        <f t="shared" si="2"/>
+        <v>0.53219375003160629</v>
+      </c>
+      <c r="E32" s="15">
+        <f t="shared" si="3"/>
+        <v>0.65045902781640774</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15.6">
+      <c r="A33" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="15">
+        <v>12.2640088136837</v>
+      </c>
+      <c r="D33" s="15">
+        <f t="shared" si="2"/>
+        <v>11.03760793231533</v>
+      </c>
+      <c r="E33" s="15">
+        <f t="shared" si="3"/>
+        <v>13.490409695052072</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15.6">
+      <c r="A34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="15">
+        <v>3.8648818235700597</v>
+      </c>
+      <c r="D34" s="15">
+        <f t="shared" si="2"/>
+        <v>3.4783936412130538</v>
+      </c>
+      <c r="E34" s="15">
+        <f t="shared" si="3"/>
+        <v>4.2513700059270656</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15.6">
+      <c r="A35" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="15">
+        <v>2.8962775801561298</v>
+      </c>
+      <c r="D35" s="15">
+        <f t="shared" si="2"/>
+        <v>2.606649822140517</v>
+      </c>
+      <c r="E35" s="15">
+        <f t="shared" si="3"/>
+        <v>3.185905338171743</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="14.4">
+      <c r="A36" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="15">
+        <v>62.577397919048998</v>
+      </c>
+      <c r="D36" s="15">
+        <f t="shared" si="2"/>
+        <v>56.319658127144102</v>
+      </c>
+      <c r="E36" s="15">
+        <f t="shared" si="3"/>
+        <v>68.835137710953902</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="14.4">
+      <c r="A37" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="15">
+        <v>8.3066274332224399</v>
+      </c>
+      <c r="D37" s="15">
+        <f t="shared" si="2"/>
+        <v>7.4759646899001959</v>
+      </c>
+      <c r="E37" s="15">
+        <f t="shared" si="3"/>
+        <v>9.1372901765446848</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15.6">
+      <c r="A38" t="s">
+        <v>80</v>
+      </c>
+      <c r="B38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="15">
+        <v>3.1480737476934801</v>
+      </c>
+      <c r="D38" s="15">
+        <f t="shared" si="2"/>
+        <v>2.8332663729241321</v>
+      </c>
+      <c r="E38" s="15">
+        <f t="shared" si="3"/>
+        <v>3.4628811224628286</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="14.4">
+      <c r="A39" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="15">
+        <v>1.1964417886707701</v>
+      </c>
+      <c r="D39" s="15">
+        <f t="shared" si="2"/>
+        <v>1.0767976098036931</v>
+      </c>
+      <c r="E39" s="15">
+        <f t="shared" si="3"/>
+        <v>1.3160859675378471</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15.6">
+      <c r="A40" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="15">
+        <v>1.1964417886707701</v>
+      </c>
+      <c r="D40" s="15">
+        <f t="shared" si="2"/>
+        <v>1.0767976098036931</v>
+      </c>
+      <c r="E40" s="15">
+        <f t="shared" si="3"/>
+        <v>1.3160859675378471</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" s="16" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/exposan/enviroloo/data/impact_items.xlsx
+++ b/exposan/enviroloo/data/impact_items.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minim\OneDrive\Documents\GitHub\EXPOsan\exposan\enviroloo\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\TANG\Documents\GitHub\EXPOsan\exposan\enviroloo\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A2D507C-7E50-4725-835D-46B90EB4330B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA9CAC6-3BDE-4B45-B887-72F1F8B8EE27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10848" yWindow="0" windowWidth="12660" windowHeight="12216" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="1" r:id="rId1"/>
@@ -294,11 +294,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -317,7 +317,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -331,7 +331,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -341,26 +341,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -383,7 +370,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -413,8 +400,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -723,18 +708,18 @@
   </sheetPr>
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:A40"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.77734375" style="2"/>
+    <col min="1" max="1" width="20.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.81640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75" customHeight="1">
+    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -742,7 +727,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18.75" customHeight="1">
+    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>55</v>
       </c>
@@ -750,7 +735,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="18.75" customHeight="1">
+    <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>57</v>
       </c>
@@ -758,7 +743,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="18.75" customHeight="1">
+    <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>58</v>
       </c>
@@ -766,7 +751,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="18.75" customHeight="1">
+    <row r="5" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
         <v>59</v>
       </c>
@@ -774,7 +759,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="18.75" customHeight="1">
+    <row r="6" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
         <v>60</v>
       </c>
@@ -782,7 +767,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="18.75" customHeight="1">
+    <row r="7" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
         <v>68</v>
       </c>
@@ -790,7 +775,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="18.75" customHeight="1">
+    <row r="8" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
         <v>61</v>
       </c>
@@ -798,7 +783,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="18.75" customHeight="1">
+    <row r="9" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
         <v>7</v>
       </c>
@@ -806,7 +791,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="18.75" customHeight="1">
+    <row r="10" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
         <v>69</v>
       </c>
@@ -814,7 +799,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="18.75" customHeight="1">
+    <row r="11" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
         <v>12</v>
       </c>
@@ -822,7 +807,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="18.75" customHeight="1">
+    <row r="12" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
         <v>14</v>
       </c>
@@ -830,7 +815,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="18.75" customHeight="1">
+    <row r="13" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
         <v>63</v>
       </c>
@@ -838,7 +823,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="18.75" customHeight="1">
+    <row r="14" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
         <v>15</v>
       </c>
@@ -846,7 +831,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="18.75" customHeight="1">
+    <row r="15" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="12" t="s">
         <v>64</v>
       </c>
@@ -854,7 +839,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="18.75" customHeight="1">
+    <row r="16" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="12" t="s">
         <v>65</v>
       </c>
@@ -862,7 +847,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="18.75" customHeight="1">
+    <row r="17" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="12" t="s">
         <v>17</v>
       </c>
@@ -870,7 +855,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="18.75" customHeight="1">
+    <row r="18" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
         <v>19</v>
       </c>
@@ -878,7 +863,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="18.75" customHeight="1">
+    <row r="19" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
         <v>20</v>
       </c>
@@ -886,7 +871,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="18.75" customHeight="1">
+    <row r="20" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
         <v>22</v>
       </c>
@@ -894,7 +879,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="18.75" customHeight="1">
+    <row r="21" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="12" t="s">
         <v>24</v>
       </c>
@@ -902,7 +887,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="18.75" customHeight="1">
+    <row r="22" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
         <v>25</v>
       </c>
@@ -910,7 +895,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="18.75" customHeight="1">
+    <row r="23" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="12" t="s">
         <v>27</v>
       </c>
@@ -918,7 +903,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="18.75" customHeight="1">
+    <row r="24" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="12" t="s">
         <v>29</v>
       </c>
@@ -926,7 +911,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="18.75" customHeight="1">
+    <row r="25" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="12" t="s">
         <v>30</v>
       </c>
@@ -934,7 +919,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="18.75" customHeight="1">
+    <row r="26" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="12" t="s">
         <v>31</v>
       </c>
@@ -942,7 +927,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="18.75" customHeight="1">
+    <row r="27" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="12" t="s">
         <v>32</v>
       </c>
@@ -950,7 +935,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="18.75" customHeight="1">
+    <row r="28" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="12" t="s">
         <v>34</v>
       </c>
@@ -958,7 +943,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="18.75" customHeight="1">
+    <row r="29" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="12" t="s">
         <v>36</v>
       </c>
@@ -966,91 +951,91 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="14.4">
-      <c r="A30" t="s">
+    <row r="30" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="14.4">
-      <c r="A31" t="s">
+    <row r="31" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="12" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="14.4">
-      <c r="A32" t="s">
+    <row r="32" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="14.4">
-      <c r="A33" t="s">
+    <row r="33" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="12" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="14.4">
-      <c r="A34" t="s">
+    <row r="34" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="14.4">
-      <c r="A35" t="s">
+    <row r="35" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="14.4">
-      <c r="A36" t="s">
+    <row r="36" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="14.4">
-      <c r="A37" t="s">
+    <row r="37" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="14.4">
-      <c r="A38" t="s">
+    <row r="38" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="14.4">
-      <c r="A39" t="s">
+    <row r="39" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="14.4">
-      <c r="A40" t="s">
+    <row r="40" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="12" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1067,21 +1052,21 @@
   </sheetPr>
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:A40"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.77734375" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.5546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.5546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.77734375" style="12"/>
+    <col min="1" max="1" width="26.81640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1796875" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.54296875" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.54296875" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.81640625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" customHeight="1">
+    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1104,7 +1089,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18.75" customHeight="1">
+    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>55</v>
       </c>
@@ -1127,7 +1112,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18.75" customHeight="1">
+    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>57</v>
       </c>
@@ -1150,7 +1135,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18.75" customHeight="1">
+    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>58</v>
       </c>
@@ -1173,7 +1158,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18.75" customHeight="1">
+    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
         <v>59</v>
       </c>
@@ -1196,7 +1181,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18.75" customHeight="1">
+    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>60</v>
       </c>
@@ -1219,7 +1204,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18.75" customHeight="1">
+    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
         <v>11</v>
       </c>
@@ -1242,7 +1227,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18.75" customHeight="1">
+    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
         <v>61</v>
       </c>
@@ -1265,7 +1250,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18.75" customHeight="1">
+    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
         <v>7</v>
       </c>
@@ -1288,7 +1273,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="18.75" customHeight="1">
+    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
         <v>69</v>
       </c>
@@ -1311,7 +1296,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18.75" customHeight="1">
+    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
         <v>12</v>
       </c>
@@ -1334,7 +1319,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="18.75" customHeight="1">
+    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
         <v>14</v>
       </c>
@@ -1357,7 +1342,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="18.75" customHeight="1">
+    <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
         <v>63</v>
       </c>
@@ -1380,7 +1365,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="18.75" customHeight="1">
+    <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
         <v>15</v>
       </c>
@@ -1403,7 +1388,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="18.75" customHeight="1">
+    <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="12" t="s">
         <v>64</v>
       </c>
@@ -1426,7 +1411,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="18.75" customHeight="1">
+    <row r="16" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="12" t="s">
         <v>65</v>
       </c>
@@ -1449,7 +1434,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="18.75" customHeight="1">
+    <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="12" t="s">
         <v>17</v>
       </c>
@@ -1472,7 +1457,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="18.75" customHeight="1">
+    <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
         <v>19</v>
       </c>
@@ -1495,7 +1480,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="18.75" customHeight="1">
+    <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
         <v>20</v>
       </c>
@@ -1518,7 +1503,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="18.75" customHeight="1">
+    <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
         <v>22</v>
       </c>
@@ -1541,7 +1526,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="18.75" customHeight="1">
+    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="12" t="s">
         <v>24</v>
       </c>
@@ -1564,7 +1549,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="18.75" customHeight="1">
+    <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
         <v>25</v>
       </c>
@@ -1587,7 +1572,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="18.75" customHeight="1">
+    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="12" t="s">
         <v>27</v>
       </c>
@@ -1610,7 +1595,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="18.75" customHeight="1">
+    <row r="24" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="12" t="s">
         <v>29</v>
       </c>
@@ -1635,7 +1620,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="18.75" customHeight="1">
+    <row r="25" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="12" t="s">
         <v>30</v>
       </c>
@@ -1658,7 +1643,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="18.75" customHeight="1">
+    <row r="26" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="12" t="s">
         <v>31</v>
       </c>
@@ -1681,7 +1666,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="18.75" customHeight="1">
+    <row r="27" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="12" t="s">
         <v>32</v>
       </c>
@@ -1704,7 +1689,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="18.75" customHeight="1">
+    <row r="28" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="12" t="s">
         <v>34</v>
       </c>
@@ -1727,7 +1712,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="18.75" customHeight="1">
+    <row r="29" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="12" t="s">
         <v>36</v>
       </c>
@@ -1750,274 +1735,274 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15.6">
-      <c r="A30" t="s">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="15">
+      <c r="C30" s="7">
         <v>8.8474600327818393</v>
       </c>
-      <c r="D30" s="15">
+      <c r="D30" s="7">
         <v>7.9627140295036556</v>
       </c>
-      <c r="E30" s="15">
+      <c r="E30" s="7">
         <v>9.732206036060024</v>
       </c>
-      <c r="F30" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="F30" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15.6">
-      <c r="A31" t="s">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="15">
+      <c r="C31" s="7">
         <v>4.3790218750000003</v>
       </c>
-      <c r="D31" s="15">
+      <c r="D31" s="7">
         <v>3.9411196875000005</v>
       </c>
-      <c r="E31" s="15">
+      <c r="E31" s="7">
         <v>4.8169240625000009</v>
       </c>
-      <c r="F31" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G31" t="s">
+      <c r="F31" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15.6">
-      <c r="A32" t="s">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="15">
+      <c r="C32" s="7">
         <v>4.0684475872536101</v>
       </c>
-      <c r="D32" s="15">
+      <c r="D32" s="7">
         <f t="shared" ref="D32" si="0">C32*0.9</f>
         <v>3.6616028285282494</v>
       </c>
-      <c r="E32" s="15">
+      <c r="E32" s="7">
         <f t="shared" ref="E32" si="1">C32*1.1</f>
         <v>4.4752923459789713</v>
       </c>
-      <c r="F32" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G32" t="s">
+      <c r="F32" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15.6">
-      <c r="A33" t="s">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="15">
+      <c r="C33" s="7">
         <v>268.39624049999998</v>
       </c>
-      <c r="D33" s="15">
+      <c r="D33" s="7">
         <f>C33*0.9</f>
         <v>241.55661644999998</v>
       </c>
-      <c r="E33" s="15">
+      <c r="E33" s="7">
         <f>C33*1.1</f>
         <v>295.23586454999997</v>
       </c>
-      <c r="F33" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G33" t="s">
+      <c r="F33" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15.6">
-      <c r="A34" t="s">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="15">
+      <c r="C34" s="7">
         <v>18.560989660000001</v>
       </c>
-      <c r="D34" s="15">
+      <c r="D34" s="7">
         <f t="shared" ref="D34:D38" si="2">C34*0.9</f>
         <v>16.704890693999999</v>
       </c>
-      <c r="E34" s="15">
+      <c r="E34" s="7">
         <f t="shared" ref="E34:E38" si="3">C34*1.1</f>
         <v>20.417088626000002</v>
       </c>
-      <c r="F34" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G34" t="s">
+      <c r="F34" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15.6">
-      <c r="A35" t="s">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="15">
+      <c r="C35" s="7">
         <v>26.79636172</v>
       </c>
-      <c r="D35" s="15">
+      <c r="D35" s="7">
         <f t="shared" si="2"/>
         <v>24.116725548000002</v>
       </c>
-      <c r="E35" s="15">
+      <c r="E35" s="7">
         <f t="shared" si="3"/>
         <v>29.475997892000002</v>
       </c>
-      <c r="F35" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G35" t="s">
+      <c r="F35" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15.6">
-      <c r="A36" t="s">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="15">
+      <c r="C36" s="7">
         <v>640.94971980000003</v>
       </c>
-      <c r="D36" s="15">
+      <c r="D36" s="7">
         <f t="shared" si="2"/>
         <v>576.85474782000006</v>
       </c>
-      <c r="E36" s="15">
+      <c r="E36" s="7">
         <f t="shared" si="3"/>
         <v>705.04469178000011</v>
       </c>
-      <c r="F36" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G36" t="s">
+      <c r="F36" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15.6">
-      <c r="A37" t="s">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="15">
+      <c r="C37" s="7">
         <v>64.485798299999999</v>
       </c>
-      <c r="D37" s="15">
+      <c r="D37" s="7">
         <f t="shared" si="2"/>
         <v>58.037218469999999</v>
       </c>
-      <c r="E37" s="15">
+      <c r="E37" s="7">
         <f t="shared" si="3"/>
         <v>70.934378129999999</v>
       </c>
-      <c r="F37" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G37" t="s">
+      <c r="F37" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15.6">
-      <c r="A38" t="s">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="15">
+      <c r="C38" s="7">
         <v>4.5353009950000001</v>
       </c>
-      <c r="D38" s="15">
+      <c r="D38" s="7">
         <f t="shared" si="2"/>
         <v>4.0817708955000001</v>
       </c>
-      <c r="E38" s="15">
+      <c r="E38" s="7">
         <f t="shared" si="3"/>
         <v>4.9888310945000001</v>
       </c>
-      <c r="F38" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G38" t="s">
+      <c r="F38" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15.6">
-      <c r="A39" t="s">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="15">
+      <c r="C39" s="7">
         <v>7.0524620000000002</v>
       </c>
-      <c r="D39" s="15">
+      <c r="D39" s="7">
         <f t="shared" ref="D39:D40" si="4">C39*0.9</f>
         <v>6.3472158000000007</v>
       </c>
-      <c r="E39" s="15">
+      <c r="E39" s="7">
         <f t="shared" ref="E39:E40" si="5">C39*1.1</f>
         <v>7.7577082000000006</v>
       </c>
-      <c r="F39" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G39" t="s">
+      <c r="F39" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15.6">
-      <c r="A40" t="s">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="15">
+      <c r="C40" s="7">
         <v>6.2828470000000003</v>
       </c>
-      <c r="D40" s="15">
+      <c r="D40" s="7">
         <f t="shared" si="4"/>
         <v>5.6545623000000003</v>
       </c>
-      <c r="E40" s="15">
+      <c r="E40" s="7">
         <f t="shared" si="5"/>
         <v>6.9111317000000012</v>
       </c>
-      <c r="F40" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G40" t="s">
+      <c r="F40" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" s="12" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2034,21 +2019,21 @@
   </sheetPr>
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34:G35"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.77734375" style="2"/>
+    <col min="1" max="1" width="26.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.54296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.81640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" customHeight="1">
+    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2072,7 +2057,7 @@
       </c>
       <c r="H1" s="12"/>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>55</v>
       </c>
@@ -2098,7 +2083,7 @@
       </c>
       <c r="H2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>57</v>
       </c>
@@ -2124,7 +2109,7 @@
       </c>
       <c r="H3" s="12"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1">
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>58</v>
       </c>
@@ -2150,7 +2135,7 @@
       </c>
       <c r="H4" s="12"/>
     </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1">
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
         <v>59</v>
       </c>
@@ -2176,7 +2161,7 @@
       </c>
       <c r="H5" s="12"/>
     </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1">
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>60</v>
       </c>
@@ -2202,7 +2187,7 @@
       </c>
       <c r="H6" s="12"/>
     </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1">
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
         <v>11</v>
       </c>
@@ -2228,7 +2213,7 @@
       </c>
       <c r="H7" s="12"/>
     </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1">
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
         <v>61</v>
       </c>
@@ -2254,7 +2239,7 @@
       </c>
       <c r="H8" s="12"/>
     </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1">
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
         <v>7</v>
       </c>
@@ -2278,7 +2263,7 @@
       </c>
       <c r="H9" s="12"/>
     </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1">
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
         <v>69</v>
       </c>
@@ -2302,7 +2287,7 @@
       </c>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="1:8" ht="18.75" customHeight="1">
+    <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
         <v>12</v>
       </c>
@@ -2326,7 +2311,7 @@
       </c>
       <c r="H11" s="12"/>
     </row>
-    <row r="12" spans="1:8" ht="18.75" customHeight="1">
+    <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
         <v>14</v>
       </c>
@@ -2350,7 +2335,7 @@
       </c>
       <c r="H12" s="12"/>
     </row>
-    <row r="13" spans="1:8" ht="18.75" customHeight="1">
+    <row r="13" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
         <v>63</v>
       </c>
@@ -2374,7 +2359,7 @@
       </c>
       <c r="H13" s="12"/>
     </row>
-    <row r="14" spans="1:8" ht="18.75" customHeight="1">
+    <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
         <v>15</v>
       </c>
@@ -2398,7 +2383,7 @@
       </c>
       <c r="H14" s="12"/>
     </row>
-    <row r="15" spans="1:8" ht="18.75" customHeight="1">
+    <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="12" t="s">
         <v>64</v>
       </c>
@@ -2422,7 +2407,7 @@
       </c>
       <c r="H15" s="12"/>
     </row>
-    <row r="16" spans="1:8" ht="18.75" customHeight="1">
+    <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="12" t="s">
         <v>65</v>
       </c>
@@ -2446,7 +2431,7 @@
       </c>
       <c r="H16" s="12"/>
     </row>
-    <row r="17" spans="1:8" ht="18.75" customHeight="1">
+    <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="12" t="s">
         <v>17</v>
       </c>
@@ -2470,7 +2455,7 @@
       </c>
       <c r="H17" s="12"/>
     </row>
-    <row r="18" spans="1:8" ht="18.75" customHeight="1">
+    <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
         <v>19</v>
       </c>
@@ -2494,7 +2479,7 @@
       </c>
       <c r="H18" s="12"/>
     </row>
-    <row r="19" spans="1:8" ht="18.75" customHeight="1">
+    <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
         <v>20</v>
       </c>
@@ -2518,7 +2503,7 @@
       </c>
       <c r="H19" s="12"/>
     </row>
-    <row r="20" spans="1:8" ht="18.75" customHeight="1">
+    <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
         <v>22</v>
       </c>
@@ -2542,7 +2527,7 @@
       </c>
       <c r="H20" s="12"/>
     </row>
-    <row r="21" spans="1:8" ht="18.75" customHeight="1">
+    <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="12" t="s">
         <v>24</v>
       </c>
@@ -2566,7 +2551,7 @@
       </c>
       <c r="H21" s="12"/>
     </row>
-    <row r="22" spans="1:8" ht="18.75" customHeight="1">
+    <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
         <v>25</v>
       </c>
@@ -2590,7 +2575,7 @@
       </c>
       <c r="H22" s="12"/>
     </row>
-    <row r="23" spans="1:8" ht="18.75" customHeight="1">
+    <row r="23" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="12" t="s">
         <v>27</v>
       </c>
@@ -2614,7 +2599,7 @@
       </c>
       <c r="H23" s="12"/>
     </row>
-    <row r="24" spans="1:8" ht="18.75" customHeight="1">
+    <row r="24" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="12" t="s">
         <v>29</v>
       </c>
@@ -2640,7 +2625,7 @@
       </c>
       <c r="H24" s="12"/>
     </row>
-    <row r="25" spans="1:8" ht="18.75" customHeight="1">
+    <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="12" t="s">
         <v>30</v>
       </c>
@@ -2664,7 +2649,7 @@
       </c>
       <c r="H25" s="12"/>
     </row>
-    <row r="26" spans="1:8" ht="18.75" customHeight="1">
+    <row r="26" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="12" t="s">
         <v>31</v>
       </c>
@@ -2688,7 +2673,7 @@
       </c>
       <c r="H26" s="12"/>
     </row>
-    <row r="27" spans="1:8" ht="18.75" customHeight="1">
+    <row r="27" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="12" t="s">
         <v>32</v>
       </c>
@@ -2712,7 +2697,7 @@
       </c>
       <c r="H27" s="12"/>
     </row>
-    <row r="28" spans="1:8" ht="18.75" customHeight="1">
+    <row r="28" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="12" t="s">
         <v>34</v>
       </c>
@@ -2736,7 +2721,7 @@
       </c>
       <c r="H28" s="12"/>
     </row>
-    <row r="29" spans="1:8" ht="18.75" customHeight="1">
+    <row r="29" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="12" t="s">
         <v>36</v>
       </c>
@@ -2760,278 +2745,278 @@
       </c>
       <c r="H29" s="12"/>
     </row>
-    <row r="30" spans="1:8" ht="14.4">
-      <c r="A30" t="s">
+    <row r="30" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B30" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="15">
+      <c r="B30" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="7">
         <v>0.30296211312539301</v>
       </c>
-      <c r="D30" s="15">
+      <c r="D30" s="7">
         <f t="shared" ref="D30:D31" si="2">C30*0.9</f>
         <v>0.27266590181285372</v>
       </c>
-      <c r="E30" s="15">
+      <c r="E30" s="7">
         <f t="shared" ref="E30:E31" si="3">C30*1.1</f>
         <v>0.33325832443793235</v>
       </c>
-      <c r="F30" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="F30" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="14.4">
-      <c r="A31" t="s">
+    <row r="31" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B31" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="15">
+      <c r="B31" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="7">
         <v>1.9420648277268783E-2</v>
       </c>
-      <c r="D31" s="15">
+      <c r="D31" s="7">
         <f t="shared" si="2"/>
         <v>1.7478583449541906E-2</v>
       </c>
-      <c r="E31" s="15">
+      <c r="E31" s="7">
         <f t="shared" si="3"/>
         <v>2.1362713104995663E-2</v>
       </c>
-      <c r="F31" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G31" t="s">
+      <c r="F31" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="14.4">
-      <c r="A32" t="s">
+    <row r="32" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="B32" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="15">
+      <c r="B32" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="7">
         <v>7.4320484114979005E-2</v>
       </c>
-      <c r="D32" s="15">
+      <c r="D32" s="7">
         <f t="shared" ref="D32:D35" si="4">C32*0.9</f>
         <v>6.6888435703481103E-2</v>
       </c>
-      <c r="E32" s="15">
+      <c r="E32" s="7">
         <f t="shared" ref="E32:E35" si="5">C32*1.1</f>
         <v>8.1752532526476906E-2</v>
       </c>
-      <c r="F32" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G32" t="s">
+      <c r="F32" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="14.4">
-      <c r="A33" t="s">
+    <row r="33" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="B33" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="15">
+      <c r="B33" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="7">
         <v>1.1374107377821401</v>
       </c>
-      <c r="D33" s="15">
+      <c r="D33" s="7">
         <f t="shared" si="4"/>
         <v>1.023669664003926</v>
       </c>
-      <c r="E33" s="15">
+      <c r="E33" s="7">
         <f t="shared" si="5"/>
         <v>1.2511518115603542</v>
       </c>
-      <c r="F33" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G33" t="s">
+      <c r="F33" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="14.4">
-      <c r="A34" t="s">
+    <row r="34" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="15">
+      <c r="B34" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="7">
         <v>9.9859563940134302E-2</v>
       </c>
-      <c r="D34" s="15">
+      <c r="D34" s="7">
         <f t="shared" si="4"/>
         <v>8.9873607546120879E-2</v>
       </c>
-      <c r="E34" s="15">
+      <c r="E34" s="7">
         <f t="shared" si="5"/>
         <v>0.10984552033414774</v>
       </c>
-      <c r="F34" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G34" t="s">
+      <c r="F34" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15.6">
-      <c r="A35" t="s">
+    <row r="35" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="15">
+      <c r="B35" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="7">
         <v>0.12050920688542401</v>
       </c>
-      <c r="D35" s="15">
+      <c r="D35" s="7">
         <f t="shared" si="4"/>
         <v>0.10845828619688161</v>
       </c>
-      <c r="E35" s="15">
+      <c r="E35" s="7">
         <f t="shared" si="5"/>
         <v>0.13256012757396643</v>
       </c>
-      <c r="F35" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G35" s="16" t="s">
+      <c r="F35" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15.6">
-      <c r="A36" t="s">
+    <row r="36" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B36" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="15">
+      <c r="B36" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="7">
         <v>2.8262379633255601</v>
       </c>
-      <c r="D36" s="15">
+      <c r="D36" s="7">
         <f t="shared" ref="D36:D38" si="6">C36*0.9</f>
         <v>2.5436141669930041</v>
       </c>
-      <c r="E36" s="15">
+      <c r="E36" s="7">
         <f t="shared" ref="E36:E38" si="7">C36*1.1</f>
         <v>3.1088617596581165</v>
       </c>
-      <c r="F36" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G36" s="16" t="s">
+      <c r="F36" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="14.4">
-      <c r="A37" t="s">
+    <row r="37" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="B37" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" s="15">
+      <c r="B37" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="7">
         <v>0.30296211312539301</v>
       </c>
-      <c r="D37" s="15">
+      <c r="D37" s="7">
         <f t="shared" si="6"/>
         <v>0.27266590181285372</v>
       </c>
-      <c r="E37" s="15">
+      <c r="E37" s="7">
         <f t="shared" si="7"/>
         <v>0.33325832443793235</v>
       </c>
-      <c r="F37" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G37" t="s">
+      <c r="F37" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="14.4">
-      <c r="A38" t="s">
+    <row r="38" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="B38" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="15">
+      <c r="B38" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="7">
         <v>2.1307106118144098E-2</v>
       </c>
-      <c r="D38" s="15">
+      <c r="D38" s="7">
         <f t="shared" si="6"/>
         <v>1.9176395506329689E-2</v>
       </c>
-      <c r="E38" s="15">
+      <c r="E38" s="7">
         <f t="shared" si="7"/>
         <v>2.3437816729958511E-2</v>
       </c>
-      <c r="F38" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G38" t="s">
+      <c r="F38" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="14.4">
-      <c r="A39" t="s">
+    <row r="39" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="B39" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="15">
+      <c r="B39" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="7">
         <v>2.50035291316336E-2</v>
       </c>
-      <c r="D39" s="15">
+      <c r="D39" s="7">
         <f t="shared" ref="D39:D40" si="8">C39*0.9</f>
         <v>2.2503176218470242E-2</v>
       </c>
-      <c r="E39" s="15">
+      <c r="E39" s="7">
         <f t="shared" ref="E39:E40" si="9">C39*1.1</f>
         <v>2.7503882044796962E-2</v>
       </c>
-      <c r="F39" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G39" t="s">
+      <c r="F39" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15.6">
-      <c r="A40" t="s">
+    <row r="40" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="B40" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="15">
+      <c r="B40" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="7">
         <v>2.50035291316336E-2</v>
       </c>
-      <c r="D40" s="15">
+      <c r="D40" s="7">
         <f t="shared" si="8"/>
         <v>2.2503176218470242E-2</v>
       </c>
-      <c r="E40" s="15">
+      <c r="E40" s="7">
         <f t="shared" si="9"/>
         <v>2.7503882044796962E-2</v>
       </c>
-      <c r="F40" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G40" s="16" t="s">
+      <c r="F40" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" s="12" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3048,21 +3033,21 @@
   </sheetPr>
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39:G40"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.77734375" style="2"/>
+    <col min="1" max="1" width="26.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.54296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.81640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" customHeight="1">
+    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3085,7 +3070,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18.75" customHeight="1">
+    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>55</v>
       </c>
@@ -3110,7 +3095,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18.75" customHeight="1">
+    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>57</v>
       </c>
@@ -3135,7 +3120,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18.75" customHeight="1">
+    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>58</v>
       </c>
@@ -3160,7 +3145,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18.75" customHeight="1">
+    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
         <v>59</v>
       </c>
@@ -3185,7 +3170,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18.75" customHeight="1">
+    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>60</v>
       </c>
@@ -3210,7 +3195,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18.75" customHeight="1">
+    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
         <v>68</v>
       </c>
@@ -3235,7 +3220,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18.75" customHeight="1">
+    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
         <v>61</v>
       </c>
@@ -3260,7 +3245,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18.75" customHeight="1">
+    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
         <v>7</v>
       </c>
@@ -3283,7 +3268,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="18.75" customHeight="1">
+    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
         <v>69</v>
       </c>
@@ -3306,7 +3291,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18.75" customHeight="1">
+    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
         <v>12</v>
       </c>
@@ -3329,7 +3314,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="18.75" customHeight="1">
+    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
         <v>14</v>
       </c>
@@ -3352,7 +3337,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="18.75" customHeight="1">
+    <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
         <v>63</v>
       </c>
@@ -3375,7 +3360,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="18.75" customHeight="1">
+    <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
         <v>15</v>
       </c>
@@ -3398,7 +3383,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="18.75" customHeight="1">
+    <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="12" t="s">
         <v>64</v>
       </c>
@@ -3421,7 +3406,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="18.75" customHeight="1">
+    <row r="16" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="12" t="s">
         <v>65</v>
       </c>
@@ -3444,7 +3429,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="18.75" customHeight="1">
+    <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="12" t="s">
         <v>17</v>
       </c>
@@ -3467,7 +3452,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="18.75" customHeight="1">
+    <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
         <v>19</v>
       </c>
@@ -3492,7 +3477,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="18.75" customHeight="1">
+    <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
         <v>20</v>
       </c>
@@ -3515,7 +3500,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="18.75" customHeight="1">
+    <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
         <v>22</v>
       </c>
@@ -3538,7 +3523,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="18.75" customHeight="1">
+    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="12" t="s">
         <v>24</v>
       </c>
@@ -3561,7 +3546,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="18.75" customHeight="1">
+    <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
         <v>25</v>
       </c>
@@ -3584,7 +3569,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="18.75" customHeight="1">
+    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="12" t="s">
         <v>27</v>
       </c>
@@ -3607,7 +3592,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="18.75" customHeight="1">
+    <row r="24" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="12" t="s">
         <v>29</v>
       </c>
@@ -3632,7 +3617,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="18.75" customHeight="1">
+    <row r="25" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="12" t="s">
         <v>30</v>
       </c>
@@ -3655,7 +3640,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="18.75" customHeight="1">
+    <row r="26" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="12" t="s">
         <v>31</v>
       </c>
@@ -3678,7 +3663,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="18.75" customHeight="1">
+    <row r="27" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="12" t="s">
         <v>32</v>
       </c>
@@ -3701,7 +3686,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="18.75" customHeight="1">
+    <row r="28" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="12" t="s">
         <v>34</v>
       </c>
@@ -3724,7 +3709,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="18.75" customHeight="1">
+    <row r="29" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="12" t="s">
         <v>36</v>
       </c>
@@ -3747,278 +3732,278 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="14.4">
-      <c r="A30" t="s">
+    <row r="30" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B30" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="15">
+      <c r="B30" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="7">
         <v>14.15675868232</v>
       </c>
-      <c r="D30" s="15">
+      <c r="D30" s="7">
         <f t="shared" ref="D30:D40" si="2">C30*0.9</f>
         <v>12.741082814087999</v>
       </c>
-      <c r="E30" s="15">
+      <c r="E30" s="7">
         <f t="shared" ref="E30:E40" si="3">C30*1.1</f>
         <v>15.572434550552002</v>
       </c>
-      <c r="F30" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="F30" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="14.4">
-      <c r="A31" t="s">
+    <row r="31" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B31" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="15">
+      <c r="B31" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="7">
         <v>0.90748453091794867</v>
       </c>
-      <c r="D31" s="15">
+      <c r="D31" s="7">
         <f t="shared" si="2"/>
         <v>0.81673607782615387</v>
       </c>
-      <c r="E31" s="15">
+      <c r="E31" s="7">
         <f t="shared" si="3"/>
         <v>0.99823298400974358</v>
       </c>
-      <c r="F31" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G31" t="s">
+      <c r="F31" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="14.4">
-      <c r="A32" t="s">
+    <row r="32" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="B32" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="15">
+      <c r="B32" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="7">
         <v>1.40205409119104</v>
       </c>
-      <c r="D32" s="15">
+      <c r="D32" s="7">
         <f t="shared" si="2"/>
         <v>1.2618486820719359</v>
       </c>
-      <c r="E32" s="15">
+      <c r="E32" s="7">
         <f t="shared" si="3"/>
         <v>1.542259500310144</v>
       </c>
-      <c r="F32" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G32" t="s">
+      <c r="F32" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="14.4">
-      <c r="A33" t="s">
+    <row r="33" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="B33" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="15">
+      <c r="B33" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="7">
         <v>19.661164093733099</v>
       </c>
-      <c r="D33" s="15">
+      <c r="D33" s="7">
         <f t="shared" si="2"/>
         <v>17.695047684359789</v>
       </c>
-      <c r="E33" s="15">
+      <c r="E33" s="7">
         <f t="shared" si="3"/>
         <v>21.627280503106409</v>
       </c>
-      <c r="F33" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G33" t="s">
+      <c r="F33" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="14.4">
-      <c r="A34" t="s">
+    <row r="34" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="15">
+      <c r="B34" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="7">
         <v>10.064333355825401</v>
       </c>
-      <c r="D34" s="15">
+      <c r="D34" s="7">
         <f t="shared" si="2"/>
         <v>9.0579000202428617</v>
       </c>
-      <c r="E34" s="15">
+      <c r="E34" s="7">
         <f t="shared" si="3"/>
         <v>11.070766691407941</v>
       </c>
-      <c r="F34" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G34" t="s">
+      <c r="F34" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15.6">
-      <c r="A35" t="s">
+    <row r="35" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="15">
+      <c r="B35" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="7">
         <v>5.1980994597015604</v>
       </c>
-      <c r="D35" s="15">
+      <c r="D35" s="7">
         <f t="shared" si="2"/>
         <v>4.6782895137314044</v>
       </c>
-      <c r="E35" s="15">
+      <c r="E35" s="7">
         <f t="shared" si="3"/>
         <v>5.7179094056717172</v>
       </c>
-      <c r="F35" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G35" s="16" t="s">
+      <c r="F35" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15.6">
-      <c r="A36" t="s">
+    <row r="36" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B36" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="15">
+      <c r="B36" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="7">
         <v>154.345721658065</v>
       </c>
-      <c r="D36" s="15">
+      <c r="D36" s="7">
         <f t="shared" si="2"/>
         <v>138.91114949225852</v>
       </c>
-      <c r="E36" s="15">
+      <c r="E36" s="7">
         <f t="shared" si="3"/>
         <v>169.78029382387152</v>
       </c>
-      <c r="F36" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G36" s="16" t="s">
+      <c r="F36" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="14.4">
-      <c r="A37" t="s">
+    <row r="37" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="B37" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" s="15">
+      <c r="B37" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="7">
         <v>14.15675868232</v>
       </c>
-      <c r="D37" s="15">
+      <c r="D37" s="7">
         <f t="shared" si="2"/>
         <v>12.741082814087999</v>
       </c>
-      <c r="E37" s="15">
+      <c r="E37" s="7">
         <f t="shared" si="3"/>
         <v>15.572434550552002</v>
       </c>
-      <c r="F37" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G37" t="s">
+      <c r="F37" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="14.4">
-      <c r="A38" t="s">
+    <row r="38" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="B38" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="15">
+      <c r="B38" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="7">
         <v>1.7020829880008299</v>
       </c>
-      <c r="D38" s="15">
+      <c r="D38" s="7">
         <f t="shared" si="2"/>
         <v>1.5318746892007469</v>
       </c>
-      <c r="E38" s="15">
+      <c r="E38" s="7">
         <f t="shared" si="3"/>
         <v>1.8722912868009129</v>
       </c>
-      <c r="F38" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G38" t="s">
+      <c r="F38" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="14.4">
-      <c r="A39" t="s">
+    <row r="39" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="B39" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="15">
+      <c r="B39" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="7">
         <v>1.08010771409159</v>
       </c>
-      <c r="D39" s="15">
+      <c r="D39" s="7">
         <f t="shared" si="2"/>
         <v>0.97209694268243108</v>
       </c>
-      <c r="E39" s="15">
+      <c r="E39" s="7">
         <f t="shared" si="3"/>
         <v>1.1881184855007492</v>
       </c>
-      <c r="F39" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G39" t="s">
+      <c r="F39" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15.6">
-      <c r="A40" t="s">
+    <row r="40" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="B40" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="15">
+      <c r="B40" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="7">
         <v>1.08010771409159</v>
       </c>
-      <c r="D40" s="15">
+      <c r="D40" s="7">
         <f t="shared" si="2"/>
         <v>0.97209694268243108</v>
       </c>
-      <c r="E40" s="15">
+      <c r="E40" s="7">
         <f t="shared" si="3"/>
         <v>1.1881184855007492</v>
       </c>
-      <c r="F40" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G40" s="16" t="s">
+      <c r="F40" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" s="12" t="s">
         <v>62</v>
       </c>
     </row>
@@ -4035,20 +4020,20 @@
   </sheetPr>
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39:G40"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="13.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.77734375" style="2"/>
+    <col min="1" max="1" width="26.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="13.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.81640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18.75" customHeight="1">
+    <row r="1" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4071,7 +4056,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="18.75" customHeight="1">
+    <row r="2" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>55</v>
       </c>
@@ -4096,7 +4081,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="18.75" customHeight="1">
+    <row r="3" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>57</v>
       </c>
@@ -4121,7 +4106,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="18.75" customHeight="1">
+    <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>58</v>
       </c>
@@ -4146,7 +4131,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="18.75" customHeight="1">
+    <row r="5" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
         <v>59</v>
       </c>
@@ -4171,7 +4156,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="18.75" customHeight="1">
+    <row r="6" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>60</v>
       </c>
@@ -4196,7 +4181,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="18.75" customHeight="1">
+    <row r="7" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
         <v>11</v>
       </c>
@@ -4221,7 +4206,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="18.75" customHeight="1">
+    <row r="8" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
         <v>61</v>
       </c>
@@ -4246,7 +4231,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="19.5" customHeight="1">
+    <row r="9" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
         <v>7</v>
       </c>
@@ -4269,7 +4254,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="18.75" customHeight="1">
+    <row r="10" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
         <v>69</v>
       </c>
@@ -4292,7 +4277,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="18.75" customHeight="1">
+    <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
         <v>12</v>
       </c>
@@ -4315,7 +4300,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="19.5" customHeight="1">
+    <row r="12" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
         <v>14</v>
       </c>
@@ -4338,7 +4323,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="19.5" customHeight="1">
+    <row r="13" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
         <v>63</v>
       </c>
@@ -4361,7 +4346,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="19.5" customHeight="1">
+    <row r="14" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
         <v>15</v>
       </c>
@@ -4384,7 +4369,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="19.5" customHeight="1">
+    <row r="15" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="12" t="s">
         <v>64</v>
       </c>
@@ -4407,7 +4392,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="19.5" customHeight="1">
+    <row r="16" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="12" t="s">
         <v>65</v>
       </c>
@@ -4433,7 +4418,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="18.75" customHeight="1">
+    <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="12" t="s">
         <v>17</v>
       </c>
@@ -4456,7 +4441,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="19.5" customHeight="1">
+    <row r="18" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
         <v>19</v>
       </c>
@@ -4479,7 +4464,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="19.5" customHeight="1">
+    <row r="19" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
         <v>20</v>
       </c>
@@ -4502,7 +4487,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="19.5" customHeight="1">
+    <row r="20" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
         <v>22</v>
       </c>
@@ -4525,7 +4510,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="19.5" customHeight="1">
+    <row r="21" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="12" t="s">
         <v>24</v>
       </c>
@@ -4548,7 +4533,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="19.5" customHeight="1">
+    <row r="22" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
         <v>25</v>
       </c>
@@ -4571,7 +4556,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="19.5" customHeight="1">
+    <row r="23" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="12" t="s">
         <v>27</v>
       </c>
@@ -4594,7 +4579,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="19.5" customHeight="1">
+    <row r="24" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="12" t="s">
         <v>29</v>
       </c>
@@ -4619,7 +4604,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="19.5" customHeight="1">
+    <row r="25" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="12" t="s">
         <v>30</v>
       </c>
@@ -4642,7 +4627,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="19.5" customHeight="1">
+    <row r="26" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="12" t="s">
         <v>31</v>
       </c>
@@ -4665,7 +4650,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="19.5" customHeight="1">
+    <row r="27" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="12" t="s">
         <v>32</v>
       </c>
@@ -4688,7 +4673,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="19.5" customHeight="1">
+    <row r="28" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="12" t="s">
         <v>34</v>
       </c>
@@ -4711,7 +4696,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="19.5" customHeight="1">
+    <row r="29" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="12" t="s">
         <v>36</v>
       </c>
@@ -4734,278 +4719,278 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15.6">
-      <c r="A30" t="s">
+    <row r="30" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B30" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="15">
+      <c r="B30" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="7">
         <v>8.3066274332224399</v>
       </c>
-      <c r="D30" s="15">
+      <c r="D30" s="7">
         <f t="shared" ref="D30:D40" si="2">C30*0.9</f>
         <v>7.4759646899001959</v>
       </c>
-      <c r="E30" s="15">
+      <c r="E30" s="7">
         <f t="shared" ref="E30:E40" si="3">C30*1.1</f>
         <v>9.1372901765446848</v>
       </c>
-      <c r="F30" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G30" s="16" t="s">
+      <c r="F30" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="14.4">
-      <c r="A31" t="s">
+    <row r="31" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B31" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="15">
+      <c r="B31" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="7">
         <v>0.53247611751425894</v>
       </c>
-      <c r="D31" s="15">
+      <c r="D31" s="7">
         <f t="shared" si="2"/>
         <v>0.47922850576283305</v>
       </c>
-      <c r="E31" s="15">
+      <c r="E31" s="7">
         <f t="shared" si="3"/>
         <v>0.58572372926568483</v>
       </c>
-      <c r="F31" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G31" t="s">
+      <c r="F31" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15.6">
-      <c r="A32" t="s">
+    <row r="32" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="B32" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="15">
+      <c r="B32" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="7">
         <v>0.59132638892400702</v>
       </c>
-      <c r="D32" s="15">
+      <c r="D32" s="7">
         <f t="shared" si="2"/>
         <v>0.53219375003160629</v>
       </c>
-      <c r="E32" s="15">
+      <c r="E32" s="7">
         <f t="shared" si="3"/>
         <v>0.65045902781640774</v>
       </c>
-      <c r="F32" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G32" s="16" t="s">
+      <c r="F32" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15.6">
-      <c r="A33" t="s">
+    <row r="33" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="B33" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="15">
+      <c r="B33" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="7">
         <v>12.2640088136837</v>
       </c>
-      <c r="D33" s="15">
+      <c r="D33" s="7">
         <f t="shared" si="2"/>
         <v>11.03760793231533</v>
       </c>
-      <c r="E33" s="15">
+      <c r="E33" s="7">
         <f t="shared" si="3"/>
         <v>13.490409695052072</v>
       </c>
-      <c r="F33" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G33" s="16" t="s">
+      <c r="F33" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15.6">
-      <c r="A34" t="s">
+    <row r="34" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="15">
+      <c r="B34" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="7">
         <v>3.8648818235700597</v>
       </c>
-      <c r="D34" s="15">
+      <c r="D34" s="7">
         <f t="shared" si="2"/>
         <v>3.4783936412130538</v>
       </c>
-      <c r="E34" s="15">
+      <c r="E34" s="7">
         <f t="shared" si="3"/>
         <v>4.2513700059270656</v>
       </c>
-      <c r="F34" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G34" s="16" t="s">
+      <c r="F34" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15.6">
-      <c r="A35" t="s">
+    <row r="35" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="15">
+      <c r="B35" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="7">
         <v>2.8962775801561298</v>
       </c>
-      <c r="D35" s="15">
+      <c r="D35" s="7">
         <f t="shared" si="2"/>
         <v>2.606649822140517</v>
       </c>
-      <c r="E35" s="15">
+      <c r="E35" s="7">
         <f t="shared" si="3"/>
         <v>3.185905338171743</v>
       </c>
-      <c r="F35" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G35" s="16" t="s">
+      <c r="F35" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="14.4">
-      <c r="A36" t="s">
+    <row r="36" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B36" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="15">
+      <c r="B36" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="7">
         <v>62.577397919048998</v>
       </c>
-      <c r="D36" s="15">
+      <c r="D36" s="7">
         <f t="shared" si="2"/>
         <v>56.319658127144102</v>
       </c>
-      <c r="E36" s="15">
+      <c r="E36" s="7">
         <f t="shared" si="3"/>
         <v>68.835137710953902</v>
       </c>
-      <c r="F36" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G36" t="s">
+      <c r="F36" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="14.4">
-      <c r="A37" t="s">
+    <row r="37" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="B37" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" s="15">
+      <c r="B37" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="7">
         <v>8.3066274332224399</v>
       </c>
-      <c r="D37" s="15">
+      <c r="D37" s="7">
         <f t="shared" si="2"/>
         <v>7.4759646899001959</v>
       </c>
-      <c r="E37" s="15">
+      <c r="E37" s="7">
         <f t="shared" si="3"/>
         <v>9.1372901765446848</v>
       </c>
-      <c r="F37" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G37" t="s">
+      <c r="F37" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15.6">
-      <c r="A38" t="s">
+    <row r="38" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="B38" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="15">
+      <c r="B38" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="7">
         <v>3.1480737476934801</v>
       </c>
-      <c r="D38" s="15">
+      <c r="D38" s="7">
         <f t="shared" si="2"/>
         <v>2.8332663729241321</v>
       </c>
-      <c r="E38" s="15">
+      <c r="E38" s="7">
         <f t="shared" si="3"/>
         <v>3.4628811224628286</v>
       </c>
-      <c r="F38" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G38" s="16" t="s">
+      <c r="F38" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="14.4">
-      <c r="A39" t="s">
+    <row r="39" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="B39" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="15">
+      <c r="B39" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="7">
         <v>1.1964417886707701</v>
       </c>
-      <c r="D39" s="15">
+      <c r="D39" s="7">
         <f t="shared" si="2"/>
         <v>1.0767976098036931</v>
       </c>
-      <c r="E39" s="15">
+      <c r="E39" s="7">
         <f t="shared" si="3"/>
         <v>1.3160859675378471</v>
       </c>
-      <c r="F39" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G39" t="s">
+      <c r="F39" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15.6">
-      <c r="A40" t="s">
+    <row r="40" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="B40" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="15">
+      <c r="B40" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="7">
         <v>1.1964417886707701</v>
       </c>
-      <c r="D40" s="15">
+      <c r="D40" s="7">
         <f t="shared" si="2"/>
         <v>1.0767976098036931</v>
       </c>
-      <c r="E40" s="15">
+      <c r="E40" s="7">
         <f t="shared" si="3"/>
         <v>1.3160859675378471</v>
       </c>
-      <c r="F40" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G40" s="16" t="s">
+      <c r="F40" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" s="12" t="s">
         <v>62</v>
       </c>
     </row>

--- a/exposan/enviroloo/data/impact_items.xlsx
+++ b/exposan/enviroloo/data/impact_items.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\TANG\Documents\GitHub\EXPOsan\exposan\enviroloo\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rishabhpuri/Documents/Github/EXPOsan/exposan/enviroloo/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA9CAC6-3BDE-4B45-B887-72F1F8B8EE27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C399C7-8782-4348-976E-DF237632B355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="84">
   <si>
     <t>ID</t>
   </si>
@@ -288,6 +288,9 @@
   </si>
   <si>
     <t>LithiumBattery</t>
+  </si>
+  <si>
+    <t>GridElectricity</t>
   </si>
 </sst>
 </file>
@@ -298,7 +301,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -317,7 +320,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -331,7 +334,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -706,20 +709,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.81640625" style="2"/>
+    <col min="1" max="1" width="20.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -727,7 +730,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>55</v>
       </c>
@@ -735,7 +738,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>57</v>
       </c>
@@ -743,7 +746,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>58</v>
       </c>
@@ -751,7 +754,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>59</v>
       </c>
@@ -759,7 +762,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>60</v>
       </c>
@@ -767,7 +770,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>68</v>
       </c>
@@ -775,7 +778,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>61</v>
       </c>
@@ -783,7 +786,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
         <v>7</v>
       </c>
@@ -791,7 +794,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>69</v>
       </c>
@@ -799,7 +802,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>12</v>
       </c>
@@ -807,7 +810,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>14</v>
       </c>
@@ -815,7 +818,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>63</v>
       </c>
@@ -823,7 +826,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>15</v>
       </c>
@@ -831,7 +834,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>64</v>
       </c>
@@ -839,7 +842,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
         <v>65</v>
       </c>
@@ -847,7 +850,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
         <v>17</v>
       </c>
@@ -855,7 +858,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
         <v>19</v>
       </c>
@@ -863,7 +866,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
         <v>20</v>
       </c>
@@ -871,7 +874,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
         <v>22</v>
       </c>
@@ -879,7 +882,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
         <v>24</v>
       </c>
@@ -887,7 +890,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
         <v>25</v>
       </c>
@@ -895,7 +898,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
         <v>27</v>
       </c>
@@ -903,7 +906,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
         <v>29</v>
       </c>
@@ -911,7 +914,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
         <v>30</v>
       </c>
@@ -919,7 +922,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
         <v>31</v>
       </c>
@@ -927,7 +930,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
         <v>32</v>
       </c>
@@ -935,7 +938,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
         <v>34</v>
       </c>
@@ -943,7 +946,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
         <v>36</v>
       </c>
@@ -951,7 +954,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
         <v>70</v>
       </c>
@@ -959,7 +962,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
         <v>71</v>
       </c>
@@ -967,7 +970,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
         <v>73</v>
       </c>
@@ -975,7 +978,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
         <v>74</v>
       </c>
@@ -983,7 +986,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="12" t="s">
         <v>76</v>
       </c>
@@ -991,7 +994,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="12" t="s">
         <v>77</v>
       </c>
@@ -999,7 +1002,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
         <v>78</v>
       </c>
@@ -1007,7 +1010,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="12" t="s">
         <v>79</v>
       </c>
@@ -1015,7 +1018,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
         <v>80</v>
       </c>
@@ -1023,7 +1026,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
         <v>81</v>
       </c>
@@ -1031,11 +1034,19 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="12" t="s">
         <v>82</v>
       </c>
       <c r="B40" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" s="12" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1050,23 +1061,23 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.81640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1796875" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.54296875" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.54296875" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.81640625" style="12"/>
+    <col min="1" max="1" width="26.83203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5" style="12" customWidth="1"/>
+    <col min="3" max="3" width="13.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1089,7 +1100,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>55</v>
       </c>
@@ -1112,7 +1123,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>57</v>
       </c>
@@ -1135,7 +1146,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>58</v>
       </c>
@@ -1158,7 +1169,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>59</v>
       </c>
@@ -1181,7 +1192,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>60</v>
       </c>
@@ -1204,7 +1215,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>11</v>
       </c>
@@ -1227,7 +1238,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
         <v>61</v>
       </c>
@@ -1250,7 +1261,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
         <v>7</v>
       </c>
@@ -1273,7 +1284,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>69</v>
       </c>
@@ -1296,7 +1307,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>12</v>
       </c>
@@ -1319,7 +1330,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>14</v>
       </c>
@@ -1342,7 +1353,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>63</v>
       </c>
@@ -1365,7 +1376,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>15</v>
       </c>
@@ -1388,7 +1399,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>64</v>
       </c>
@@ -1411,7 +1422,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
         <v>65</v>
       </c>
@@ -1434,7 +1445,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
         <v>17</v>
       </c>
@@ -1457,7 +1468,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
         <v>19</v>
       </c>
@@ -1480,7 +1491,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
         <v>20</v>
       </c>
@@ -1503,7 +1514,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
         <v>22</v>
       </c>
@@ -1526,7 +1537,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
         <v>24</v>
       </c>
@@ -1549,7 +1560,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
         <v>25</v>
       </c>
@@ -1572,7 +1583,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
         <v>27</v>
       </c>
@@ -1595,7 +1606,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
         <v>29</v>
       </c>
@@ -1620,7 +1631,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
         <v>30</v>
       </c>
@@ -1643,7 +1654,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
         <v>31</v>
       </c>
@@ -1666,7 +1677,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
         <v>32</v>
       </c>
@@ -1689,7 +1700,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
         <v>34</v>
       </c>
@@ -1712,7 +1723,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
         <v>36</v>
       </c>
@@ -1735,7 +1746,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
         <v>70</v>
       </c>
@@ -1758,7 +1769,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
         <v>71</v>
       </c>
@@ -1781,7 +1792,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
         <v>73</v>
       </c>
@@ -1806,7 +1817,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
         <v>74</v>
       </c>
@@ -1831,7 +1842,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="12" t="s">
         <v>76</v>
       </c>
@@ -1856,7 +1867,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="12" t="s">
         <v>77</v>
       </c>
@@ -1881,7 +1892,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
         <v>78</v>
       </c>
@@ -1906,7 +1917,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="12" t="s">
         <v>79</v>
       </c>
@@ -1931,7 +1942,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
         <v>80</v>
       </c>
@@ -1956,7 +1967,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
         <v>81</v>
       </c>
@@ -1967,11 +1978,11 @@
         <v>7.0524620000000002</v>
       </c>
       <c r="D39" s="7">
-        <f t="shared" ref="D39:D40" si="4">C39*0.9</f>
+        <f t="shared" ref="D39:D41" si="4">C39*0.9</f>
         <v>6.3472158000000007</v>
       </c>
       <c r="E39" s="7">
-        <f t="shared" ref="E39:E40" si="5">C39*1.1</f>
+        <f t="shared" ref="E39:E41" si="5">C39*1.1</f>
         <v>7.7577082000000006</v>
       </c>
       <c r="F39" s="12" t="s">
@@ -1981,7 +1992,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="12" t="s">
         <v>82</v>
       </c>
@@ -2003,6 +2014,30 @@
         <v>9</v>
       </c>
       <c r="G40" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="7">
+        <v>0.94</v>
+      </c>
+      <c r="D41" s="7">
+        <v>0.66</v>
+      </c>
+      <c r="E41" s="7">
+        <f t="shared" si="5"/>
+        <v>1.034</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41" s="12" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2023,17 +2058,17 @@
       <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="26.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.54296875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.81640625" style="2"/>
+    <col min="1" max="1" width="26.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2057,7 +2092,7 @@
       </c>
       <c r="H1" s="12"/>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>55</v>
       </c>
@@ -2083,7 +2118,7 @@
       </c>
       <c r="H2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>57</v>
       </c>
@@ -2109,7 +2144,7 @@
       </c>
       <c r="H3" s="12"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>58</v>
       </c>
@@ -2135,7 +2170,7 @@
       </c>
       <c r="H4" s="12"/>
     </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>59</v>
       </c>
@@ -2161,7 +2196,7 @@
       </c>
       <c r="H5" s="12"/>
     </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>60</v>
       </c>
@@ -2187,7 +2222,7 @@
       </c>
       <c r="H6" s="12"/>
     </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>11</v>
       </c>
@@ -2213,7 +2248,7 @@
       </c>
       <c r="H7" s="12"/>
     </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
         <v>61</v>
       </c>
@@ -2239,7 +2274,7 @@
       </c>
       <c r="H8" s="12"/>
     </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
         <v>7</v>
       </c>
@@ -2263,7 +2298,7 @@
       </c>
       <c r="H9" s="12"/>
     </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>69</v>
       </c>
@@ -2287,7 +2322,7 @@
       </c>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>12</v>
       </c>
@@ -2311,7 +2346,7 @@
       </c>
       <c r="H11" s="12"/>
     </row>
-    <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>14</v>
       </c>
@@ -2335,7 +2370,7 @@
       </c>
       <c r="H12" s="12"/>
     </row>
-    <row r="13" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>63</v>
       </c>
@@ -2359,7 +2394,7 @@
       </c>
       <c r="H13" s="12"/>
     </row>
-    <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>15</v>
       </c>
@@ -2383,7 +2418,7 @@
       </c>
       <c r="H14" s="12"/>
     </row>
-    <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>64</v>
       </c>
@@ -2407,7 +2442,7 @@
       </c>
       <c r="H15" s="12"/>
     </row>
-    <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
         <v>65</v>
       </c>
@@ -2431,7 +2466,7 @@
       </c>
       <c r="H16" s="12"/>
     </row>
-    <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
         <v>17</v>
       </c>
@@ -2455,7 +2490,7 @@
       </c>
       <c r="H17" s="12"/>
     </row>
-    <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
         <v>19</v>
       </c>
@@ -2479,7 +2514,7 @@
       </c>
       <c r="H18" s="12"/>
     </row>
-    <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
         <v>20</v>
       </c>
@@ -2503,7 +2538,7 @@
       </c>
       <c r="H19" s="12"/>
     </row>
-    <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
         <v>22</v>
       </c>
@@ -2527,7 +2562,7 @@
       </c>
       <c r="H20" s="12"/>
     </row>
-    <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
         <v>24</v>
       </c>
@@ -2551,7 +2586,7 @@
       </c>
       <c r="H21" s="12"/>
     </row>
-    <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
         <v>25</v>
       </c>
@@ -2575,7 +2610,7 @@
       </c>
       <c r="H22" s="12"/>
     </row>
-    <row r="23" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
         <v>27</v>
       </c>
@@ -2599,7 +2634,7 @@
       </c>
       <c r="H23" s="12"/>
     </row>
-    <row r="24" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
         <v>29</v>
       </c>
@@ -2625,7 +2660,7 @@
       </c>
       <c r="H24" s="12"/>
     </row>
-    <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
         <v>30</v>
       </c>
@@ -2649,7 +2684,7 @@
       </c>
       <c r="H25" s="12"/>
     </row>
-    <row r="26" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
         <v>31</v>
       </c>
@@ -2673,7 +2708,7 @@
       </c>
       <c r="H26" s="12"/>
     </row>
-    <row r="27" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
         <v>32</v>
       </c>
@@ -2697,7 +2732,7 @@
       </c>
       <c r="H27" s="12"/>
     </row>
-    <row r="28" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
         <v>34</v>
       </c>
@@ -2721,7 +2756,7 @@
       </c>
       <c r="H28" s="12"/>
     </row>
-    <row r="29" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
         <v>36</v>
       </c>
@@ -2745,7 +2780,7 @@
       </c>
       <c r="H29" s="12"/>
     </row>
-    <row r="30" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
         <v>70</v>
       </c>
@@ -2770,7 +2805,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
         <v>71</v>
       </c>
@@ -2795,7 +2830,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
         <v>73</v>
       </c>
@@ -2820,7 +2855,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
         <v>74</v>
       </c>
@@ -2845,7 +2880,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="12" t="s">
         <v>76</v>
       </c>
@@ -2870,7 +2905,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="12" t="s">
         <v>77</v>
       </c>
@@ -2895,7 +2930,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
         <v>78</v>
       </c>
@@ -2920,7 +2955,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="12" t="s">
         <v>79</v>
       </c>
@@ -2945,7 +2980,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
         <v>80</v>
       </c>
@@ -2970,7 +3005,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
         <v>81</v>
       </c>
@@ -2995,7 +3030,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="12" t="s">
         <v>82</v>
       </c>
@@ -3037,17 +3072,17 @@
       <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="26.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.54296875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.81640625" style="2"/>
+    <col min="1" max="1" width="26.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3070,7 +3105,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>55</v>
       </c>
@@ -3095,7 +3130,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>57</v>
       </c>
@@ -3120,7 +3155,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>58</v>
       </c>
@@ -3145,7 +3180,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>59</v>
       </c>
@@ -3170,7 +3205,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>60</v>
       </c>
@@ -3195,7 +3230,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>68</v>
       </c>
@@ -3220,7 +3255,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
         <v>61</v>
       </c>
@@ -3245,7 +3280,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
         <v>7</v>
       </c>
@@ -3268,7 +3303,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>69</v>
       </c>
@@ -3291,7 +3326,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>12</v>
       </c>
@@ -3314,7 +3349,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>14</v>
       </c>
@@ -3337,7 +3372,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>63</v>
       </c>
@@ -3360,7 +3395,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>15</v>
       </c>
@@ -3383,7 +3418,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>64</v>
       </c>
@@ -3406,7 +3441,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
         <v>65</v>
       </c>
@@ -3429,7 +3464,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
         <v>17</v>
       </c>
@@ -3452,7 +3487,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
         <v>19</v>
       </c>
@@ -3477,7 +3512,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
         <v>20</v>
       </c>
@@ -3500,7 +3535,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
         <v>22</v>
       </c>
@@ -3523,7 +3558,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
         <v>24</v>
       </c>
@@ -3546,7 +3581,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
         <v>25</v>
       </c>
@@ -3569,7 +3604,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
         <v>27</v>
       </c>
@@ -3592,7 +3627,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
         <v>29</v>
       </c>
@@ -3617,7 +3652,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
         <v>30</v>
       </c>
@@ -3640,7 +3675,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
         <v>31</v>
       </c>
@@ -3663,7 +3698,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
         <v>32</v>
       </c>
@@ -3686,7 +3721,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
         <v>34</v>
       </c>
@@ -3709,7 +3744,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
         <v>36</v>
       </c>
@@ -3732,7 +3767,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
         <v>70</v>
       </c>
@@ -3757,7 +3792,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
         <v>71</v>
       </c>
@@ -3782,7 +3817,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
         <v>73</v>
       </c>
@@ -3807,7 +3842,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
         <v>74</v>
       </c>
@@ -3832,7 +3867,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="12" t="s">
         <v>76</v>
       </c>
@@ -3857,7 +3892,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="12" t="s">
         <v>77</v>
       </c>
@@ -3882,7 +3917,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
         <v>78</v>
       </c>
@@ -3907,7 +3942,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="12" t="s">
         <v>79</v>
       </c>
@@ -3932,7 +3967,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
         <v>80</v>
       </c>
@@ -3957,7 +3992,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
         <v>81</v>
       </c>
@@ -3982,7 +4017,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="12" t="s">
         <v>82</v>
       </c>
@@ -4024,16 +4059,16 @@
       <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="26.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="13.54296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.81640625" style="2"/>
+    <col min="1" max="1" width="26.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="13.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4056,7 +4091,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>55</v>
       </c>
@@ -4081,7 +4116,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>57</v>
       </c>
@@ -4106,7 +4141,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>58</v>
       </c>
@@ -4131,7 +4166,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>59</v>
       </c>
@@ -4156,7 +4191,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>60</v>
       </c>
@@ -4181,7 +4216,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>11</v>
       </c>
@@ -4206,7 +4241,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
         <v>61</v>
       </c>
@@ -4231,7 +4266,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
         <v>7</v>
       </c>
@@ -4254,7 +4289,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>69</v>
       </c>
@@ -4277,7 +4312,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>12</v>
       </c>
@@ -4300,7 +4335,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>14</v>
       </c>
@@ -4323,7 +4358,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>63</v>
       </c>
@@ -4346,7 +4381,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>15</v>
       </c>
@@ -4369,7 +4404,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>64</v>
       </c>
@@ -4392,7 +4427,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
         <v>65</v>
       </c>
@@ -4418,7 +4453,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
         <v>17</v>
       </c>
@@ -4441,7 +4476,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
         <v>19</v>
       </c>
@@ -4464,7 +4499,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
         <v>20</v>
       </c>
@@ -4487,7 +4522,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
         <v>22</v>
       </c>
@@ -4510,7 +4545,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
         <v>24</v>
       </c>
@@ -4533,7 +4568,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
         <v>25</v>
       </c>
@@ -4556,7 +4591,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
         <v>27</v>
       </c>
@@ -4579,7 +4614,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
         <v>29</v>
       </c>
@@ -4604,7 +4639,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
         <v>30</v>
       </c>
@@ -4627,7 +4662,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
         <v>31</v>
       </c>
@@ -4650,7 +4685,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
         <v>32</v>
       </c>
@@ -4673,7 +4708,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
         <v>34</v>
       </c>
@@ -4696,7 +4731,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
         <v>36</v>
       </c>
@@ -4719,7 +4754,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
         <v>70</v>
       </c>
@@ -4744,7 +4779,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
         <v>71</v>
       </c>
@@ -4769,7 +4804,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
         <v>73</v>
       </c>
@@ -4794,7 +4829,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
         <v>74</v>
       </c>
@@ -4819,7 +4854,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="12" t="s">
         <v>76</v>
       </c>
@@ -4844,7 +4879,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="12" t="s">
         <v>77</v>
       </c>
@@ -4869,7 +4904,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
         <v>78</v>
       </c>
@@ -4894,7 +4929,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="12" t="s">
         <v>79</v>
       </c>
@@ -4919,7 +4954,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
         <v>80</v>
       </c>
@@ -4944,7 +4979,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
         <v>81</v>
       </c>
@@ -4969,7 +5004,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="12" t="s">
         <v>82</v>
       </c>
